--- a/ASME-BPV-SectionVIII-Calcs.xlsx
+++ b/ASME-BPV-SectionVIII-Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883F365E-0E9E-E748-BA66-68E1DD1C8400}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0413B863-9A90-4044-BB5A-515073A37066}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Dan Zanko - 7/22/2018</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -70,13 +67,40 @@
   </si>
   <si>
     <t>MINIMUM SHELL RADIUS (in)</t>
+  </si>
+  <si>
+    <t>N2O Run Tank</t>
+  </si>
+  <si>
+    <t>Designer: Dan Zanko</t>
+  </si>
+  <si>
+    <t>grav. Accel (ft/s2)</t>
+  </si>
+  <si>
+    <t>worst case deltaP due to fluid height (25C if tank fully filled with liq) (psi)</t>
+  </si>
+  <si>
+    <t>RT Internal Storage Length (ft)</t>
+  </si>
+  <si>
+    <t>liq density (25C) (slug/ft3)</t>
+  </si>
+  <si>
+    <t>vap density (25C) (slug/ft3)</t>
+  </si>
+  <si>
+    <t>Assume piping length b/w RT &amp; CC (ft)</t>
+  </si>
+  <si>
+    <t>worst case deltaP due to fluid height (25C if tank fully filled with liq) right before injector(psi)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,9 +126,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -215,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -227,16 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -253,6 +296,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,169 +623,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC6F123-32E7-44A1-9243-3BCDE965A118}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>825</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f>B8+B9</f>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
         <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>825</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <f>B7+B8</f>
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>3.125</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12">
-        <f>B16*B7/((B10*B8)-(0.6*B16))</f>
-        <v>0.16108247422680413</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3.125</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10">
+        <f>B17*B8/((B11*B9)-(0.6*B17))</f>
+        <v>0.16108247422680413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="E9" s="12">
+        <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
+        <v>7.7351485148514851E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14">
-        <f>B16*B7/((2*B10*B8)+(0.4*B16))</f>
-        <v>7.7351485148514851E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="16">
-        <f>MAX(E7:E8)</f>
+      <c r="E10" s="14">
+        <f>MAX(E8:E9)</f>
         <v>0.16108247422680413</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>33000</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <f>B9*(B5-B6)</f>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>B10*(B6-B7)</f>
         <v>1650</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3.2490157499999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.4416599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.36626515199999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="19">
+        <f>B20*B22*B19</f>
+        <v>150.824028685869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24">
+        <f>B23+B6</f>
+        <v>975.82402868586905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="19">
+        <f>B20*B22*(B19+B26)</f>
+        <v>197.24548068586901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19">
+        <f>B27+B6</f>
+        <v>1022.245480685869</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ASME-BPV-SectionVIII-Calcs.xlsx
+++ b/ASME-BPV-SectionVIII-Calcs.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0413B863-9A90-4044-BB5A-515073A37066}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7828C7D1-731A-D541-9D37-4C73DCAB53CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs + Answers" sheetId="1" r:id="rId1"/>
+    <sheet name="N2O Properties" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'N2O Properties'!$A$4:$A$78</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'N2O Properties'!$B$4:$B$78</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'N2O Properties'!$F$4:$F$78</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'N2O Properties'!$G$4:$G$78</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -66,9 +73,6 @@
     <t>UG-27.c.2 ---- t_min (in.)</t>
   </si>
   <si>
-    <t>MINIMUM SHELL RADIUS (in)</t>
-  </si>
-  <si>
     <t>N2O Run Tank</t>
   </si>
   <si>
@@ -84,23 +88,70 @@
     <t>RT Internal Storage Length (ft)</t>
   </si>
   <si>
-    <t>liq density (25C) (slug/ft3)</t>
-  </si>
-  <si>
-    <t>vap density (25C) (slug/ft3)</t>
-  </si>
-  <si>
     <t>Assume piping length b/w RT &amp; CC (ft)</t>
   </si>
   <si>
     <t>worst case deltaP due to fluid height (25C if tank fully filled with liq) right before injector(psi)</t>
+  </si>
+  <si>
+    <t>MINIMUM SHELL Thickness (in)</t>
+  </si>
+  <si>
+    <t>(°F)</t>
+  </si>
+  <si>
+    <t>Taken from gas encyclopedia by air liquide</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>(psi)</t>
+  </si>
+  <si>
+    <t>Vap Pressure</t>
+  </si>
+  <si>
+    <t>Liquid Density</t>
+  </si>
+  <si>
+    <t>Gas density</t>
+  </si>
+  <si>
+    <t>slug/ft3</t>
+  </si>
+  <si>
+    <t>Worst Case Pressure</t>
+  </si>
+  <si>
+    <t>Bottom of RT</t>
+  </si>
+  <si>
+    <t>Bottom of Plumbing</t>
+  </si>
+  <si>
+    <t>Plumbing Length (ft)</t>
+  </si>
+  <si>
+    <t>Total P</t>
+  </si>
+  <si>
+    <t>deltaP</t>
+  </si>
+  <si>
+    <t>delta P(from bot of RT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +210,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -260,11 +351,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -275,9 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -296,19 +406,119 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,6 +534,2355 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pvap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N2O Properties'!$A$4:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>97.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N2O Properties'!$B$4:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>452.82023903999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>458.65366740000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464.54366057999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470.48731781999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>476.48608949999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>482.54142600000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>488.65187693999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>494.82034307999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>501.04537404000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>507.32696982000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>513.66803117999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>520.06565735999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>526.52129874000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>533.03640570000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>539.61097824000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>546.24646674000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>552.93997044000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>559.69439009999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>566.51117609999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>573.38742767999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>580.32604560000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>587.32702986000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>594.39038045999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>601.51754778000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>608.70708144000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>615.96188219999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>623.28049967999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>630.66438426000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>638.11353594000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>645.62795472000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>653.21054135999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>660.85839510000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>668.57586708000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>676.36005653999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>684.21241385999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>692.13438942000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>700.12743360000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>708.18864564</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>716.32237667999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>724.52862672000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>732.80594538000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>741.15723342000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>749.58104045999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>758.08026725999991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>766.65491381999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>775.30498014</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>784.03191660000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>792.83572320000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>799.74517236666668</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>801.71930069999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>810.68264910000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>819.72576839999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>828.85010898000007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>838.05712122</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>847.34825549999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>856.72351182</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>866.18579093999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>875.73364248000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>885.37141757999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>895.10056662</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>904.91963922000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>914.83443690000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>924.84350928000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>934.95120750000012</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>945.16043231999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>955.47118374000013</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>965.88781289999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>976.41612132</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>987.05610900000011</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>997.81792859999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1008.70448088</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1019.7259185</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1030.8938445000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1042.23146496</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1050.8003100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E249-C147-B0BB-2253C2C9EB79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DeltaP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N2O Properties'!$A$4:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>97.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N2O Properties'!$F$4:$F$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>184.12804285005035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.61020772304695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183.08851572916268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.56337285438499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182.03457610572022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.50192249017456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.96520901475432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180.42484166544696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179.88000847027752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>179.33131840822728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178.77816250031498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178.22074373953436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>177.65865613989797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177.09189970140577</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>176.52047442405785</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>175.94417731486035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>175.36280538081968</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>174.7763586219358</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>174.18443105222119</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>173.5870226716759</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>172.98393048730617</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>172.37515449911206</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>171.76028872110604</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>171.1391301602944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170.51167881667718</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>169.87732571127316</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>169.23627383707606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168.58811720809842</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>167.93265283134656</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>167.26947472083296</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>166.59837988356398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165.91896233355203</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165.2310190778035</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>164.53414413033084</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>163.82793150514664</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>163.11197521626343</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>162.38607227068749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161.64941069644394</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.90158450754521</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>160.14218771800392</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>159.37061134883893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>158.58604342807524</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>157.78807796972538</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>156.97590300181452</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>156.14850355937392</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>155.30506767042877</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>154.44478336300401</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>153.56643267913739</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>152.86827210937113</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>152.66879766086649</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>151.75045735723521</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>150.81019381028113</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>149.84618008306072</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>148.85658923863045</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>147.83918835405927</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>146.79174450641614</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>145.71121280079512</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>144.59475133528403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>143.4383002500083</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>142.23739369910584</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>140.98695685773345</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>139.68069694308545</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>138.3106972284065</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>136.867620035985</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>135.33908279320343</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>133.70945503954474</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>131.95823448264215</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>130.05639312439246</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>127.96312937305603</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>125.61632737255174</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>122.91408464002747</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>119.66944462825852</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>115.4685046230309</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>108.96339114598214</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>91.755066088569208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E249-C147-B0BB-2253C2C9EB79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Total P</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'N2O Properties'!$A$4:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>97.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'N2O Properties'!$G$4:$G$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="75"/>
+                <c:pt idx="0">
+                  <c:v>636.94828189005034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>642.263875123047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>647.63217630916267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>653.0506906743849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>658.52066560572018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>664.04334849017459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>669.61708595475432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>675.24518474544698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>680.92538251027759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>686.65828822822732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>692.44619368031499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>698.28640109953426</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>704.17995487989799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>710.12830540140578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>716.13145266405786</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>722.1906440548604</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>728.30277582081976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>734.47074872193571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>740.6956071522211</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>746.97445035167584</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>753.30997608730627</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>759.70218435911215</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>766.15066918110597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>772.65667794029446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>779.21876025667723</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>785.83920791127321</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>792.51677351707599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>799.25250146809844</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>806.04618877134658</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>812.89742944083298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>819.80892124356399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>826.77735743355208</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>833.80688615780355</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>840.89420067033075</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>848.04034536514655</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>855.24636463626348</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>862.51350587068748</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>869.83805633644397</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>877.22396118754511</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>884.67081443800396</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>892.17655672883893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>899.74327684807531</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>907.36911842972529</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>915.05617026181449</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>922.80341737937385</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>930.6100478104288</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>938.47669996300408</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>946.40215587913747</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>952.61344447603778</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>954.38809836086648</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>962.43310645723523</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>970.53596221028113</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>978.69628906306082</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>986.91371045863048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>995.18744385405921</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1003.5152563264162</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1011.8970037407951</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1020.3283938152841</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1028.8097178300081</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1037.3379603191058</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1045.9065960777334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1054.5151338430856</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1063.1542065084066</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1071.8188275359851</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1080.4995151132034</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1089.1806387795448</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1097.8460473826422</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1106.4725144443923</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1115.0192383730562</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1123.4342559725517</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1131.6185655200275</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1139.3953631282586</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1146.362349123031</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1151.1948561059821</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1142.5553760885693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E249-C147-B0BB-2253C2C9EB79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1007040623"/>
+        <c:axId val="894464367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1007040623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (ºF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894464367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="894464367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure (psi)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1007040623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>425026</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>164253</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB5631D-F229-2C44-8BD7-40E3AD061397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC6F123-32E7-44A1-9243-3BCDE965A118}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,44 +3197,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -707,10 +3266,10 @@
       <c r="B8">
         <v>3.125</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f>B17*B8/((B11*B9)-(0.6*B17))</f>
         <v>0.16108247422680413</v>
       </c>
@@ -722,10 +3281,10 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f>B17*B8/((2*B11*B9)+(0.4*B17))</f>
         <v>7.7351485148514851E-2</v>
       </c>
@@ -737,10 +3296,10 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13">
         <f>MAX(E8:E9)</f>
         <v>0.16108247422680413</v>
       </c>
@@ -752,28 +3311,28 @@
       <c r="B11">
         <v>33000</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -783,86 +3342,59 @@
         <f>B10*(B6-B7)</f>
         <v>1650</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="27">
+        <f>B20*B22*B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28">
+        <f>B23+B6</f>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>3.2490157499999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B26" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1.4416599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.36626515199999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="19">
-        <f>B20*B22*B19</f>
-        <v>150.824028685869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24">
-        <f>B23+B6</f>
-        <v>975.82402868586905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="19">
+      <c r="B27" s="27">
         <f>B20*B22*(B19+B26)</f>
-        <v>197.24548068586901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27">
         <f>B27+B6</f>
-        <v>1022.245480685869</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -878,4 +3410,4671 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
+  <dimension ref="A1:K818"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="30"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="29"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="14" style="49" customWidth="1"/>
+    <col min="7" max="7" width="16" style="45" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>3.2490157499999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="33">
+        <v>32</v>
+      </c>
+      <c r="B4" s="19">
+        <v>452.82023903999999</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1.75999830112</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.16525852904319999</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="49">
+        <f t="shared" ref="F4:F33" si="0">C4*$K$3*$K$2</f>
+        <v>184.12804285005035</v>
+      </c>
+      <c r="G4" s="45">
+        <f t="shared" ref="G4:G33" si="1">B4+(C4*$K$3*$K$2)</f>
+        <v>636.94828189005034</v>
+      </c>
+      <c r="H4" s="50">
+        <f t="shared" ref="H4:H33" si="2">C4*$K$3*$K$1</f>
+        <v>85.007917944096008</v>
+      </c>
+      <c r="I4" s="45">
+        <f t="shared" ref="I4:I33" si="3">G4+H4</f>
+        <v>721.95619983414633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="33">
+        <v>32.9</v>
+      </c>
+      <c r="B5" s="19">
+        <v>458.65366740000002</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1.7550485447999999</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.16772615040639999</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="49">
+        <f t="shared" si="0"/>
+        <v>183.61020772304695</v>
+      </c>
+      <c r="G5" s="45">
+        <f t="shared" si="1"/>
+        <v>642.263875123047</v>
+      </c>
+      <c r="H5" s="50">
+        <f t="shared" si="2"/>
+        <v>84.768844713840011</v>
+      </c>
+      <c r="I5" s="45">
+        <f t="shared" si="3"/>
+        <v>727.03271983688705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B6" s="19">
+        <v>464.54366057999999</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1.7500619224</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.1702317244288</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="49">
+        <f t="shared" si="0"/>
+        <v>183.08851572916268</v>
+      </c>
+      <c r="G6" s="45">
+        <f t="shared" si="1"/>
+        <v>647.63217630916267</v>
+      </c>
+      <c r="H6" s="50">
+        <f t="shared" si="2"/>
+        <v>84.527990851920009</v>
+      </c>
+      <c r="I6" s="45">
+        <f t="shared" si="3"/>
+        <v>732.16016716108265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="33">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="B7" s="19">
+        <v>470.48731781999993</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1.7450423145599998</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.17277604664159998</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="49">
+        <f t="shared" si="0"/>
+        <v>182.56337285438499</v>
+      </c>
+      <c r="G7" s="45">
+        <f t="shared" si="1"/>
+        <v>653.0506906743849</v>
+      </c>
+      <c r="H7" s="50">
+        <f t="shared" si="2"/>
+        <v>84.285543793247996</v>
+      </c>
+      <c r="I7" s="45">
+        <f t="shared" si="3"/>
+        <v>737.33623446763295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
+        <v>35.6</v>
+      </c>
+      <c r="B8" s="19">
+        <v>476.48608949999999</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.73998778096</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.17536002899519998</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="49">
+        <f t="shared" si="0"/>
+        <v>182.03457610572022</v>
+      </c>
+      <c r="G8" s="45">
+        <f t="shared" si="1"/>
+        <v>658.52066560572018</v>
+      </c>
+      <c r="H8" s="50">
+        <f t="shared" si="2"/>
+        <v>84.041409820368003</v>
+      </c>
+      <c r="I8" s="45">
+        <f t="shared" si="3"/>
+        <v>742.5620754260882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
+        <v>36.5</v>
+      </c>
+      <c r="B9" s="19">
+        <v>482.54142600000006</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1.73489638128</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.17798456403679999</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="49">
+        <f t="shared" si="0"/>
+        <v>181.50192249017456</v>
+      </c>
+      <c r="G9" s="45">
+        <f t="shared" si="1"/>
+        <v>664.04334849017459</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="2"/>
+        <v>83.795495215824019</v>
+      </c>
+      <c r="I9" s="45">
+        <f t="shared" si="3"/>
+        <v>747.83884370599867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="33">
+        <v>37.4</v>
+      </c>
+      <c r="B10" s="19">
+        <v>488.65187693999997</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1.7297661752</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.18065056371679999</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="49">
+        <f t="shared" si="0"/>
+        <v>180.96520901475432</v>
+      </c>
+      <c r="G10" s="45">
+        <f t="shared" si="1"/>
+        <v>669.61708595475432</v>
+      </c>
+      <c r="H10" s="50">
+        <f t="shared" si="2"/>
+        <v>83.547706262160006</v>
+      </c>
+      <c r="I10" s="45">
+        <f t="shared" si="3"/>
+        <v>753.16479221691429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="33">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="B11" s="19">
+        <v>494.82034307999999</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1.7246010433599999</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.18335905640479999</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="49">
+        <f t="shared" si="0"/>
+        <v>180.42484166544696</v>
+      </c>
+      <c r="G11" s="45">
+        <f t="shared" si="1"/>
+        <v>675.24518474544698</v>
+      </c>
+      <c r="H11" s="50">
+        <f t="shared" si="2"/>
+        <v>83.298230394287998</v>
+      </c>
+      <c r="I11" s="45">
+        <f t="shared" si="3"/>
+        <v>758.54341513973498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="33">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B12" s="19">
+        <v>501.04537404000001</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1.7193932244799999</v>
+      </c>
+      <c r="D12" s="31">
+        <v>0.18611099285759999</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="49">
+        <f t="shared" si="0"/>
+        <v>179.88000847027752</v>
+      </c>
+      <c r="G12" s="45">
+        <f t="shared" si="1"/>
+        <v>680.92538251027759</v>
+      </c>
+      <c r="H12" s="50">
+        <f t="shared" si="2"/>
+        <v>83.046692742383996</v>
+      </c>
+      <c r="I12" s="45">
+        <f t="shared" si="3"/>
+        <v>763.97207525266163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="33">
+        <v>40.1</v>
+      </c>
+      <c r="B13" s="19">
+        <v>507.32696982000004</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1.71414853952</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0.1889074790576</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="49">
+        <f t="shared" si="0"/>
+        <v>179.33131840822728</v>
+      </c>
+      <c r="G13" s="45">
+        <f t="shared" si="1"/>
+        <v>686.65828822822732</v>
+      </c>
+      <c r="H13" s="50">
+        <f t="shared" si="2"/>
+        <v>82.793374458816004</v>
+      </c>
+      <c r="I13" s="45">
+        <f t="shared" si="3"/>
+        <v>769.45166268704338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="33">
+        <v>41</v>
+      </c>
+      <c r="B14" s="19">
+        <v>513.66803117999996</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1.7088611675200001</v>
+      </c>
+      <c r="D14" s="31">
+        <v>0.19174958218079999</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="49">
+        <f t="shared" si="0"/>
+        <v>178.77816250031498</v>
+      </c>
+      <c r="G14" s="45">
+        <f t="shared" si="1"/>
+        <v>692.44619368031499</v>
+      </c>
+      <c r="H14" s="50">
+        <f t="shared" si="2"/>
+        <v>82.537994391216003</v>
+      </c>
+      <c r="I14" s="45">
+        <f t="shared" si="3"/>
+        <v>774.98418807153098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
+        <v>41.9</v>
+      </c>
+      <c r="B15" s="19">
+        <v>520.06565735999993</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1.7035330488</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0.19463846641919999</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="49">
+        <f t="shared" si="0"/>
+        <v>178.22074373953436</v>
+      </c>
+      <c r="G15" s="45">
+        <f t="shared" si="1"/>
+        <v>698.28640109953426</v>
+      </c>
+      <c r="H15" s="50">
+        <f t="shared" si="2"/>
+        <v>82.280646257040004</v>
+      </c>
+      <c r="I15" s="45">
+        <f t="shared" si="3"/>
+        <v>780.56704735657422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="33">
+        <v>42.8</v>
+      </c>
+      <c r="B16" s="19">
+        <v>526.52129874000002</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1.6981603027200001</v>
+      </c>
+      <c r="D16" s="31">
+        <v>0.19757531536799999</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="49">
+        <f t="shared" si="0"/>
+        <v>177.65865613989797</v>
+      </c>
+      <c r="G16" s="45">
+        <f t="shared" si="1"/>
+        <v>704.17995487989799</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="2"/>
+        <v>82.021142621376015</v>
+      </c>
+      <c r="I16" s="45">
+        <f t="shared" si="3"/>
+        <v>786.20109750127403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
+        <v>43.7</v>
+      </c>
+      <c r="B17" s="19">
+        <v>533.03640570000005</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1.69274292928</v>
+      </c>
+      <c r="D17" s="31">
+        <v>0.20056135142879999</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="49">
+        <f t="shared" si="0"/>
+        <v>177.09189970140577</v>
+      </c>
+      <c r="G17" s="45">
+        <f t="shared" si="1"/>
+        <v>710.12830540140578</v>
+      </c>
+      <c r="H17" s="50">
+        <f t="shared" si="2"/>
+        <v>81.759483484224006</v>
+      </c>
+      <c r="I17" s="45">
+        <f t="shared" si="3"/>
+        <v>791.88778888562979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="33">
+        <v>44.6</v>
+      </c>
+      <c r="B18" s="19">
+        <v>539.61097824000001</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1.6872809284800001</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0.20359789401919998</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="49">
+        <f t="shared" si="0"/>
+        <v>176.52047442405785</v>
+      </c>
+      <c r="G18" s="45">
+        <f t="shared" si="1"/>
+        <v>716.13145266405786</v>
+      </c>
+      <c r="H18" s="50">
+        <f t="shared" si="2"/>
+        <v>81.495668845584021</v>
+      </c>
+      <c r="I18" s="45">
+        <f t="shared" si="3"/>
+        <v>797.62712150964194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="33">
+        <v>45.5</v>
+      </c>
+      <c r="B19" s="19">
+        <v>546.24646674000007</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1.6817723599999999</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0.20668630136319999</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="49">
+        <f t="shared" si="0"/>
+        <v>175.94417731486035</v>
+      </c>
+      <c r="G19" s="45">
+        <f t="shared" si="1"/>
+        <v>722.1906440548604</v>
+      </c>
+      <c r="H19" s="50">
+        <f t="shared" si="2"/>
+        <v>81.229604988000006</v>
+      </c>
+      <c r="I19" s="45">
+        <f t="shared" si="3"/>
+        <v>803.42024904286041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
+        <v>46.4</v>
+      </c>
+      <c r="B20" s="19">
+        <v>552.93997044000002</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1.6762152835199999</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0.2098279704912</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="49">
+        <f t="shared" si="0"/>
+        <v>175.36280538081968</v>
+      </c>
+      <c r="G20" s="45">
+        <f t="shared" si="1"/>
+        <v>728.30277582081976</v>
+      </c>
+      <c r="H20" s="50">
+        <f t="shared" si="2"/>
+        <v>80.961198194015992</v>
+      </c>
+      <c r="I20" s="45">
+        <f t="shared" si="3"/>
+        <v>809.26397401483575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
+        <v>47.3</v>
+      </c>
+      <c r="B21" s="19">
+        <v>559.69439009999996</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1.6706096990399999</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0.21302437604639998</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="49">
+        <f t="shared" si="0"/>
+        <v>174.7763586219358</v>
+      </c>
+      <c r="G21" s="45">
+        <f t="shared" si="1"/>
+        <v>734.47074872193571</v>
+      </c>
+      <c r="H21" s="50">
+        <f t="shared" si="2"/>
+        <v>80.690448463632009</v>
+      </c>
+      <c r="I21" s="45">
+        <f t="shared" si="3"/>
+        <v>815.16119718556774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="33">
+        <v>48.2</v>
+      </c>
+      <c r="B22" s="19">
+        <v>566.51117609999994</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1.66495172592</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0.21627710909119999</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="49">
+        <f t="shared" si="0"/>
+        <v>174.18443105222119</v>
+      </c>
+      <c r="G22" s="45">
+        <f t="shared" si="1"/>
+        <v>740.6956071522211</v>
+      </c>
+      <c r="H22" s="50">
+        <f t="shared" si="2"/>
+        <v>80.417168361936007</v>
+      </c>
+      <c r="I22" s="45">
+        <f t="shared" si="3"/>
+        <v>821.11277551415708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="33">
+        <v>49.1</v>
+      </c>
+      <c r="B23" s="19">
+        <v>573.38742767999997</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1.6592413641600001</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0.21958774128479999</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="49">
+        <f t="shared" si="0"/>
+        <v>173.5870226716759</v>
+      </c>
+      <c r="G23" s="45">
+        <f t="shared" si="1"/>
+        <v>746.97445035167584</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="2"/>
+        <v>80.141357888928013</v>
+      </c>
+      <c r="I23" s="45">
+        <f t="shared" si="3"/>
+        <v>827.11580824060388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="33">
+        <v>50</v>
+      </c>
+      <c r="B24" s="19">
+        <v>580.32604560000004</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1.6534766734399999</v>
+      </c>
+      <c r="D24" s="31">
+        <v>0.22295801891519998</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="49">
+        <f t="shared" si="0"/>
+        <v>172.98393048730617</v>
+      </c>
+      <c r="G24" s="45">
+        <f t="shared" si="1"/>
+        <v>753.30997608730627</v>
+      </c>
+      <c r="H24" s="50">
+        <f t="shared" si="2"/>
+        <v>79.862923327152004</v>
+      </c>
+      <c r="I24" s="45">
+        <f t="shared" si="3"/>
+        <v>833.17289941445824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="33">
+        <v>50.9</v>
+      </c>
+      <c r="B25" s="19">
+        <v>587.32702986000004</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1.6476576537600001</v>
+      </c>
+      <c r="D25" s="31">
+        <v>0.22638970767359998</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="49">
+        <f t="shared" si="0"/>
+        <v>172.37515449911206</v>
+      </c>
+      <c r="G25" s="45">
+        <f t="shared" si="1"/>
+        <v>759.70218435911215</v>
+      </c>
+      <c r="H25" s="50">
+        <f t="shared" si="2"/>
+        <v>79.581864676608006</v>
+      </c>
+      <c r="I25" s="45">
+        <f t="shared" si="3"/>
+        <v>839.28404903572016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="33">
+        <v>51.8</v>
+      </c>
+      <c r="B26" s="19">
+        <v>594.39038045999996</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1.6417804244800001</v>
+      </c>
+      <c r="D26" s="31">
+        <v>0.22988470907359998</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="49">
+        <f t="shared" si="0"/>
+        <v>171.76028872110604</v>
+      </c>
+      <c r="G26" s="45">
+        <f t="shared" si="1"/>
+        <v>766.15066918110597</v>
+      </c>
+      <c r="H26" s="50">
+        <f t="shared" si="2"/>
+        <v>79.297994502384014</v>
+      </c>
+      <c r="I26" s="45">
+        <f t="shared" si="3"/>
+        <v>845.44866368348994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="33">
+        <v>52.7</v>
+      </c>
+      <c r="B27" s="19">
+        <v>601.51754778000009</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1.6358430452799999</v>
+      </c>
+      <c r="D27" s="31">
+        <v>0.23344498283839998</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="49">
+        <f t="shared" si="0"/>
+        <v>171.1391301602944</v>
+      </c>
+      <c r="G27" s="45">
+        <f t="shared" si="1"/>
+        <v>772.65667794029446</v>
+      </c>
+      <c r="H27" s="50">
+        <f t="shared" si="2"/>
+        <v>79.011219087024003</v>
+      </c>
+      <c r="I27" s="45">
+        <f t="shared" si="3"/>
+        <v>851.66789702731842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="33">
+        <v>53.6</v>
+      </c>
+      <c r="B28" s="19">
+        <v>608.70708144000002</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1.6298455161600001</v>
+      </c>
+      <c r="D28" s="31">
+        <v>0.23707262451360001</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="49">
+        <f t="shared" si="0"/>
+        <v>170.51167881667718</v>
+      </c>
+      <c r="G28" s="45">
+        <f t="shared" si="1"/>
+        <v>779.21876025667723</v>
+      </c>
+      <c r="H28" s="50">
+        <f t="shared" si="2"/>
+        <v>78.721538430528014</v>
+      </c>
+      <c r="I28" s="45">
+        <f t="shared" si="3"/>
+        <v>857.9402986872052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="33">
+        <v>54.5</v>
+      </c>
+      <c r="B29" s="19">
+        <v>615.96188219999999</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1.6237820161600001</v>
+      </c>
+      <c r="D29" s="31">
+        <v>0.2407698072576</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="49">
+        <f t="shared" si="0"/>
+        <v>169.87732571127316</v>
+      </c>
+      <c r="G29" s="45">
+        <f t="shared" si="1"/>
+        <v>785.83920791127321</v>
+      </c>
+      <c r="H29" s="50">
+        <f t="shared" si="2"/>
+        <v>78.428671380528002</v>
+      </c>
+      <c r="I29" s="45">
+        <f t="shared" si="3"/>
+        <v>864.26787929180125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="33">
+        <v>55.4</v>
+      </c>
+      <c r="B30" s="19">
+        <v>623.28049967999993</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1.6176544856000001</v>
+      </c>
+      <c r="D30" s="31">
+        <v>0.24453885945439999</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="49">
+        <f t="shared" si="0"/>
+        <v>169.23627383707606</v>
+      </c>
+      <c r="G30" s="45">
+        <f t="shared" si="1"/>
+        <v>792.51677351707599</v>
+      </c>
+      <c r="H30" s="50">
+        <f t="shared" si="2"/>
+        <v>78.132711654480005</v>
+      </c>
+      <c r="I30" s="45">
+        <f t="shared" si="3"/>
+        <v>870.64948517155597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="33">
+        <v>56.3</v>
+      </c>
+      <c r="B31" s="19">
+        <v>630.66438426000002</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1.6114590438399998</v>
+      </c>
+      <c r="D31" s="31">
+        <v>0.24838222590720002</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="49">
+        <f t="shared" si="0"/>
+        <v>168.58811720809842</v>
+      </c>
+      <c r="G31" s="45">
+        <f t="shared" si="1"/>
+        <v>799.25250146809844</v>
+      </c>
+      <c r="H31" s="50">
+        <f t="shared" si="2"/>
+        <v>77.833471817472002</v>
+      </c>
+      <c r="I31" s="45">
+        <f t="shared" si="3"/>
+        <v>877.08597328557039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="33">
+        <v>57.2</v>
+      </c>
+      <c r="B32" s="19">
+        <v>638.11353594000002</v>
+      </c>
+      <c r="C32" s="21">
+        <v>1.60519375056</v>
+      </c>
+      <c r="D32" s="31">
+        <v>0.25230250664479997</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="49">
+        <f t="shared" si="0"/>
+        <v>167.93265283134656</v>
+      </c>
+      <c r="G32" s="45">
+        <f t="shared" si="1"/>
+        <v>806.04618877134658</v>
+      </c>
+      <c r="H32" s="50">
+        <f t="shared" si="2"/>
+        <v>77.530858152048012</v>
+      </c>
+      <c r="I32" s="45">
+        <f t="shared" si="3"/>
+        <v>883.57704692339462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="33">
+        <v>58.1</v>
+      </c>
+      <c r="B33" s="19">
+        <v>645.62795472000005</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1.5988547251199998</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0.25630243751839998</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="49">
+        <f t="shared" si="0"/>
+        <v>167.26947472083296</v>
+      </c>
+      <c r="G33" s="45">
+        <f t="shared" si="1"/>
+        <v>812.89742944083298</v>
+      </c>
+      <c r="H33" s="50">
+        <f t="shared" si="2"/>
+        <v>77.224683223295997</v>
+      </c>
+      <c r="I33" s="45">
+        <f t="shared" si="3"/>
+        <v>890.12211266412896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
+        <v>59</v>
+      </c>
+      <c r="B34" s="19">
+        <v>653.21054135999998</v>
+      </c>
+      <c r="C34" s="21">
+        <v>1.5924400272000001</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0.26038490960479999</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="49">
+        <f t="shared" ref="F34:F78" si="4">C34*$K$3*$K$2</f>
+        <v>166.59837988356398</v>
+      </c>
+      <c r="G34" s="45">
+        <f t="shared" ref="G34:G78" si="5">B34+(C34*$K$3*$K$2)</f>
+        <v>819.80892124356399</v>
+      </c>
+      <c r="H34" s="50">
+        <f t="shared" ref="H34:H78" si="6">C34*$K$3*$K$1</f>
+        <v>76.914853313760005</v>
+      </c>
+      <c r="I34" s="45">
+        <f t="shared" ref="I34:I78" si="7">G34+H34</f>
+        <v>896.72377455732396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>59.9</v>
+      </c>
+      <c r="B35" s="19">
+        <v>660.85839510000005</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1.58594577616</v>
+      </c>
+      <c r="D35" s="31">
+        <v>0.26455302741599995</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="49">
+        <f t="shared" si="4"/>
+        <v>165.91896233355203</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" si="5"/>
+        <v>826.77735743355208</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="6"/>
+        <v>76.601180988528014</v>
+      </c>
+      <c r="I35" s="45">
+        <f t="shared" si="7"/>
+        <v>903.37853842208006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="33">
+        <v>60.8</v>
+      </c>
+      <c r="B36" s="19">
+        <v>668.57586708000008</v>
+      </c>
+      <c r="C36" s="21">
+        <v>1.5793700316800001</v>
+      </c>
+      <c r="D36" s="31">
+        <v>0.2688100700928</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="49">
+        <f t="shared" si="4"/>
+        <v>165.2310190778035</v>
+      </c>
+      <c r="G36" s="45">
+        <f t="shared" si="5"/>
+        <v>833.80688615780355</v>
+      </c>
+      <c r="H36" s="50">
+        <f t="shared" si="6"/>
+        <v>76.283572530144014</v>
+      </c>
+      <c r="I36" s="45">
+        <f t="shared" si="7"/>
+        <v>910.0904586879476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
+        <v>61.7</v>
+      </c>
+      <c r="B37" s="19">
+        <v>676.36005653999996</v>
+      </c>
+      <c r="C37" s="21">
+        <v>1.5727089131200001</v>
+      </c>
+      <c r="D37" s="31">
+        <v>0.27315953021120004</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="49">
+        <f t="shared" si="4"/>
+        <v>164.53414413033084</v>
+      </c>
+      <c r="G37" s="45">
+        <f t="shared" si="5"/>
+        <v>840.89420067033075</v>
+      </c>
+      <c r="H37" s="50">
+        <f t="shared" si="6"/>
+        <v>75.96184050369601</v>
+      </c>
+      <c r="I37" s="45">
+        <f t="shared" si="7"/>
+        <v>916.85604117402681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="33">
+        <v>62.6</v>
+      </c>
+      <c r="B38" s="19">
+        <v>684.21241385999997</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1.56595853984</v>
+      </c>
+      <c r="D38" s="31">
+        <v>0.27760515258880003</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="49">
+        <f t="shared" si="4"/>
+        <v>163.82793150514664</v>
+      </c>
+      <c r="G38" s="45">
+        <f t="shared" si="5"/>
+        <v>848.04034536514655</v>
+      </c>
+      <c r="H38" s="50">
+        <f t="shared" si="6"/>
+        <v>75.63579747427201</v>
+      </c>
+      <c r="I38" s="45">
+        <f t="shared" si="7"/>
+        <v>923.67614283941862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="33">
+        <v>63.5</v>
+      </c>
+      <c r="B39" s="19">
+        <v>692.13438942000005</v>
+      </c>
+      <c r="C39" s="21">
+        <v>1.5591150311999999</v>
+      </c>
+      <c r="D39" s="31">
+        <v>0.28215091488159999</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="49">
+        <f t="shared" si="4"/>
+        <v>163.11197521626343</v>
+      </c>
+      <c r="G39" s="45">
+        <f t="shared" si="5"/>
+        <v>855.24636463626348</v>
+      </c>
+      <c r="H39" s="50">
+        <f t="shared" si="6"/>
+        <v>75.305256006960008</v>
+      </c>
+      <c r="I39" s="45">
+        <f t="shared" si="7"/>
+        <v>930.55162064322349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="33">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="B40" s="19">
+        <v>700.12743360000002</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1.5521764468799999</v>
+      </c>
+      <c r="D40" s="31">
+        <v>0.28680106639039998</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="49">
+        <f t="shared" si="4"/>
+        <v>162.38607227068749</v>
+      </c>
+      <c r="G40" s="45">
+        <f t="shared" si="5"/>
+        <v>862.51350587068748</v>
+      </c>
+      <c r="H40" s="50">
+        <f t="shared" si="6"/>
+        <v>74.970122384304005</v>
+      </c>
+      <c r="I40" s="45">
+        <f t="shared" si="7"/>
+        <v>937.48362825499146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="33">
+        <v>65.3</v>
+      </c>
+      <c r="B41" s="19">
+        <v>708.18864564</v>
+      </c>
+      <c r="C41" s="21">
+        <v>1.5451350256</v>
+      </c>
+      <c r="D41" s="31">
+        <v>0.29156020567359997</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="49">
+        <f t="shared" si="4"/>
+        <v>161.64941069644394</v>
+      </c>
+      <c r="G41" s="45">
+        <f t="shared" si="5"/>
+        <v>869.83805633644397</v>
+      </c>
+      <c r="H41" s="50">
+        <f t="shared" si="6"/>
+        <v>74.630021736480018</v>
+      </c>
+      <c r="I41" s="45">
+        <f t="shared" si="7"/>
+        <v>944.46807807292396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="33">
+        <v>66.2</v>
+      </c>
+      <c r="B42" s="19">
+        <v>716.32237667999993</v>
+      </c>
+      <c r="C42" s="21">
+        <v>1.5379868867199999</v>
+      </c>
+      <c r="D42" s="31">
+        <v>0.29643326114399998</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="49">
+        <f t="shared" si="4"/>
+        <v>160.90158450754521</v>
+      </c>
+      <c r="G42" s="45">
+        <f t="shared" si="5"/>
+        <v>877.22396118754511</v>
+      </c>
+      <c r="H42" s="50">
+        <f t="shared" si="6"/>
+        <v>74.284766628575994</v>
+      </c>
+      <c r="I42" s="45">
+        <f t="shared" si="7"/>
+        <v>951.50872781612111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="33">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="B43" s="19">
+        <v>724.52862672000003</v>
+      </c>
+      <c r="C43" s="21">
+        <v>1.5307281495999998</v>
+      </c>
+      <c r="D43" s="31">
+        <v>0.301425510472</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="49">
+        <f t="shared" si="4"/>
+        <v>160.14218771800392</v>
+      </c>
+      <c r="G43" s="45">
+        <f t="shared" si="5"/>
+        <v>884.67081443800396</v>
+      </c>
+      <c r="H43" s="50">
+        <f t="shared" si="6"/>
+        <v>73.934169625679999</v>
+      </c>
+      <c r="I43" s="45">
+        <f t="shared" si="7"/>
+        <v>958.60498406368401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="33">
+        <v>68</v>
+      </c>
+      <c r="B44" s="19">
+        <v>732.80594538000003</v>
+      </c>
+      <c r="C44" s="21">
+        <v>1.5233529932800001</v>
+      </c>
+      <c r="D44" s="31">
+        <v>0.30654265819839999</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="49">
+        <f t="shared" si="4"/>
+        <v>159.37061134883893</v>
+      </c>
+      <c r="G44" s="45">
+        <f t="shared" si="5"/>
+        <v>892.17655672883893</v>
+      </c>
+      <c r="H44" s="50">
+        <f t="shared" si="6"/>
+        <v>73.577949575424014</v>
+      </c>
+      <c r="I44" s="45">
+        <f t="shared" si="7"/>
+        <v>965.75450630426292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="33">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="B45" s="19">
+        <v>741.15723342000001</v>
+      </c>
+      <c r="C45" s="21">
+        <v>1.51585365648</v>
+      </c>
+      <c r="D45" s="31">
+        <v>0.31179093275039999</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="49">
+        <f t="shared" si="4"/>
+        <v>158.58604342807524</v>
+      </c>
+      <c r="G45" s="45">
+        <f t="shared" si="5"/>
+        <v>899.74327684807531</v>
+      </c>
+      <c r="H45" s="50">
+        <f t="shared" si="6"/>
+        <v>73.215731607984011</v>
+      </c>
+      <c r="I45" s="45">
+        <f t="shared" si="7"/>
+        <v>972.95900845605934</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="33">
+        <v>69.8</v>
+      </c>
+      <c r="B46" s="19">
+        <v>749.58104045999994</v>
+      </c>
+      <c r="C46" s="21">
+        <v>1.5082262585599999</v>
+      </c>
+      <c r="D46" s="31">
+        <v>0.31717698942559996</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="49">
+        <f t="shared" si="4"/>
+        <v>157.78807796972538</v>
+      </c>
+      <c r="G46" s="45">
+        <f t="shared" si="5"/>
+        <v>907.36911842972529</v>
+      </c>
+      <c r="H46" s="50">
+        <f t="shared" si="6"/>
+        <v>72.847328288447997</v>
+      </c>
+      <c r="I46" s="45">
+        <f t="shared" si="7"/>
+        <v>980.2164467181733</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="33">
+        <v>70.7</v>
+      </c>
+      <c r="B47" s="19">
+        <v>758.08026725999991</v>
+      </c>
+      <c r="C47" s="21">
+        <v>1.5004630382399999</v>
+      </c>
+      <c r="D47" s="31">
+        <v>0.32270816263359997</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="49">
+        <f t="shared" si="4"/>
+        <v>156.97590300181452</v>
+      </c>
+      <c r="G47" s="45">
+        <f t="shared" si="5"/>
+        <v>915.05617026181449</v>
+      </c>
+      <c r="H47" s="50">
+        <f t="shared" si="6"/>
+        <v>72.472364746992</v>
+      </c>
+      <c r="I47" s="45">
+        <f t="shared" si="7"/>
+        <v>987.52853500880644</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="33">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="B48" s="19">
+        <v>766.65491381999993</v>
+      </c>
+      <c r="C48" s="21">
+        <v>1.4925542939199998</v>
+      </c>
+      <c r="D48" s="31">
+        <v>0.32839236888000001</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="49">
+        <f t="shared" si="4"/>
+        <v>156.14850355937392</v>
+      </c>
+      <c r="G48" s="45">
+        <f t="shared" si="5"/>
+        <v>922.80341737937385</v>
+      </c>
+      <c r="H48" s="50">
+        <f t="shared" si="6"/>
+        <v>72.090372396335994</v>
+      </c>
+      <c r="I48" s="45">
+        <f t="shared" si="7"/>
+        <v>994.89378977570982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="33">
+        <v>72.5</v>
+      </c>
+      <c r="B49" s="19">
+        <v>775.30498014</v>
+      </c>
+      <c r="C49" s="21">
+        <v>1.48449226432</v>
+      </c>
+      <c r="D49" s="31">
+        <v>0.33423830079839995</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="49">
+        <f t="shared" si="4"/>
+        <v>155.30506767042877</v>
+      </c>
+      <c r="G49" s="45">
+        <f t="shared" si="5"/>
+        <v>930.6100478104288</v>
+      </c>
+      <c r="H49" s="50">
+        <f t="shared" si="6"/>
+        <v>71.700976366656008</v>
+      </c>
+      <c r="I49" s="45">
+        <f t="shared" si="7"/>
+        <v>1002.3110241770848</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="33">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="B50" s="19">
+        <v>784.03191660000005</v>
+      </c>
+      <c r="C50" s="21">
+        <v>1.4762691881599999</v>
+      </c>
+      <c r="D50" s="31">
+        <v>0.34025552416639998</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="49">
+        <f t="shared" si="4"/>
+        <v>154.44478336300401</v>
+      </c>
+      <c r="G50" s="45">
+        <f t="shared" si="5"/>
+        <v>938.47669996300408</v>
+      </c>
+      <c r="H50" s="50">
+        <f t="shared" si="6"/>
+        <v>71.303801788127998</v>
+      </c>
+      <c r="I50" s="45">
+        <f t="shared" si="7"/>
+        <v>1009.7805017511321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="33">
+        <v>74.3</v>
+      </c>
+      <c r="B51" s="19">
+        <v>792.83572320000007</v>
+      </c>
+      <c r="C51" s="21">
+        <v>1.4678734235199999</v>
+      </c>
+      <c r="D51" s="31">
+        <v>0.34645449730880001</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="49">
+        <f t="shared" si="4"/>
+        <v>153.56643267913739</v>
+      </c>
+      <c r="G51" s="45">
+        <f t="shared" si="5"/>
+        <v>946.40215587913747</v>
+      </c>
+      <c r="H51" s="49">
+        <f t="shared" si="6"/>
+        <v>70.898286356016001</v>
+      </c>
+      <c r="I51" s="45">
+        <f t="shared" si="7"/>
+        <v>1017.3004422351535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="33">
+        <v>75</v>
+      </c>
+      <c r="B52" s="19">
+        <f>B51+(((B53-B51)/($A$53-$A$51))*($A$52-$A$51))</f>
+        <v>799.74517236666668</v>
+      </c>
+      <c r="C52" s="19">
+        <f t="shared" ref="C52:D52" si="8">C51+(((C53-C51)/($A$53-$A$51))*($A$52-$A$51))</f>
+        <v>1.4612000162666667</v>
+      </c>
+      <c r="D52" s="54">
+        <f t="shared" si="8"/>
+        <v>0.35142632153493331</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="33">
+        <f>F51+(((F53-F51)/($A$53-$A$51))*($A$52-$A$51))</f>
+        <v>152.86827210937113</v>
+      </c>
+      <c r="G52" s="54">
+        <f t="shared" ref="G52" si="9">G51+(((G53-G51)/($A$53-$A$51))*($A$52-$A$51))</f>
+        <v>952.61344447603778</v>
+      </c>
+      <c r="H52" s="33">
+        <f t="shared" ref="H52" si="10">H51+(((H53-H51)/($A$53-$A$51))*($A$52-$A$51))</f>
+        <v>70.57596078568001</v>
+      </c>
+      <c r="I52" s="54">
+        <f t="shared" ref="I52" si="11">I51+(((I53-I51)/($A$53-$A$51))*($A$52-$A$51))</f>
+        <v>1023.1894052617178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="33">
+        <v>75.2</v>
+      </c>
+      <c r="B53" s="19">
+        <v>801.71930069999996</v>
+      </c>
+      <c r="C53" s="21">
+        <v>1.45929332848</v>
+      </c>
+      <c r="D53" s="31">
+        <v>0.35284684274239997</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="49">
+        <f t="shared" si="4"/>
+        <v>152.66879766086649</v>
+      </c>
+      <c r="G53" s="45">
+        <f t="shared" si="5"/>
+        <v>954.38809836086648</v>
+      </c>
+      <c r="H53" s="50">
+        <f t="shared" si="6"/>
+        <v>70.483867765584009</v>
+      </c>
+      <c r="I53" s="45">
+        <f t="shared" si="7"/>
+        <v>1024.8719661264504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="33">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="B54" s="19">
+        <v>810.68264910000005</v>
+      </c>
+      <c r="C54" s="21">
+        <v>1.4505153208000001</v>
+      </c>
+      <c r="D54" s="31">
+        <v>0.35944542478879998</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="49">
+        <f t="shared" si="4"/>
+        <v>151.75045735723521</v>
+      </c>
+      <c r="G54" s="45">
+        <f t="shared" si="5"/>
+        <v>962.43310645723523</v>
+      </c>
+      <c r="H54" s="50">
+        <f t="shared" si="6"/>
+        <v>70.059889994640017</v>
+      </c>
+      <c r="I54" s="45">
+        <f t="shared" si="7"/>
+        <v>1032.4929964518753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="33">
+        <v>77</v>
+      </c>
+      <c r="B55" s="19">
+        <v>819.72576839999999</v>
+      </c>
+      <c r="C55" s="21">
+        <v>1.4415277585599999</v>
+      </c>
+      <c r="D55" s="31">
+        <v>0.36626458241279997</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="49">
+        <f t="shared" si="4"/>
+        <v>150.81019381028113</v>
+      </c>
+      <c r="G55" s="45">
+        <f t="shared" si="5"/>
+        <v>970.53596221028113</v>
+      </c>
+      <c r="H55" s="50">
+        <f t="shared" si="6"/>
+        <v>69.625790738448003</v>
+      </c>
+      <c r="I55" s="45">
+        <f t="shared" si="7"/>
+        <v>1040.1617529487291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="33">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="B56" s="19">
+        <v>828.85010898000007</v>
+      </c>
+      <c r="C56" s="21">
+        <v>1.4323131788799999</v>
+      </c>
+      <c r="D56" s="31">
+        <v>0.37332036206079999</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="49">
+        <f t="shared" si="4"/>
+        <v>149.84618008306072</v>
+      </c>
+      <c r="G56" s="45">
+        <f t="shared" si="5"/>
+        <v>978.69628906306082</v>
+      </c>
+      <c r="H56" s="50">
+        <f t="shared" si="6"/>
+        <v>69.180726539904001</v>
+      </c>
+      <c r="I56" s="45">
+        <f t="shared" si="7"/>
+        <v>1047.8770156029648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="33">
+        <v>78.8</v>
+      </c>
+      <c r="B57" s="19">
+        <v>838.05712122</v>
+      </c>
+      <c r="C57" s="21">
+        <v>1.4228541188799999</v>
+      </c>
+      <c r="D57" s="31">
+        <v>0.38063080870880001</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="49">
+        <f t="shared" si="4"/>
+        <v>148.85658923863045</v>
+      </c>
+      <c r="G57" s="45">
+        <f t="shared" si="5"/>
+        <v>986.91371045863048</v>
+      </c>
+      <c r="H57" s="50">
+        <f t="shared" si="6"/>
+        <v>68.723853941903997</v>
+      </c>
+      <c r="I57" s="45">
+        <f t="shared" si="7"/>
+        <v>1055.6375644005345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="33">
+        <v>79.7</v>
+      </c>
+      <c r="B58" s="19">
+        <v>847.34825549999994</v>
+      </c>
+      <c r="C58" s="21">
+        <v>1.41312923504</v>
+      </c>
+      <c r="D58" s="31">
+        <v>0.38821637332959996</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="49">
+        <f t="shared" si="4"/>
+        <v>147.83918835405927</v>
+      </c>
+      <c r="G58" s="45">
+        <f t="shared" si="5"/>
+        <v>995.18744385405921</v>
+      </c>
+      <c r="H58" s="50">
+        <f t="shared" si="6"/>
+        <v>68.254142052432002</v>
+      </c>
+      <c r="I58" s="45">
+        <f t="shared" si="7"/>
+        <v>1063.4415859064911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="33">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="B59" s="19">
+        <v>856.72351182</v>
+      </c>
+      <c r="C59" s="21">
+        <v>1.4031171838399998</v>
+      </c>
+      <c r="D59" s="31">
+        <v>0.3961002815536</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="49">
+        <f t="shared" si="4"/>
+        <v>146.79174450641614</v>
+      </c>
+      <c r="G59" s="45">
+        <f t="shared" si="5"/>
+        <v>1003.5152563264162</v>
+      </c>
+      <c r="H59" s="50">
+        <f t="shared" si="6"/>
+        <v>67.770559979471997</v>
+      </c>
+      <c r="I59" s="45">
+        <f t="shared" si="7"/>
+        <v>1071.2858163058881</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="33">
+        <v>81.5</v>
+      </c>
+      <c r="B60" s="19">
+        <v>866.18579093999995</v>
+      </c>
+      <c r="C60" s="21">
+        <v>1.3927888604799998</v>
+      </c>
+      <c r="D60" s="31">
+        <v>0.40430919337760002</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="49">
+        <f t="shared" si="4"/>
+        <v>145.71121280079512</v>
+      </c>
+      <c r="G60" s="45">
+        <f t="shared" si="5"/>
+        <v>1011.8970037407951</v>
+      </c>
+      <c r="H60" s="50">
+        <f t="shared" si="6"/>
+        <v>67.271701961183993</v>
+      </c>
+      <c r="I60" s="45">
+        <f t="shared" si="7"/>
+        <v>1079.168705701979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="33">
+        <v>82.4</v>
+      </c>
+      <c r="B61" s="19">
+        <v>875.73364248000007</v>
+      </c>
+      <c r="C61" s="21">
+        <v>1.3821171004799999</v>
+      </c>
+      <c r="D61" s="31">
+        <v>0.41287390167999999</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="49">
+        <f t="shared" si="4"/>
+        <v>144.59475133528403</v>
+      </c>
+      <c r="G61" s="45">
+        <f t="shared" si="5"/>
+        <v>1020.3283938152841</v>
+      </c>
+      <c r="H61" s="50">
+        <f t="shared" si="6"/>
+        <v>66.756255953183995</v>
+      </c>
+      <c r="I61" s="45">
+        <f t="shared" si="7"/>
+        <v>1087.0846497684681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="33">
+        <v>83.3</v>
+      </c>
+      <c r="B62" s="19">
+        <v>885.37141757999996</v>
+      </c>
+      <c r="C62" s="21">
+        <v>1.37106309744</v>
+      </c>
+      <c r="D62" s="31">
+        <v>0.42183024417120002</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="49">
+        <f t="shared" si="4"/>
+        <v>143.4383002500083</v>
+      </c>
+      <c r="G62" s="45">
+        <f t="shared" si="5"/>
+        <v>1028.8097178300081</v>
+      </c>
+      <c r="H62" s="50">
+        <f t="shared" si="6"/>
+        <v>66.222347606352002</v>
+      </c>
+      <c r="I62" s="45">
+        <f t="shared" si="7"/>
+        <v>1095.0320654363602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="33">
+        <v>84.2</v>
+      </c>
+      <c r="B63" s="19">
+        <v>895.10056662</v>
+      </c>
+      <c r="C63" s="21">
+        <v>1.35958416432</v>
+      </c>
+      <c r="D63" s="31">
+        <v>0.43122034519840002</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="49">
+        <f t="shared" si="4"/>
+        <v>142.23739369910584</v>
+      </c>
+      <c r="G63" s="45">
+        <f t="shared" si="5"/>
+        <v>1037.3379603191058</v>
+      </c>
+      <c r="H63" s="50">
+        <f t="shared" si="6"/>
+        <v>65.667915136656006</v>
+      </c>
+      <c r="I63" s="45">
+        <f t="shared" si="7"/>
+        <v>1103.0058754557617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="33">
+        <v>85.1</v>
+      </c>
+      <c r="B64" s="19">
+        <v>904.91963922000002</v>
+      </c>
+      <c r="C64" s="21">
+        <v>1.3476317931200001</v>
+      </c>
+      <c r="D64" s="31">
+        <v>0.44109424561439997</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="49">
+        <f t="shared" si="4"/>
+        <v>140.98695685773345</v>
+      </c>
+      <c r="G64" s="45">
+        <f t="shared" si="5"/>
+        <v>1045.9065960777334</v>
+      </c>
+      <c r="H64" s="50">
+        <f t="shared" si="6"/>
+        <v>65.090615607696009</v>
+      </c>
+      <c r="I64" s="45">
+        <f t="shared" si="7"/>
+        <v>1110.9972116854294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="33">
+        <v>86</v>
+      </c>
+      <c r="B65" s="19">
+        <v>914.83443690000001</v>
+      </c>
+      <c r="C65" s="21">
+        <v>1.33514583392</v>
+      </c>
+      <c r="D65" s="31">
+        <v>0.45151211474239994</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="49">
+        <f t="shared" si="4"/>
+        <v>139.68069694308545</v>
+      </c>
+      <c r="G65" s="45">
+        <f t="shared" si="5"/>
+        <v>1054.5151338430856</v>
+      </c>
+      <c r="H65" s="50">
+        <f t="shared" si="6"/>
+        <v>64.487543778336004</v>
+      </c>
+      <c r="I65" s="45">
+        <f t="shared" si="7"/>
+        <v>1119.0026776214215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="33">
+        <v>86.9</v>
+      </c>
+      <c r="B66" s="19">
+        <v>924.84350928000003</v>
+      </c>
+      <c r="C66" s="21">
+        <v>1.3220506142399999</v>
+      </c>
+      <c r="D66" s="31">
+        <v>0.4625472966784</v>
+      </c>
+      <c r="E66" s="21"/>
+      <c r="F66" s="49">
+        <f t="shared" si="4"/>
+        <v>138.3106972284065</v>
+      </c>
+      <c r="G66" s="45">
+        <f t="shared" si="5"/>
+        <v>1063.1542065084066</v>
+      </c>
+      <c r="H66" s="50">
+        <f t="shared" si="6"/>
+        <v>63.855044667792001</v>
+      </c>
+      <c r="I66" s="45">
+        <f t="shared" si="7"/>
+        <v>1127.0092511761986</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="33">
+        <v>87.8</v>
+      </c>
+      <c r="B67" s="19">
+        <v>934.95120750000012</v>
+      </c>
+      <c r="C67" s="21">
+        <v>1.30825687936</v>
+      </c>
+      <c r="D67" s="31">
+        <v>0.47429065660800002</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="49">
+        <f t="shared" si="4"/>
+        <v>136.867620035985</v>
+      </c>
+      <c r="G67" s="45">
+        <f t="shared" si="5"/>
+        <v>1071.8188275359851</v>
+      </c>
+      <c r="H67" s="50">
+        <f t="shared" si="6"/>
+        <v>63.18880727308801</v>
+      </c>
+      <c r="I67" s="45">
+        <f t="shared" si="7"/>
+        <v>1135.0076348090731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="33">
+        <v>88.7</v>
+      </c>
+      <c r="B68" s="19">
+        <v>945.16043231999993</v>
+      </c>
+      <c r="C68" s="21">
+        <v>1.29364626976</v>
+      </c>
+      <c r="D68" s="31">
+        <v>0.48685690624959999</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="49">
+        <f t="shared" si="4"/>
+        <v>135.33908279320343</v>
+      </c>
+      <c r="G68" s="45">
+        <f t="shared" si="5"/>
+        <v>1080.4995151132034</v>
+      </c>
+      <c r="H68" s="50">
+        <f t="shared" si="6"/>
+        <v>62.483114829408009</v>
+      </c>
+      <c r="I68" s="45">
+        <f t="shared" si="7"/>
+        <v>1142.9826299426113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="33">
+        <v>89.6</v>
+      </c>
+      <c r="B69" s="19">
+        <v>955.47118374000013</v>
+      </c>
+      <c r="C69" s="21">
+        <v>1.2780693808000001</v>
+      </c>
+      <c r="D69" s="31">
+        <v>0.50039415022879996</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="49">
+        <f t="shared" si="4"/>
+        <v>133.70945503954474</v>
+      </c>
+      <c r="G69" s="45">
+        <f t="shared" si="5"/>
+        <v>1089.1806387795448</v>
+      </c>
+      <c r="H69" s="50">
+        <f t="shared" si="6"/>
+        <v>61.730751092640013</v>
+      </c>
+      <c r="I69" s="45">
+        <f t="shared" si="7"/>
+        <v>1150.9113898721848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="33">
+        <v>90.5</v>
+      </c>
+      <c r="B70" s="19">
+        <v>965.88781289999997</v>
+      </c>
+      <c r="C70" s="21">
+        <v>1.2613302401599999</v>
+      </c>
+      <c r="D70" s="31">
+        <v>0.51509886534880001</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="49">
+        <f t="shared" si="4"/>
+        <v>131.95823448264215</v>
+      </c>
+      <c r="G70" s="45">
+        <f t="shared" si="5"/>
+        <v>1097.8460473826422</v>
+      </c>
+      <c r="H70" s="50">
+        <f t="shared" si="6"/>
+        <v>60.922250599728002</v>
+      </c>
+      <c r="I70" s="45">
+        <f t="shared" si="7"/>
+        <v>1158.7682979823701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="33">
+        <v>91.4</v>
+      </c>
+      <c r="B71" s="19">
+        <v>976.41612132</v>
+      </c>
+      <c r="C71" s="21">
+        <v>1.24315138208</v>
+      </c>
+      <c r="D71" s="31">
+        <v>0.53124065907359996</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="49">
+        <f t="shared" si="4"/>
+        <v>130.05639312439246</v>
+      </c>
+      <c r="G71" s="45">
+        <f t="shared" si="5"/>
+        <v>1106.4725144443923</v>
+      </c>
+      <c r="H71" s="50">
+        <f t="shared" si="6"/>
+        <v>60.044211754464001</v>
+      </c>
+      <c r="I71" s="45">
+        <f t="shared" si="7"/>
+        <v>1166.5167261988563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="33">
+        <v>92.3</v>
+      </c>
+      <c r="B72" s="19">
+        <v>987.05610900000011</v>
+      </c>
+      <c r="C72" s="21">
+        <v>1.2231428022399999</v>
+      </c>
+      <c r="D72" s="31">
+        <v>0.54920555806720006</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="49">
+        <f t="shared" si="4"/>
+        <v>127.96312937305603</v>
+      </c>
+      <c r="G72" s="45">
+        <f t="shared" si="5"/>
+        <v>1115.0192383730562</v>
+      </c>
+      <c r="H72" s="50">
+        <f t="shared" si="6"/>
+        <v>59.077797348192007</v>
+      </c>
+      <c r="I72" s="45">
+        <f t="shared" si="7"/>
+        <v>1174.0970357212482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="33">
+        <v>93.2</v>
+      </c>
+      <c r="B73" s="19">
+        <v>997.81792859999996</v>
+      </c>
+      <c r="C73" s="21">
+        <v>1.20071076272</v>
+      </c>
+      <c r="D73" s="31">
+        <v>0.56957841358399997</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="49">
+        <f t="shared" si="4"/>
+        <v>125.61632737255174</v>
+      </c>
+      <c r="G73" s="45">
+        <f t="shared" si="5"/>
+        <v>1123.4342559725517</v>
+      </c>
+      <c r="H73" s="50">
+        <f t="shared" si="6"/>
+        <v>57.994329839376007</v>
+      </c>
+      <c r="I73" s="45">
+        <f t="shared" si="7"/>
+        <v>1181.4285858119276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="33">
+        <v>94.1</v>
+      </c>
+      <c r="B74" s="19">
+        <v>1008.70448088</v>
+      </c>
+      <c r="C74" s="21">
+        <v>1.1748812228800001</v>
+      </c>
+      <c r="D74" s="31">
+        <v>0.59331624965759999</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="49">
+        <f t="shared" si="4"/>
+        <v>122.91408464002747</v>
+      </c>
+      <c r="G74" s="45">
+        <f t="shared" si="5"/>
+        <v>1131.6185655200275</v>
+      </c>
+      <c r="H74" s="50">
+        <f t="shared" si="6"/>
+        <v>56.746763065104005</v>
+      </c>
+      <c r="I74" s="45">
+        <f t="shared" si="7"/>
+        <v>1188.3653285851315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="33">
+        <v>95</v>
+      </c>
+      <c r="B75" s="19">
+        <v>1019.7259185</v>
+      </c>
+      <c r="C75" s="21">
+        <v>1.143867148</v>
+      </c>
+      <c r="D75" s="31">
+        <v>0.6221741633408</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="49">
+        <f t="shared" si="4"/>
+        <v>119.66944462825852</v>
+      </c>
+      <c r="G75" s="45">
+        <f t="shared" si="5"/>
+        <v>1139.3953631282586</v>
+      </c>
+      <c r="H75" s="50">
+        <f t="shared" si="6"/>
+        <v>55.248783248400002</v>
+      </c>
+      <c r="I75" s="45">
+        <f t="shared" si="7"/>
+        <v>1194.6441463766587</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="33">
+        <v>95.9</v>
+      </c>
+      <c r="B76" s="19">
+        <v>1030.8938445000001</v>
+      </c>
+      <c r="C76" s="21">
+        <v>1.1037122256</v>
+      </c>
+      <c r="D76" s="31">
+        <v>0.66003374539039994</v>
+      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="49">
+        <f t="shared" si="4"/>
+        <v>115.4685046230309</v>
+      </c>
+      <c r="G76" s="45">
+        <f t="shared" si="5"/>
+        <v>1146.362349123031</v>
+      </c>
+      <c r="H76" s="50">
+        <f t="shared" si="6"/>
+        <v>53.309300496480006</v>
+      </c>
+      <c r="I76" s="45">
+        <f t="shared" si="7"/>
+        <v>1199.6716496195111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="33">
+        <v>96.8</v>
+      </c>
+      <c r="B77" s="19">
+        <v>1042.23146496</v>
+      </c>
+      <c r="C77" s="21">
+        <v>1.04153273088</v>
+      </c>
+      <c r="D77" s="31">
+        <v>0.7195324357888</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="49">
+        <f t="shared" si="4"/>
+        <v>108.96339114598214</v>
+      </c>
+      <c r="G77" s="45">
+        <f t="shared" si="5"/>
+        <v>1151.1948561059821</v>
+      </c>
+      <c r="H77" s="50">
+        <f t="shared" si="6"/>
+        <v>50.306030901504002</v>
+      </c>
+      <c r="I77" s="45">
+        <f t="shared" si="7"/>
+        <v>1201.5008870074862</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="34">
+        <v>97.47</v>
+      </c>
+      <c r="B78" s="20">
+        <v>1050.8003100000001</v>
+      </c>
+      <c r="C78" s="22">
+        <v>0.87704598352000007</v>
+      </c>
+      <c r="D78" s="32">
+        <v>0.8770468760672</v>
+      </c>
+      <c r="E78" s="22"/>
+      <c r="F78" s="53">
+        <f t="shared" si="4"/>
+        <v>91.755066088569208</v>
+      </c>
+      <c r="G78" s="51">
+        <f t="shared" si="5"/>
+        <v>1142.5553760885693</v>
+      </c>
+      <c r="H78" s="52">
+        <f t="shared" si="6"/>
+        <v>42.361321004016006</v>
+      </c>
+      <c r="I78" s="51">
+        <f t="shared" si="7"/>
+        <v>1184.9166970925853</v>
+      </c>
+      <c r="J78" s="28"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="33"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="35"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="35"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="35"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="35"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="35"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="35"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="35"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="35"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="35"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="35"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="35"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="35"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="35"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="35"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="35"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="35"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="35"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="35"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="35"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="35"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="35"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="35"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="35"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="35"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="35"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="35"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="35"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="35"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="35"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="35"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="35"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="35"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="35"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="35"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="35"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="35"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="35"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="35"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="35"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="35"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="35"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="35"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="35"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="35"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="35"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="35"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="35"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="35"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="35"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="35"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="35"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="35"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="35"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="35"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="35"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="35"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="35"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="35"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="35"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="35"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="35"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="35"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="35"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="35"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="35"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="35"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="35"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="35"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="35"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="35"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="35"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="35"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="35"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="35"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="35"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="35"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="35"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="35"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="35"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="35"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="35"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="35"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="35"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="35"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="35"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="35"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="35"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="35"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="35"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="35"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="35"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="35"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="35"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="35"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="35"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="35"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="35"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="35"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="35"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="35"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="35"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="35"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="35"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="35"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="35"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="35"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="35"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="35"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="35"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="35"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="35"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="35"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="35"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="35"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="35"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="35"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="35"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="35"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="35"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="35"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="35"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="35"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="35"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="35"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="35"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="35"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="35"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="35"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="35"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="35"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="35"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="35"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="35"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="35"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="35"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="35"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="35"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="35"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="35"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="35"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="35"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="35"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="35"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="35"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="35"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="35"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="35"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="35"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="35"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="35"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="35"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="35"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="35"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="35"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="35"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="35"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="35"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="35"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="35"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="35"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="35"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="35"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="35"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="35"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="35"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="35"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="35"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="35"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="35"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="35"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="35"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="35"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="35"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="35"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="35"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="35"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="35"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="35"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="35"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="35"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="35"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="35"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="35"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="35"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="35"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="35"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="35"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="35"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="35"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="35"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="35"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="35"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="35"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="35"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="35"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="35"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="35"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="35"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="35"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="35"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="35"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="35"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="35"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="35"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="35"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="35"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="35"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="35"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="35"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="35"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="35"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="35"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="35"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="35"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="35"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="35"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="35"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="35"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="35"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="35"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="35"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="35"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="35"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="35"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="35"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="35"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="35"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="35"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="35"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="35"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="35"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="35"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="35"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="35"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="35"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="35"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="35"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="35"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="35"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="35"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="35"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="35"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="35"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="35"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="35"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="35"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="35"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="35"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="35"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="35"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="35"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="35"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="35"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="35"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="35"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="35"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="35"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="35"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="35"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="35"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="35"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="35"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="35"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="35"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="35"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="35"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="35"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="35"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="35"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="35"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="35"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="35"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="35"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="35"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="35"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="35"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="35"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="35"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="35"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="35"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="35"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="35"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="35"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="35"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="35"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="35"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="35"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="35"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="35"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="35"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="35"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="35"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="35"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="35"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="35"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="35"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="35"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="35"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="35"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="35"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="35"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="35"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="35"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="35"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="35"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="35"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="35"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="35"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="35"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="35"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="35"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="35"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="35"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="35"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="35"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="35"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="35"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="35"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="35"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="35"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="35"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="35"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="35"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="35"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="35"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="35"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="35"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="35"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="35"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="35"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="35"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="35"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="35"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="35"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="35"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="35"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="35"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="35"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="35"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="35"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="35"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="35"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="35"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="35"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="35"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="35"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="35"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="35"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="35"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="35"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="35"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="35"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="35"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="35"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="35"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="35"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="35"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="35"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="35"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="35"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="35"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="35"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="35"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="35"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="35"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="35"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="35"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="35"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="35"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="35"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="35"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="35"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="35"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="35"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="35"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="35"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="35"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="35"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="35"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="35"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="35"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="35"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="35"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="35"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="35"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="35"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="35"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="35"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="35"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="35"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="35"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="35"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="35"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="35"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="35"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="35"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="35"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="35"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="35"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="35"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="35"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="35"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="35"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="35"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="35"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="35"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="35"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="35"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="35"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="35"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="35"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="35"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="35"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="35"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="35"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="35"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="35"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="35"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="35"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="35"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="35"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="35"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="35"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="35"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="35"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="35"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="35"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="35"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="35"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="35"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="35"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="35"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="35"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="35"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="35"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="35"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="35"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" s="35"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" s="35"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" s="35"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" s="35"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="35"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" s="35"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="35"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="35"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" s="35"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" s="35"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" s="35"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" s="35"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="35"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="35"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="35"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="35"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="35"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="35"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="35"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="35"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="35"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="35"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="35"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="35"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="35"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" s="35"/>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" s="35"/>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" s="35"/>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="35"/>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="35"/>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="35"/>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="35"/>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="35"/>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="35"/>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="35"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="35"/>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="35"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="35"/>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="35"/>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="35"/>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="35"/>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="35"/>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="35"/>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="35"/>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="35"/>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="35"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="35"/>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="35"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="35"/>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="35"/>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="35"/>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="35"/>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="35"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="35"/>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="35"/>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" s="35"/>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" s="35"/>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" s="35"/>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" s="35"/>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" s="35"/>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" s="35"/>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" s="35"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" s="35"/>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" s="35"/>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" s="35"/>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" s="35"/>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" s="35"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" s="35"/>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" s="35"/>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" s="35"/>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="35"/>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" s="35"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" s="35"/>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" s="35"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" s="35"/>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" s="35"/>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" s="35"/>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" s="35"/>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" s="35"/>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" s="35"/>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" s="35"/>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" s="35"/>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" s="35"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" s="35"/>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" s="35"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" s="35"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" s="35"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" s="35"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" s="35"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" s="35"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" s="35"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" s="35"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" s="35"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" s="35"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" s="35"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612" s="35"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613" s="35"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614" s="35"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615" s="35"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616" s="35"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617" s="35"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618" s="35"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619" s="35"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620" s="35"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621" s="35"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622" s="35"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623" s="35"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624" s="35"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625" s="35"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626" s="35"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627" s="35"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628" s="35"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629" s="35"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630" s="35"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" s="35"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" s="35"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" s="35"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" s="35"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" s="35"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" s="35"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" s="35"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" s="35"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" s="35"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" s="35"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" s="35"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" s="35"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" s="35"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" s="35"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" s="35"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" s="35"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" s="35"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" s="35"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" s="35"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" s="35"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" s="35"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" s="35"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" s="35"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654" s="35"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" s="35"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" s="35"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" s="35"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" s="35"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" s="35"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" s="35"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" s="35"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" s="35"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" s="35"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" s="35"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" s="35"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" s="35"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" s="35"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" s="35"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" s="35"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" s="35"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" s="35"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" s="35"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" s="35"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" s="35"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" s="35"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" s="35"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" s="35"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" s="35"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" s="35"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" s="35"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" s="35"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" s="35"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" s="35"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" s="35"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" s="35"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" s="35"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" s="35"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" s="35"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" s="35"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" s="35"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" s="35"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" s="35"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" s="35"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" s="35"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" s="35"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" s="35"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" s="35"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" s="35"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" s="35"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" s="35"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" s="35"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" s="35"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" s="35"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" s="35"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" s="35"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" s="35"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" s="35"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" s="35"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" s="35"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" s="35"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" s="35"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" s="35"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" s="35"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" s="35"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" s="35"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" s="35"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" s="35"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" s="35"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" s="35"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" s="35"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" s="35"/>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" s="35"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" s="35"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" s="35"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" s="35"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" s="35"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" s="35"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" s="35"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" s="35"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" s="35"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" s="35"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" s="35"/>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" s="35"/>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" s="35"/>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735" s="35"/>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736" s="35"/>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737" s="35"/>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738" s="35"/>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739" s="35"/>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740" s="35"/>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741" s="35"/>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742" s="35"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743" s="35"/>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744" s="35"/>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745" s="35"/>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746" s="35"/>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747" s="35"/>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748" s="35"/>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749" s="35"/>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750" s="35"/>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751" s="35"/>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752" s="35"/>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753" s="35"/>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754" s="35"/>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755" s="35"/>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756" s="35"/>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757" s="35"/>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" s="35"/>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" s="35"/>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" s="35"/>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" s="35"/>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" s="35"/>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" s="35"/>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" s="35"/>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" s="35"/>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" s="35"/>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" s="35"/>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" s="35"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769" s="35"/>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" s="35"/>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" s="35"/>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" s="35"/>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" s="35"/>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" s="35"/>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" s="35"/>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" s="35"/>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" s="35"/>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" s="35"/>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" s="35"/>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" s="35"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" s="35"/>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" s="35"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" s="35"/>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" s="35"/>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" s="35"/>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" s="35"/>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" s="35"/>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" s="35"/>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" s="35"/>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" s="35"/>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" s="35"/>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" s="35"/>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" s="35"/>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" s="35"/>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" s="35"/>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" s="35"/>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" s="35"/>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" s="35"/>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" s="35"/>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" s="35"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" s="35"/>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802" s="35"/>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" s="35"/>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" s="35"/>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" s="35"/>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" s="35"/>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807" s="35"/>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" s="35"/>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" s="35"/>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" s="35"/>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" s="35"/>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" s="35"/>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" s="35"/>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" s="35"/>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" s="35"/>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" s="35"/>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" s="35"/>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F52:I52" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ASME-BPV-SectionVIII-Calcs.xlsx
+++ b/ASME-BPV-SectionVIII-Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7828C7D1-731A-D541-9D37-4C73DCAB53CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED2366-3961-284C-875D-7EF4EEE5B78C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -16,12 +16,6 @@
     <sheet name="Inputs + Answers" sheetId="1" r:id="rId1"/>
     <sheet name="N2O Properties" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'N2O Properties'!$A$4:$A$78</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'N2O Properties'!$B$4:$B$78</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'N2O Properties'!$F$4:$F$78</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'N2O Properties'!$G$4:$G$78</definedName>
-  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -140,6 +134,18 @@
   </si>
   <si>
     <t>delta P(from bot of RT)</t>
+  </si>
+  <si>
+    <t>Cyl Length (ft)</t>
+  </si>
+  <si>
+    <t>Height of hemi head (in)</t>
+  </si>
+  <si>
+    <t>Height of hemi head (ft)</t>
+  </si>
+  <si>
+    <t>interpolated</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -516,7 +522,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +592,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'N2O Properties'!$A$4:$A$78</c:f>
+              <c:f>'N2O Properties'!$A$4:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -712,99 +726,102 @@
                   <c:v>69.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>70.7</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>71.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>72.5</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>73.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>74.3</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>75.2</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>76.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>77.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>78.8</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>79.7</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>80.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>81.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>82.4</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>83.3</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>84.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>85.1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>86.9</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>87.8</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>88.7</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>89.6</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>90.5</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>91.4</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>92.3</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>93.2</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>94.1</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>95.9</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>96.8</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>97.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -812,10 +829,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N2O Properties'!$B$4:$B$78</c:f>
+              <c:f>'N2O Properties'!$B$4:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>452.82023903999999</c:v>
                 </c:pt>
@@ -946,99 +963,102 @@
                   <c:v>749.58104045999994</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>751.46975752666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>758.08026725999991</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>766.65491381999993</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>775.30498014</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>784.03191660000005</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>792.83572320000007</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>799.74517236666668</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>801.71930069999996</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>810.68264910000005</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>819.72576839999999</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>828.85010898000007</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>838.05712122</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>847.34825549999994</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>856.72351182</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>866.18579093999995</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>875.73364248000007</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>885.37141757999996</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>895.10056662</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>904.91963922000002</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>914.83443690000001</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>924.84350928000003</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>934.95120750000012</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>945.16043231999993</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>955.47118374000013</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>965.88781289999997</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>976.41612132</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>987.05610900000011</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>997.81792859999996</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>1008.70448088</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>1019.7259185</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>1030.8938445000001</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>1042.23146496</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>1050.8003100000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1071,10 +1091,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'N2O Properties'!$A$4:$A$78</c:f>
+              <c:f>'N2O Properties'!$A$4:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -1205,99 +1225,102 @@
                   <c:v>69.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>70.7</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>71.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>72.5</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>73.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>74.3</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>75.2</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>76.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>77.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>78.8</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>79.7</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>80.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>81.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>82.4</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>83.3</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>84.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>85.1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>86.9</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>87.8</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>88.7</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>89.6</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>90.5</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>91.4</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>92.3</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>93.2</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>94.1</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>95.9</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>96.8</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>97.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -1305,234 +1328,237 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N2O Properties'!$F$4:$F$78</c:f>
+              <c:f>'N2O Properties'!$F$4:$F$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>184.12804285005035</c:v>
+                  <c:v>213.64468102508368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.61020772304695</c:v>
+                  <c:v>213.04383435979696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.08851572916268</c:v>
+                  <c:v>212.438512552746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>182.56337285438499</c:v>
+                  <c:v>211.82918667148499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182.03457610572022</c:v>
+                  <c:v>211.21562118223687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>181.50192249017456</c:v>
+                  <c:v>210.59758055122458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180.96520901475432</c:v>
+                  <c:v>209.97482924467101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>180.42484166544696</c:v>
+                  <c:v>209.34783833013029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179.88000847027752</c:v>
+                  <c:v>208.7156656724942</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>179.33131840822728</c:v>
+                  <c:v>208.07901787309396</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>178.77816250031498</c:v>
+                  <c:v>207.4371883305983</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>178.22074373953436</c:v>
+                  <c:v>206.79041257878436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>177.65865613989797</c:v>
+                  <c:v>206.13821955009797</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>177.09189970140577</c:v>
+                  <c:v>205.48060924453912</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>176.52047442405785</c:v>
+                  <c:v>204.81758166210787</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>175.94417731486035</c:v>
+                  <c:v>204.14890126902705</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>175.36280538081968</c:v>
+                  <c:v>203.47433253151968</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>174.7763586219358</c:v>
+                  <c:v>202.79387544958578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>174.18443105222119</c:v>
+                  <c:v>202.10705895567119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>173.5870226716759</c:v>
+                  <c:v>201.4138830497759</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>172.98393048730617</c:v>
+                  <c:v>200.71411219812285</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>172.37515449911206</c:v>
+                  <c:v>200.00774640071208</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>171.76028872110604</c:v>
+                  <c:v>199.2943145899894</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>171.1391301602944</c:v>
+                  <c:v>198.57358123217773</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>170.51167881667718</c:v>
+                  <c:v>197.84554632727719</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>169.87732571127316</c:v>
+                  <c:v>197.10950327395648</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>169.23627383707606</c:v>
+                  <c:v>196.36568760599275</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>168.58811720809842</c:v>
+                  <c:v>195.61362825583177</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>167.93265283134656</c:v>
+                  <c:v>194.85308968969659</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>167.26947472083296</c:v>
+                  <c:v>194.08360084003297</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>166.59837988356398</c:v>
+                  <c:v>193.30492617306399</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>165.91896233355203</c:v>
+                  <c:v>192.51659462123538</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>165.2310190778035</c:v>
+                  <c:v>191.71837065077017</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>164.53414413033084</c:v>
+                  <c:v>190.9097831941142</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>163.82793150514664</c:v>
+                  <c:v>190.0903611837133</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>163.11197521626343</c:v>
+                  <c:v>189.25963355201344</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>162.38607227068749</c:v>
+                  <c:v>188.41736476523749</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>161.64941069644394</c:v>
+                  <c:v>187.56261268827728</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>160.90158450754521</c:v>
+                  <c:v>186.69490625357855</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>160.14218771800392</c:v>
+                  <c:v>185.81377439358727</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>159.37061134883893</c:v>
+                  <c:v>184.91851050697227</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>158.58604342807524</c:v>
+                  <c:v>184.00817245862527</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>157.78807796972538</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>156.97590300181452</c:v>
+                  <c:v>183.08228918099206</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0000">
+                  <c:v>182.87287348276371</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>156.14850355937392</c:v>
+                  <c:v>182.13991853896454</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>155.30506767042877</c:v>
+                  <c:v>181.17988286365727</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>154.44478336300401</c:v>
+                  <c:v>180.20124001996211</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>153.56643267913739</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="0.00">
-                  <c:v>152.86827210937113</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>152.66879766086649</c:v>
+                  <c:v>179.2030478727707</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>178.18389321942075</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0000">
+                  <c:v>177.3738140488434</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>151.75045735723521</c:v>
+                  <c:v>177.14236285724985</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>150.81019381028113</c:v>
+                  <c:v>176.07680804981857</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>149.84618008306072</c:v>
+                  <c:v>174.98581559446447</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>148.85658923863045</c:v>
+                  <c:v>173.86726568719408</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>147.83918835405927</c:v>
+                  <c:v>172.71903852401377</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>146.79174450641614</c:v>
+                  <c:v>171.53854323337595</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>145.71121280079512</c:v>
+                  <c:v>170.32318894373279</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>144.59475133528403</c:v>
+                  <c:v>169.06944264842846</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>143.4383002500083</c:v>
+                  <c:v>167.77400687458405</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>142.23739369910584</c:v>
+                  <c:v>166.43217094665832</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>140.98695685773345</c:v>
+                  <c:v>165.03875312155583</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>139.68069694308545</c:v>
+                  <c:v>163.58786505485011</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>138.3106972284065</c:v>
+                  <c:v>162.07220519945213</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>136.867620035985</c:v>
+                  <c:v>160.48258773805651</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>135.33908279320343</c:v>
+                  <c:v>158.80817811691833</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>133.70945503954474</c:v>
+                  <c:v>157.0346087756368</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>131.95823448264215</c:v>
+                  <c:v>155.14374361337809</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>130.05639312439246</c:v>
+                  <c:v>153.11179371865882</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>127.96312937305603</c:v>
+                  <c:v>150.90507776135911</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>125.61632737255174</c:v>
+                  <c:v>148.47625345228937</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>122.91408464002747</c:v>
+                  <c:v>145.7532474556684</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>119.66944462825852</c:v>
+                  <c:v>142.61782181541079</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>115.4685046230309</c:v>
+                  <c:v>138.85304992284185</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>108.96339114598214</c:v>
+                  <c:v>133.97867840653092</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>91.755066088569208</c:v>
+                  <c:v>126.43076298678214</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>106.46385810385254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,10 +1590,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'N2O Properties'!$A$4:$A$78</c:f>
+              <c:f>'N2O Properties'!$A$4:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -1698,99 +1724,102 @@
                   <c:v>69.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>70.7</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>71.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>72.5</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>73.400000000000006</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>74.3</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>75.2</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>76.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>77.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>78.8</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>79.7</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>80.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>81.5</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>82.4</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>83.3</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>84.2</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>85.1</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>86.9</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>87.8</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>88.7</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>89.6</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>90.5</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>91.4</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>92.3</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>93.2</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>94.1</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>95.9</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>96.8</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>97.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -1798,234 +1827,237 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'N2O Properties'!$G$4:$G$78</c:f>
+              <c:f>'N2O Properties'!$G$4:$G$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>636.94828189005034</c:v>
+                  <c:v>666.46492006508367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>642.263875123047</c:v>
+                  <c:v>671.69750175979698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>647.63217630916267</c:v>
+                  <c:v>676.98217313274597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>653.0506906743849</c:v>
+                  <c:v>682.31650449148492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>658.52066560572018</c:v>
+                  <c:v>687.70171068223681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>664.04334849017459</c:v>
+                  <c:v>693.13900655122461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>669.61708595475432</c:v>
+                  <c:v>698.62670618467098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>675.24518474544698</c:v>
+                  <c:v>704.16818141013027</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>680.92538251027759</c:v>
+                  <c:v>709.76103971249427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>686.65828822822732</c:v>
+                  <c:v>715.40598769309395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>692.44619368031499</c:v>
+                  <c:v>721.10521951059832</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>698.28640109953426</c:v>
+                  <c:v>726.85606993878423</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>704.17995487989799</c:v>
+                  <c:v>732.65951829009805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>710.12830540140578</c:v>
+                  <c:v>738.51701494453914</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>716.13145266405786</c:v>
+                  <c:v>744.42855990210785</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>722.1906440548604</c:v>
+                  <c:v>750.39536800902715</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>728.30277582081976</c:v>
+                  <c:v>756.41430297151965</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>734.47074872193571</c:v>
+                  <c:v>762.48826554958578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>740.6956071522211</c:v>
+                  <c:v>768.61823505567111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>746.97445035167584</c:v>
+                  <c:v>774.80131072977588</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>753.30997608730627</c:v>
+                  <c:v>781.04015779812289</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>759.70218435911215</c:v>
+                  <c:v>787.33477626071215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>766.15066918110597</c:v>
+                  <c:v>793.68469504998939</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>772.65667794029446</c:v>
+                  <c:v>800.09112901217782</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>779.21876025667723</c:v>
+                  <c:v>806.55262776727727</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>785.83920791127321</c:v>
+                  <c:v>813.07138547395652</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>792.51677351707599</c:v>
+                  <c:v>819.64618728599271</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>799.25250146809844</c:v>
+                  <c:v>826.27801251583173</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>806.04618877134658</c:v>
+                  <c:v>832.96662562969664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>812.89742944083298</c:v>
+                  <c:v>839.71155556003305</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>819.80892124356399</c:v>
+                  <c:v>846.515467533064</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>826.77735743355208</c:v>
+                  <c:v>853.37498972123547</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>833.80688615780355</c:v>
+                  <c:v>860.29423773077019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>840.89420067033075</c:v>
+                  <c:v>867.26983973411416</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>848.04034536514655</c:v>
+                  <c:v>874.30277504371327</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>855.24636463626348</c:v>
+                  <c:v>881.39402297201354</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>862.51350587068748</c:v>
+                  <c:v>888.54479836523751</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>869.83805633644397</c:v>
+                  <c:v>895.75125832827734</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>877.22396118754511</c:v>
+                  <c:v>903.01728293357849</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>884.67081443800396</c:v>
+                  <c:v>910.34240111358736</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>892.17655672883893</c:v>
+                  <c:v>917.72445588697224</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>899.74327684807531</c:v>
+                  <c:v>925.16540587862528</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>907.36911842972529</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>915.05617026181449</c:v>
+                  <c:v>932.66332964099206</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.0000">
+                  <c:v>934.34263100943042</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>922.80341737937385</c:v>
+                  <c:v>940.22018579896439</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>930.6100478104288</c:v>
+                  <c:v>947.83479668365726</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>938.47669996300408</c:v>
+                  <c:v>955.50622015996214</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>946.40215587913747</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="0.00">
-                  <c:v>952.61344447603778</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>954.38809836086648</c:v>
+                  <c:v>963.2349644727708</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>971.0196164194208</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0000">
+                  <c:v>977.11898641550999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>962.43310645723523</c:v>
+                  <c:v>978.86166355724981</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>970.53596221028113</c:v>
+                  <c:v>986.75945714981867</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>978.69628906306082</c:v>
+                  <c:v>994.71158399446449</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>986.91371045863048</c:v>
+                  <c:v>1002.7173746671941</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>995.18744385405921</c:v>
+                  <c:v>1010.7761597440137</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1003.5152563264162</c:v>
+                  <c:v>1018.8867987333758</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1011.8970037407951</c:v>
+                  <c:v>1027.0467007637328</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1020.3283938152841</c:v>
+                  <c:v>1035.2552335884284</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1028.8097178300081</c:v>
+                  <c:v>1043.5076493545841</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1037.3379603191058</c:v>
+                  <c:v>1051.8035885266584</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1045.9065960777334</c:v>
+                  <c:v>1060.1393197415559</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1054.5151338430856</c:v>
+                  <c:v>1068.5075042748501</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1063.1542065084066</c:v>
+                  <c:v>1076.9066420994523</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1071.8188275359851</c:v>
+                  <c:v>1085.3260970180565</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1080.4995151132034</c:v>
+                  <c:v>1093.7593856169185</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1089.1806387795448</c:v>
+                  <c:v>1102.1950410956367</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1097.8460473826422</c:v>
+                  <c:v>1110.6149273533783</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1106.4725144443923</c:v>
+                  <c:v>1118.9996066186588</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1115.0192383730562</c:v>
+                  <c:v>1127.3211990813591</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1123.4342559725517</c:v>
+                  <c:v>1135.5323624522894</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1131.6185655200275</c:v>
+                  <c:v>1143.5711760556683</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1139.3953631282586</c:v>
+                  <c:v>1151.3223026954108</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1146.362349123031</c:v>
+                  <c:v>1158.5789684228419</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1151.1948561059821</c:v>
+                  <c:v>1164.872522906531</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1142.5553760885693</c:v>
+                  <c:v>1168.6622279467822</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1157.2641681038526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
-  <dimension ref="A1:K818"/>
+  <dimension ref="A1:N819"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="184" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3431,9 +3463,10 @@
     <col min="8" max="8" width="18.83203125" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="45" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
@@ -3452,8 +3485,14 @@
       <c r="K1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1">
+        <v>3.2490157499999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -3479,10 +3518,17 @@
         <v>17</v>
       </c>
       <c r="K2">
-        <v>3.2490157499999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <f>N1+(2*N3)</f>
+        <v>3.7698490833333334</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
@@ -3514,8 +3560,15 @@
       <c r="K3">
         <v>32.200000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3">
+        <f>N2/12</f>
+        <v>0.26041666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>32</v>
       </c>
@@ -3531,11 +3584,11 @@
       <c r="E4" s="21"/>
       <c r="F4" s="49">
         <f t="shared" ref="F4:F33" si="0">C4*$K$3*$K$2</f>
-        <v>184.12804285005035</v>
+        <v>213.64468102508368</v>
       </c>
       <c r="G4" s="45">
         <f t="shared" ref="G4:G33" si="1">B4+(C4*$K$3*$K$2)</f>
-        <v>636.94828189005034</v>
+        <v>666.46492006508367</v>
       </c>
       <c r="H4" s="50">
         <f t="shared" ref="H4:H33" si="2">C4*$K$3*$K$1</f>
@@ -3543,10 +3596,10 @@
       </c>
       <c r="I4" s="45">
         <f t="shared" ref="I4:I33" si="3">G4+H4</f>
-        <v>721.95619983414633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>751.47283800917967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>32.9</v>
       </c>
@@ -3562,11 +3615,11 @@
       <c r="E5" s="21"/>
       <c r="F5" s="49">
         <f t="shared" si="0"/>
-        <v>183.61020772304695</v>
+        <v>213.04383435979696</v>
       </c>
       <c r="G5" s="45">
         <f t="shared" si="1"/>
-        <v>642.263875123047</v>
+        <v>671.69750175979698</v>
       </c>
       <c r="H5" s="50">
         <f t="shared" si="2"/>
@@ -3574,10 +3627,10 @@
       </c>
       <c r="I5" s="45">
         <f t="shared" si="3"/>
-        <v>727.03271983688705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>756.46634647363703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>33.799999999999997</v>
       </c>
@@ -3593,11 +3646,11 @@
       <c r="E6" s="21"/>
       <c r="F6" s="49">
         <f t="shared" si="0"/>
-        <v>183.08851572916268</v>
+        <v>212.438512552746</v>
       </c>
       <c r="G6" s="45">
         <f t="shared" si="1"/>
-        <v>647.63217630916267</v>
+        <v>676.98217313274597</v>
       </c>
       <c r="H6" s="50">
         <f t="shared" si="2"/>
@@ -3605,10 +3658,10 @@
       </c>
       <c r="I6" s="45">
         <f t="shared" si="3"/>
-        <v>732.16016716108265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>761.51016398466595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>34.700000000000003</v>
       </c>
@@ -3624,11 +3677,11 @@
       <c r="E7" s="21"/>
       <c r="F7" s="49">
         <f t="shared" si="0"/>
-        <v>182.56337285438499</v>
+        <v>211.82918667148499</v>
       </c>
       <c r="G7" s="45">
         <f t="shared" si="1"/>
-        <v>653.0506906743849</v>
+        <v>682.31650449148492</v>
       </c>
       <c r="H7" s="50">
         <f t="shared" si="2"/>
@@ -3636,10 +3689,10 @@
       </c>
       <c r="I7" s="45">
         <f t="shared" si="3"/>
-        <v>737.33623446763295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>766.60204828473297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>35.6</v>
       </c>
@@ -3655,11 +3708,11 @@
       <c r="E8" s="21"/>
       <c r="F8" s="49">
         <f t="shared" si="0"/>
-        <v>182.03457610572022</v>
+        <v>211.21562118223687</v>
       </c>
       <c r="G8" s="45">
         <f t="shared" si="1"/>
-        <v>658.52066560572018</v>
+        <v>687.70171068223681</v>
       </c>
       <c r="H8" s="50">
         <f t="shared" si="2"/>
@@ -3667,10 +3720,10 @@
       </c>
       <c r="I8" s="45">
         <f t="shared" si="3"/>
-        <v>742.5620754260882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>771.74312050260482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>36.5</v>
       </c>
@@ -3686,11 +3739,11 @@
       <c r="E9" s="21"/>
       <c r="F9" s="49">
         <f t="shared" si="0"/>
-        <v>181.50192249017456</v>
+        <v>210.59758055122458</v>
       </c>
       <c r="G9" s="45">
         <f t="shared" si="1"/>
-        <v>664.04334849017459</v>
+        <v>693.13900655122461</v>
       </c>
       <c r="H9" s="50">
         <f t="shared" si="2"/>
@@ -3698,10 +3751,10 @@
       </c>
       <c r="I9" s="45">
         <f t="shared" si="3"/>
-        <v>747.83884370599867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>776.93450176704869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>37.4</v>
       </c>
@@ -3717,11 +3770,11 @@
       <c r="E10" s="21"/>
       <c r="F10" s="49">
         <f t="shared" si="0"/>
-        <v>180.96520901475432</v>
+        <v>209.97482924467101</v>
       </c>
       <c r="G10" s="45">
         <f t="shared" si="1"/>
-        <v>669.61708595475432</v>
+        <v>698.62670618467098</v>
       </c>
       <c r="H10" s="50">
         <f t="shared" si="2"/>
@@ -3729,10 +3782,10 @@
       </c>
       <c r="I10" s="45">
         <f t="shared" si="3"/>
-        <v>753.16479221691429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>782.17441244683096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
         <v>38.299999999999997</v>
       </c>
@@ -3748,11 +3801,11 @@
       <c r="E11" s="21"/>
       <c r="F11" s="49">
         <f t="shared" si="0"/>
-        <v>180.42484166544696</v>
+        <v>209.34783833013029</v>
       </c>
       <c r="G11" s="45">
         <f t="shared" si="1"/>
-        <v>675.24518474544698</v>
+        <v>704.16818141013027</v>
       </c>
       <c r="H11" s="50">
         <f t="shared" si="2"/>
@@ -3760,10 +3813,10 @@
       </c>
       <c r="I11" s="45">
         <f t="shared" si="3"/>
-        <v>758.54341513973498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>787.46641180441827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
         <v>39.200000000000003</v>
       </c>
@@ -3779,11 +3832,11 @@
       <c r="E12" s="21"/>
       <c r="F12" s="49">
         <f t="shared" si="0"/>
-        <v>179.88000847027752</v>
+        <v>208.7156656724942</v>
       </c>
       <c r="G12" s="45">
         <f t="shared" si="1"/>
-        <v>680.92538251027759</v>
+        <v>709.76103971249427</v>
       </c>
       <c r="H12" s="50">
         <f t="shared" si="2"/>
@@ -3791,10 +3844,10 @@
       </c>
       <c r="I12" s="45">
         <f t="shared" si="3"/>
-        <v>763.97207525266163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>792.80773245487831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>40.1</v>
       </c>
@@ -3810,11 +3863,11 @@
       <c r="E13" s="21"/>
       <c r="F13" s="49">
         <f t="shared" si="0"/>
-        <v>179.33131840822728</v>
+        <v>208.07901787309396</v>
       </c>
       <c r="G13" s="45">
         <f t="shared" si="1"/>
-        <v>686.65828822822732</v>
+        <v>715.40598769309395</v>
       </c>
       <c r="H13" s="50">
         <f t="shared" si="2"/>
@@ -3822,10 +3875,10 @@
       </c>
       <c r="I13" s="45">
         <f t="shared" si="3"/>
-        <v>769.45166268704338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>798.19936215191001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>41</v>
       </c>
@@ -3841,11 +3894,11 @@
       <c r="E14" s="21"/>
       <c r="F14" s="49">
         <f t="shared" si="0"/>
-        <v>178.77816250031498</v>
+        <v>207.4371883305983</v>
       </c>
       <c r="G14" s="45">
         <f t="shared" si="1"/>
-        <v>692.44619368031499</v>
+        <v>721.10521951059832</v>
       </c>
       <c r="H14" s="50">
         <f t="shared" si="2"/>
@@ -3853,10 +3906,10 @@
       </c>
       <c r="I14" s="45">
         <f t="shared" si="3"/>
-        <v>774.98418807153098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>803.64321390181431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>41.9</v>
       </c>
@@ -3872,11 +3925,11 @@
       <c r="E15" s="21"/>
       <c r="F15" s="49">
         <f t="shared" si="0"/>
-        <v>178.22074373953436</v>
+        <v>206.79041257878436</v>
       </c>
       <c r="G15" s="45">
         <f t="shared" si="1"/>
-        <v>698.28640109953426</v>
+        <v>726.85606993878423</v>
       </c>
       <c r="H15" s="50">
         <f t="shared" si="2"/>
@@ -3884,10 +3937,10 @@
       </c>
       <c r="I15" s="45">
         <f t="shared" si="3"/>
-        <v>780.56704735657422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>809.13671619582419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>42.8</v>
       </c>
@@ -3903,11 +3956,11 @@
       <c r="E16" s="21"/>
       <c r="F16" s="49">
         <f t="shared" si="0"/>
-        <v>177.65865613989797</v>
+        <v>206.13821955009797</v>
       </c>
       <c r="G16" s="45">
         <f t="shared" si="1"/>
-        <v>704.17995487989799</v>
+        <v>732.65951829009805</v>
       </c>
       <c r="H16" s="50">
         <f t="shared" si="2"/>
@@ -3915,7 +3968,7 @@
       </c>
       <c r="I16" s="45">
         <f t="shared" si="3"/>
-        <v>786.20109750127403</v>
+        <v>814.68066091147409</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3934,11 +3987,11 @@
       <c r="E17" s="21"/>
       <c r="F17" s="49">
         <f t="shared" si="0"/>
-        <v>177.09189970140577</v>
+        <v>205.48060924453912</v>
       </c>
       <c r="G17" s="45">
         <f t="shared" si="1"/>
-        <v>710.12830540140578</v>
+        <v>738.51701494453914</v>
       </c>
       <c r="H17" s="50">
         <f t="shared" si="2"/>
@@ -3946,7 +3999,7 @@
       </c>
       <c r="I17" s="45">
         <f t="shared" si="3"/>
-        <v>791.88778888562979</v>
+        <v>820.27649842876315</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3965,11 +4018,11 @@
       <c r="E18" s="21"/>
       <c r="F18" s="49">
         <f t="shared" si="0"/>
-        <v>176.52047442405785</v>
+        <v>204.81758166210787</v>
       </c>
       <c r="G18" s="45">
         <f t="shared" si="1"/>
-        <v>716.13145266405786</v>
+        <v>744.42855990210785</v>
       </c>
       <c r="H18" s="50">
         <f t="shared" si="2"/>
@@ -3977,7 +4030,7 @@
       </c>
       <c r="I18" s="45">
         <f t="shared" si="3"/>
-        <v>797.62712150964194</v>
+        <v>825.92422874769181</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3996,11 +4049,11 @@
       <c r="E19" s="21"/>
       <c r="F19" s="49">
         <f t="shared" si="0"/>
-        <v>175.94417731486035</v>
+        <v>204.14890126902705</v>
       </c>
       <c r="G19" s="45">
         <f t="shared" si="1"/>
-        <v>722.1906440548604</v>
+        <v>750.39536800902715</v>
       </c>
       <c r="H19" s="50">
         <f t="shared" si="2"/>
@@ -4008,7 +4061,7 @@
       </c>
       <c r="I19" s="45">
         <f t="shared" si="3"/>
-        <v>803.42024904286041</v>
+        <v>831.62497299702716</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -4027,11 +4080,11 @@
       <c r="E20" s="21"/>
       <c r="F20" s="49">
         <f t="shared" si="0"/>
-        <v>175.36280538081968</v>
+        <v>203.47433253151968</v>
       </c>
       <c r="G20" s="45">
         <f t="shared" si="1"/>
-        <v>728.30277582081976</v>
+        <v>756.41430297151965</v>
       </c>
       <c r="H20" s="50">
         <f t="shared" si="2"/>
@@ -4039,7 +4092,7 @@
       </c>
       <c r="I20" s="45">
         <f t="shared" si="3"/>
-        <v>809.26397401483575</v>
+        <v>837.37550116553564</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -4058,11 +4111,11 @@
       <c r="E21" s="21"/>
       <c r="F21" s="49">
         <f t="shared" si="0"/>
-        <v>174.7763586219358</v>
+        <v>202.79387544958578</v>
       </c>
       <c r="G21" s="45">
         <f t="shared" si="1"/>
-        <v>734.47074872193571</v>
+        <v>762.48826554958578</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="2"/>
@@ -4070,7 +4123,7 @@
       </c>
       <c r="I21" s="45">
         <f t="shared" si="3"/>
-        <v>815.16119718556774</v>
+        <v>843.17871401321781</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -4089,11 +4142,11 @@
       <c r="E22" s="21"/>
       <c r="F22" s="49">
         <f t="shared" si="0"/>
-        <v>174.18443105222119</v>
+        <v>202.10705895567119</v>
       </c>
       <c r="G22" s="45">
         <f t="shared" si="1"/>
-        <v>740.6956071522211</v>
+        <v>768.61823505567111</v>
       </c>
       <c r="H22" s="50">
         <f t="shared" si="2"/>
@@ -4101,7 +4154,7 @@
       </c>
       <c r="I22" s="45">
         <f t="shared" si="3"/>
-        <v>821.11277551415708</v>
+        <v>849.03540341760709</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4120,11 +4173,11 @@
       <c r="E23" s="21"/>
       <c r="F23" s="49">
         <f t="shared" si="0"/>
-        <v>173.5870226716759</v>
+        <v>201.4138830497759</v>
       </c>
       <c r="G23" s="45">
         <f t="shared" si="1"/>
-        <v>746.97445035167584</v>
+        <v>774.80131072977588</v>
       </c>
       <c r="H23" s="50">
         <f t="shared" si="2"/>
@@ -4132,7 +4185,7 @@
       </c>
       <c r="I23" s="45">
         <f t="shared" si="3"/>
-        <v>827.11580824060388</v>
+        <v>854.94266861870392</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -4151,11 +4204,11 @@
       <c r="E24" s="21"/>
       <c r="F24" s="49">
         <f t="shared" si="0"/>
-        <v>172.98393048730617</v>
+        <v>200.71411219812285</v>
       </c>
       <c r="G24" s="45">
         <f t="shared" si="1"/>
-        <v>753.30997608730627</v>
+        <v>781.04015779812289</v>
       </c>
       <c r="H24" s="50">
         <f t="shared" si="2"/>
@@ -4163,7 +4216,7 @@
       </c>
       <c r="I24" s="45">
         <f t="shared" si="3"/>
-        <v>833.17289941445824</v>
+        <v>860.90308112527487</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -4182,11 +4235,11 @@
       <c r="E25" s="21"/>
       <c r="F25" s="49">
         <f t="shared" si="0"/>
-        <v>172.37515449911206</v>
+        <v>200.00774640071208</v>
       </c>
       <c r="G25" s="45">
         <f t="shared" si="1"/>
-        <v>759.70218435911215</v>
+        <v>787.33477626071215</v>
       </c>
       <c r="H25" s="50">
         <f t="shared" si="2"/>
@@ -4194,7 +4247,7 @@
       </c>
       <c r="I25" s="45">
         <f t="shared" si="3"/>
-        <v>839.28404903572016</v>
+        <v>866.91664093732015</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -4213,11 +4266,11 @@
       <c r="E26" s="21"/>
       <c r="F26" s="49">
         <f t="shared" si="0"/>
-        <v>171.76028872110604</v>
+        <v>199.2943145899894</v>
       </c>
       <c r="G26" s="45">
         <f t="shared" si="1"/>
-        <v>766.15066918110597</v>
+        <v>793.68469504998939</v>
       </c>
       <c r="H26" s="50">
         <f t="shared" si="2"/>
@@ -4225,7 +4278,7 @@
       </c>
       <c r="I26" s="45">
         <f t="shared" si="3"/>
-        <v>845.44866368348994</v>
+        <v>872.98268955237336</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -4244,11 +4297,11 @@
       <c r="E27" s="21"/>
       <c r="F27" s="49">
         <f t="shared" si="0"/>
-        <v>171.1391301602944</v>
+        <v>198.57358123217773</v>
       </c>
       <c r="G27" s="45">
         <f t="shared" si="1"/>
-        <v>772.65667794029446</v>
+        <v>800.09112901217782</v>
       </c>
       <c r="H27" s="50">
         <f t="shared" si="2"/>
@@ -4256,7 +4309,7 @@
       </c>
       <c r="I27" s="45">
         <f t="shared" si="3"/>
-        <v>851.66789702731842</v>
+        <v>879.10234809920178</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4275,11 +4328,11 @@
       <c r="E28" s="21"/>
       <c r="F28" s="49">
         <f t="shared" si="0"/>
-        <v>170.51167881667718</v>
+        <v>197.84554632727719</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="1"/>
-        <v>779.21876025667723</v>
+        <v>806.55262776727727</v>
       </c>
       <c r="H28" s="50">
         <f t="shared" si="2"/>
@@ -4287,7 +4340,7 @@
       </c>
       <c r="I28" s="45">
         <f t="shared" si="3"/>
-        <v>857.9402986872052</v>
+        <v>885.27416619780524</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -4306,11 +4359,11 @@
       <c r="E29" s="21"/>
       <c r="F29" s="49">
         <f t="shared" si="0"/>
-        <v>169.87732571127316</v>
+        <v>197.10950327395648</v>
       </c>
       <c r="G29" s="45">
         <f t="shared" si="1"/>
-        <v>785.83920791127321</v>
+        <v>813.07138547395652</v>
       </c>
       <c r="H29" s="50">
         <f t="shared" si="2"/>
@@ -4318,7 +4371,7 @@
       </c>
       <c r="I29" s="45">
         <f t="shared" si="3"/>
-        <v>864.26787929180125</v>
+        <v>891.50005685448457</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -4337,11 +4390,11 @@
       <c r="E30" s="21"/>
       <c r="F30" s="49">
         <f t="shared" si="0"/>
-        <v>169.23627383707606</v>
+        <v>196.36568760599275</v>
       </c>
       <c r="G30" s="45">
         <f t="shared" si="1"/>
-        <v>792.51677351707599</v>
+        <v>819.64618728599271</v>
       </c>
       <c r="H30" s="50">
         <f t="shared" si="2"/>
@@ -4349,7 +4402,7 @@
       </c>
       <c r="I30" s="45">
         <f t="shared" si="3"/>
-        <v>870.64948517155597</v>
+        <v>897.77889894047269</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -4368,11 +4421,11 @@
       <c r="E31" s="21"/>
       <c r="F31" s="49">
         <f t="shared" si="0"/>
-        <v>168.58811720809842</v>
+        <v>195.61362825583177</v>
       </c>
       <c r="G31" s="45">
         <f t="shared" si="1"/>
-        <v>799.25250146809844</v>
+        <v>826.27801251583173</v>
       </c>
       <c r="H31" s="50">
         <f t="shared" si="2"/>
@@ -4380,7 +4433,7 @@
       </c>
       <c r="I31" s="45">
         <f t="shared" si="3"/>
-        <v>877.08597328557039</v>
+        <v>904.11148433330368</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -4399,11 +4452,11 @@
       <c r="E32" s="21"/>
       <c r="F32" s="49">
         <f t="shared" si="0"/>
-        <v>167.93265283134656</v>
+        <v>194.85308968969659</v>
       </c>
       <c r="G32" s="45">
         <f t="shared" si="1"/>
-        <v>806.04618877134658</v>
+        <v>832.96662562969664</v>
       </c>
       <c r="H32" s="50">
         <f t="shared" si="2"/>
@@ -4411,10 +4464,10 @@
       </c>
       <c r="I32" s="45">
         <f t="shared" si="3"/>
-        <v>883.57704692339462</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>910.49748378174468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="33">
         <v>58.1</v>
       </c>
@@ -4430,11 +4483,11 @@
       <c r="E33" s="21"/>
       <c r="F33" s="49">
         <f t="shared" si="0"/>
-        <v>167.26947472083296</v>
+        <v>194.08360084003297</v>
       </c>
       <c r="G33" s="45">
         <f t="shared" si="1"/>
-        <v>812.89742944083298</v>
+        <v>839.71155556003305</v>
       </c>
       <c r="H33" s="50">
         <f t="shared" si="2"/>
@@ -4442,10 +4495,10 @@
       </c>
       <c r="I33" s="45">
         <f t="shared" si="3"/>
-        <v>890.12211266412896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>916.93623878332903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="33">
         <v>59</v>
       </c>
@@ -4460,23 +4513,23 @@
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="49">
-        <f t="shared" ref="F34:F78" si="4">C34*$K$3*$K$2</f>
-        <v>166.59837988356398</v>
+        <f t="shared" ref="F34:F79" si="4">C34*$K$3*$K$2</f>
+        <v>193.30492617306399</v>
       </c>
       <c r="G34" s="45">
-        <f t="shared" ref="G34:G78" si="5">B34+(C34*$K$3*$K$2)</f>
-        <v>819.80892124356399</v>
+        <f t="shared" ref="G34:G79" si="5">B34+(C34*$K$3*$K$2)</f>
+        <v>846.515467533064</v>
       </c>
       <c r="H34" s="50">
-        <f t="shared" ref="H34:H78" si="6">C34*$K$3*$K$1</f>
+        <f t="shared" ref="H34:H79" si="6">C34*$K$3*$K$1</f>
         <v>76.914853313760005</v>
       </c>
       <c r="I34" s="45">
-        <f t="shared" ref="I34:I78" si="7">G34+H34</f>
-        <v>896.72377455732396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I34:I79" si="7">G34+H34</f>
+        <v>923.43032084682397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="33">
         <v>59.9</v>
       </c>
@@ -4492,11 +4545,11 @@
       <c r="E35" s="21"/>
       <c r="F35" s="49">
         <f t="shared" si="4"/>
-        <v>165.91896233355203</v>
+        <v>192.51659462123538</v>
       </c>
       <c r="G35" s="45">
         <f t="shared" si="5"/>
-        <v>826.77735743355208</v>
+        <v>853.37498972123547</v>
       </c>
       <c r="H35" s="50">
         <f t="shared" si="6"/>
@@ -4504,10 +4557,10 @@
       </c>
       <c r="I35" s="45">
         <f t="shared" si="7"/>
-        <v>903.37853842208006</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>929.97617070976344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="33">
         <v>60.8</v>
       </c>
@@ -4523,11 +4576,11 @@
       <c r="E36" s="21"/>
       <c r="F36" s="49">
         <f t="shared" si="4"/>
-        <v>165.2310190778035</v>
+        <v>191.71837065077017</v>
       </c>
       <c r="G36" s="45">
         <f t="shared" si="5"/>
-        <v>833.80688615780355</v>
+        <v>860.29423773077019</v>
       </c>
       <c r="H36" s="50">
         <f t="shared" si="6"/>
@@ -4535,10 +4588,10 @@
       </c>
       <c r="I36" s="45">
         <f t="shared" si="7"/>
-        <v>910.0904586879476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>936.57781026091425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="33">
         <v>61.7</v>
       </c>
@@ -4554,11 +4607,11 @@
       <c r="E37" s="21"/>
       <c r="F37" s="49">
         <f t="shared" si="4"/>
-        <v>164.53414413033084</v>
+        <v>190.9097831941142</v>
       </c>
       <c r="G37" s="45">
         <f t="shared" si="5"/>
-        <v>840.89420067033075</v>
+        <v>867.26983973411416</v>
       </c>
       <c r="H37" s="50">
         <f t="shared" si="6"/>
@@ -4566,10 +4619,10 @@
       </c>
       <c r="I37" s="45">
         <f t="shared" si="7"/>
-        <v>916.85604117402681</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>943.23168023781022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="33">
         <v>62.6</v>
       </c>
@@ -4585,11 +4638,11 @@
       <c r="E38" s="21"/>
       <c r="F38" s="49">
         <f t="shared" si="4"/>
-        <v>163.82793150514664</v>
+        <v>190.0903611837133</v>
       </c>
       <c r="G38" s="45">
         <f t="shared" si="5"/>
-        <v>848.04034536514655</v>
+        <v>874.30277504371327</v>
       </c>
       <c r="H38" s="50">
         <f t="shared" si="6"/>
@@ -4597,10 +4650,10 @@
       </c>
       <c r="I38" s="45">
         <f t="shared" si="7"/>
-        <v>923.67614283941862</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>949.93857251798522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="33">
         <v>63.5</v>
       </c>
@@ -4616,11 +4669,11 @@
       <c r="E39" s="21"/>
       <c r="F39" s="49">
         <f t="shared" si="4"/>
-        <v>163.11197521626343</v>
+        <v>189.25963355201344</v>
       </c>
       <c r="G39" s="45">
         <f t="shared" si="5"/>
-        <v>855.24636463626348</v>
+        <v>881.39402297201354</v>
       </c>
       <c r="H39" s="50">
         <f t="shared" si="6"/>
@@ -4628,10 +4681,10 @@
       </c>
       <c r="I39" s="45">
         <f t="shared" si="7"/>
-        <v>930.55162064322349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>956.69927897897355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="33">
         <v>64.400000000000006</v>
       </c>
@@ -4647,11 +4700,11 @@
       <c r="E40" s="21"/>
       <c r="F40" s="49">
         <f t="shared" si="4"/>
-        <v>162.38607227068749</v>
+        <v>188.41736476523749</v>
       </c>
       <c r="G40" s="45">
         <f t="shared" si="5"/>
-        <v>862.51350587068748</v>
+        <v>888.54479836523751</v>
       </c>
       <c r="H40" s="50">
         <f t="shared" si="6"/>
@@ -4659,10 +4712,10 @@
       </c>
       <c r="I40" s="45">
         <f t="shared" si="7"/>
-        <v>937.48362825499146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>963.51492074954149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="33">
         <v>65.3</v>
       </c>
@@ -4678,11 +4731,11 @@
       <c r="E41" s="21"/>
       <c r="F41" s="49">
         <f t="shared" si="4"/>
-        <v>161.64941069644394</v>
+        <v>187.56261268827728</v>
       </c>
       <c r="G41" s="45">
         <f t="shared" si="5"/>
-        <v>869.83805633644397</v>
+        <v>895.75125832827734</v>
       </c>
       <c r="H41" s="50">
         <f t="shared" si="6"/>
@@ -4690,10 +4743,10 @@
       </c>
       <c r="I41" s="45">
         <f t="shared" si="7"/>
-        <v>944.46807807292396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>970.38128006475733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="33">
         <v>66.2</v>
       </c>
@@ -4709,11 +4762,11 @@
       <c r="E42" s="21"/>
       <c r="F42" s="49">
         <f t="shared" si="4"/>
-        <v>160.90158450754521</v>
+        <v>186.69490625357855</v>
       </c>
       <c r="G42" s="45">
         <f t="shared" si="5"/>
-        <v>877.22396118754511</v>
+        <v>903.01728293357849</v>
       </c>
       <c r="H42" s="50">
         <f t="shared" si="6"/>
@@ -4721,10 +4774,10 @@
       </c>
       <c r="I42" s="45">
         <f t="shared" si="7"/>
-        <v>951.50872781612111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>977.30204956215448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="33">
         <v>67.099999999999994</v>
       </c>
@@ -4740,11 +4793,11 @@
       <c r="E43" s="21"/>
       <c r="F43" s="49">
         <f t="shared" si="4"/>
-        <v>160.14218771800392</v>
+        <v>185.81377439358727</v>
       </c>
       <c r="G43" s="45">
         <f t="shared" si="5"/>
-        <v>884.67081443800396</v>
+        <v>910.34240111358736</v>
       </c>
       <c r="H43" s="50">
         <f t="shared" si="6"/>
@@ -4752,10 +4805,10 @@
       </c>
       <c r="I43" s="45">
         <f t="shared" si="7"/>
-        <v>958.60498406368401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>984.2765707392673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="33">
         <v>68</v>
       </c>
@@ -4771,11 +4824,11 @@
       <c r="E44" s="21"/>
       <c r="F44" s="49">
         <f t="shared" si="4"/>
-        <v>159.37061134883893</v>
+        <v>184.91851050697227</v>
       </c>
       <c r="G44" s="45">
         <f t="shared" si="5"/>
-        <v>892.17655672883893</v>
+        <v>917.72445588697224</v>
       </c>
       <c r="H44" s="50">
         <f t="shared" si="6"/>
@@ -4783,10 +4836,10 @@
       </c>
       <c r="I44" s="45">
         <f t="shared" si="7"/>
-        <v>965.75450630426292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>991.30240546239622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="33">
         <v>68.900000000000006</v>
       </c>
@@ -4802,11 +4855,11 @@
       <c r="E45" s="21"/>
       <c r="F45" s="49">
         <f t="shared" si="4"/>
-        <v>158.58604342807524</v>
+        <v>184.00817245862527</v>
       </c>
       <c r="G45" s="45">
         <f t="shared" si="5"/>
-        <v>899.74327684807531</v>
+        <v>925.16540587862528</v>
       </c>
       <c r="H45" s="50">
         <f t="shared" si="6"/>
@@ -4814,10 +4867,10 @@
       </c>
       <c r="I45" s="45">
         <f t="shared" si="7"/>
-        <v>972.95900845605934</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>998.3811374866093</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="33">
         <v>69.8</v>
       </c>
@@ -4833,11 +4886,11 @@
       <c r="E46" s="21"/>
       <c r="F46" s="49">
         <f t="shared" si="4"/>
-        <v>157.78807796972538</v>
+        <v>183.08228918099206</v>
       </c>
       <c r="G46" s="45">
         <f t="shared" si="5"/>
-        <v>907.36911842972529</v>
+        <v>932.66332964099206</v>
       </c>
       <c r="H46" s="50">
         <f t="shared" si="6"/>
@@ -4845,1010 +4898,1047 @@
       </c>
       <c r="I46" s="45">
         <f t="shared" si="7"/>
-        <v>980.2164467181733</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1005.5106579294401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="33">
+        <v>70</v>
+      </c>
+      <c r="B47" s="19">
+        <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
+        <v>751.46975752666663</v>
+      </c>
+      <c r="C47" s="21">
+        <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
+        <v>1.5065010984888887</v>
+      </c>
+      <c r="D47" s="21">
+        <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
+        <v>0.31840613902737774</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="54">
+        <f t="shared" ref="E47:I47" si="8">F46+(((F48-F46)/($A$48-$A$46))*($A$47-$A$46))</f>
+        <v>182.87287348276371</v>
+      </c>
+      <c r="G47" s="57">
+        <f t="shared" si="8"/>
+        <v>934.34263100943042</v>
+      </c>
+      <c r="H47" s="54">
+        <f t="shared" si="8"/>
+        <v>72.764003057013326</v>
+      </c>
+      <c r="I47" s="57">
+        <f t="shared" si="8"/>
+        <v>1007.1066340664437</v>
+      </c>
+      <c r="J47" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="33">
         <v>70.7</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B48" s="19">
         <v>758.08026725999991</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C48" s="21">
         <v>1.5004630382399999</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D48" s="31">
         <v>0.32270816263359997</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="49">
-        <f t="shared" si="4"/>
-        <v>156.97590300181452</v>
-      </c>
-      <c r="G47" s="45">
-        <f t="shared" si="5"/>
-        <v>915.05617026181449</v>
-      </c>
-      <c r="H47" s="50">
-        <f t="shared" si="6"/>
-        <v>72.472364746992</v>
-      </c>
-      <c r="I47" s="45">
-        <f t="shared" si="7"/>
-        <v>987.52853500880644</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="33">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="B48" s="19">
-        <v>766.65491381999993</v>
-      </c>
-      <c r="C48" s="21">
-        <v>1.4925542939199998</v>
-      </c>
-      <c r="D48" s="31">
-        <v>0.32839236888000001</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="49">
         <f t="shared" si="4"/>
-        <v>156.14850355937392</v>
+        <v>182.13991853896454</v>
       </c>
       <c r="G48" s="45">
         <f t="shared" si="5"/>
-        <v>922.80341737937385</v>
+        <v>940.22018579896439</v>
       </c>
       <c r="H48" s="50">
         <f t="shared" si="6"/>
-        <v>72.090372396335994</v>
+        <v>72.472364746992</v>
       </c>
       <c r="I48" s="45">
         <f t="shared" si="7"/>
-        <v>994.89378977570982</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1012.6925505459564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="33">
-        <v>72.5</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="B49" s="19">
-        <v>775.30498014</v>
+        <v>766.65491381999993</v>
       </c>
       <c r="C49" s="21">
-        <v>1.48449226432</v>
+        <v>1.4925542939199998</v>
       </c>
       <c r="D49" s="31">
-        <v>0.33423830079839995</v>
+        <v>0.32839236888000001</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="49">
         <f t="shared" si="4"/>
-        <v>155.30506767042877</v>
+        <v>181.17988286365727</v>
       </c>
       <c r="G49" s="45">
         <f t="shared" si="5"/>
-        <v>930.6100478104288</v>
+        <v>947.83479668365726</v>
       </c>
       <c r="H49" s="50">
         <f t="shared" si="6"/>
-        <v>71.700976366656008</v>
+        <v>72.090372396335994</v>
       </c>
       <c r="I49" s="45">
         <f t="shared" si="7"/>
-        <v>1002.3110241770848</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1019.9251690799932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="33">
-        <v>73.400000000000006</v>
+        <v>72.5</v>
       </c>
       <c r="B50" s="19">
-        <v>784.03191660000005</v>
+        <v>775.30498014</v>
       </c>
       <c r="C50" s="21">
-        <v>1.4762691881599999</v>
+        <v>1.48449226432</v>
       </c>
       <c r="D50" s="31">
-        <v>0.34025552416639998</v>
+        <v>0.33423830079839995</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="49">
         <f t="shared" si="4"/>
-        <v>154.44478336300401</v>
+        <v>180.20124001996211</v>
       </c>
       <c r="G50" s="45">
         <f t="shared" si="5"/>
-        <v>938.47669996300408</v>
+        <v>955.50622015996214</v>
       </c>
       <c r="H50" s="50">
         <f t="shared" si="6"/>
-        <v>71.303801788127998</v>
+        <v>71.700976366656008</v>
       </c>
       <c r="I50" s="45">
         <f t="shared" si="7"/>
-        <v>1009.7805017511321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1027.2071965266182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="33">
-        <v>74.3</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="B51" s="19">
-        <v>792.83572320000007</v>
+        <v>784.03191660000005</v>
       </c>
       <c r="C51" s="21">
-        <v>1.4678734235199999</v>
+        <v>1.4762691881599999</v>
       </c>
       <c r="D51" s="31">
-        <v>0.34645449730880001</v>
+        <v>0.34025552416639998</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="49">
         <f t="shared" si="4"/>
-        <v>153.56643267913739</v>
+        <v>179.2030478727707</v>
       </c>
       <c r="G51" s="45">
         <f t="shared" si="5"/>
-        <v>946.40215587913747</v>
-      </c>
-      <c r="H51" s="49">
+        <v>963.2349644727708</v>
+      </c>
+      <c r="H51" s="50">
+        <f t="shared" si="6"/>
+        <v>71.303801788127998</v>
+      </c>
+      <c r="I51" s="45">
+        <f t="shared" si="7"/>
+        <v>1034.5387662608987</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="33">
+        <v>74.3</v>
+      </c>
+      <c r="B52" s="19">
+        <v>792.83572320000007</v>
+      </c>
+      <c r="C52" s="21">
+        <v>1.4678734235199999</v>
+      </c>
+      <c r="D52" s="31">
+        <v>0.34645449730880001</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="49">
+        <f t="shared" si="4"/>
+        <v>178.18389321942075</v>
+      </c>
+      <c r="G52" s="45">
+        <f t="shared" si="5"/>
+        <v>971.0196164194208</v>
+      </c>
+      <c r="H52" s="49">
         <f t="shared" si="6"/>
         <v>70.898286356016001</v>
       </c>
-      <c r="I51" s="45">
+      <c r="I52" s="45">
         <f t="shared" si="7"/>
-        <v>1017.3004422351535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="33">
+        <v>1041.9179027754367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="33">
         <v>75</v>
       </c>
-      <c r="B52" s="19">
-        <f>B51+(((B53-B51)/($A$53-$A$51))*($A$52-$A$51))</f>
+      <c r="B53" s="19">
+        <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C52" s="19">
-        <f t="shared" ref="C52:D52" si="8">C51+(((C53-C51)/($A$53-$A$51))*($A$52-$A$51))</f>
+      <c r="C53" s="21">
+        <f t="shared" ref="C53:D53" si="9">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D52" s="54">
-        <f t="shared" si="8"/>
+      <c r="D53" s="31">
+        <f t="shared" si="9"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="33">
-        <f>F51+(((F53-F51)/($A$53-$A$51))*($A$52-$A$51))</f>
-        <v>152.86827210937113</v>
-      </c>
-      <c r="G52" s="54">
-        <f t="shared" ref="G52" si="9">G51+(((G53-G51)/($A$53-$A$51))*($A$52-$A$51))</f>
-        <v>952.61344447603778</v>
-      </c>
-      <c r="H52" s="33">
-        <f t="shared" ref="H52" si="10">H51+(((H53-H51)/($A$53-$A$51))*($A$52-$A$51))</f>
+      <c r="E53" s="31"/>
+      <c r="F53" s="54">
+        <f>F52+(((F54-F52)/($A$54-$A$52))*($A$53-$A$52))</f>
+        <v>177.3738140488434</v>
+      </c>
+      <c r="G53" s="58">
+        <f t="shared" ref="G53" si="10">G52+(((G54-G52)/($A$54-$A$52))*($A$53-$A$52))</f>
+        <v>977.11898641550999</v>
+      </c>
+      <c r="H53" s="54">
+        <f t="shared" ref="H53" si="11">H52+(((H54-H52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>70.57596078568001</v>
       </c>
-      <c r="I52" s="54">
-        <f t="shared" ref="I52" si="11">I51+(((I53-I51)/($A$53-$A$51))*($A$52-$A$51))</f>
-        <v>1023.1894052617178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="33">
+      <c r="I53" s="58">
+        <f t="shared" ref="I53" si="12">I52+(((I54-I52)/($A$54-$A$52))*($A$53-$A$52))</f>
+        <v>1047.69494720119</v>
+      </c>
+      <c r="J53" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="33">
         <v>75.2</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B54" s="19">
         <v>801.71930069999996</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C54" s="21">
         <v>1.45929332848</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D54" s="31">
         <v>0.35284684274239997</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="49">
-        <f t="shared" si="4"/>
-        <v>152.66879766086649</v>
-      </c>
-      <c r="G53" s="45">
-        <f t="shared" si="5"/>
-        <v>954.38809836086648</v>
-      </c>
-      <c r="H53" s="50">
-        <f t="shared" si="6"/>
-        <v>70.483867765584009</v>
-      </c>
-      <c r="I53" s="45">
-        <f t="shared" si="7"/>
-        <v>1024.8719661264504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="33">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="B54" s="19">
-        <v>810.68264910000005</v>
-      </c>
-      <c r="C54" s="21">
-        <v>1.4505153208000001</v>
-      </c>
-      <c r="D54" s="31">
-        <v>0.35944542478879998</v>
       </c>
       <c r="E54" s="21"/>
       <c r="F54" s="49">
         <f t="shared" si="4"/>
-        <v>151.75045735723521</v>
+        <v>177.14236285724985</v>
       </c>
       <c r="G54" s="45">
         <f t="shared" si="5"/>
-        <v>962.43310645723523</v>
+        <v>978.86166355724981</v>
       </c>
       <c r="H54" s="50">
         <f t="shared" si="6"/>
-        <v>70.059889994640017</v>
+        <v>70.483867765584009</v>
       </c>
       <c r="I54" s="45">
         <f t="shared" si="7"/>
-        <v>1032.4929964518753</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1049.3455313228337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="33">
-        <v>77</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="B55" s="19">
-        <v>819.72576839999999</v>
+        <v>810.68264910000005</v>
       </c>
       <c r="C55" s="21">
-        <v>1.4415277585599999</v>
+        <v>1.4505153208000001</v>
       </c>
       <c r="D55" s="31">
-        <v>0.36626458241279997</v>
+        <v>0.35944542478879998</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="49">
         <f t="shared" si="4"/>
-        <v>150.81019381028113</v>
+        <v>176.07680804981857</v>
       </c>
       <c r="G55" s="45">
         <f t="shared" si="5"/>
-        <v>970.53596221028113</v>
+        <v>986.75945714981867</v>
       </c>
       <c r="H55" s="50">
         <f t="shared" si="6"/>
-        <v>69.625790738448003</v>
+        <v>70.059889994640017</v>
       </c>
       <c r="I55" s="45">
         <f t="shared" si="7"/>
-        <v>1040.1617529487291</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1056.8193471444588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="33">
-        <v>77.900000000000006</v>
+        <v>77</v>
       </c>
       <c r="B56" s="19">
-        <v>828.85010898000007</v>
+        <v>819.72576839999999</v>
       </c>
       <c r="C56" s="21">
-        <v>1.4323131788799999</v>
+        <v>1.4415277585599999</v>
       </c>
       <c r="D56" s="31">
-        <v>0.37332036206079999</v>
+        <v>0.36626458241279997</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="49">
         <f t="shared" si="4"/>
-        <v>149.84618008306072</v>
+        <v>174.98581559446447</v>
       </c>
       <c r="G56" s="45">
         <f t="shared" si="5"/>
-        <v>978.69628906306082</v>
+        <v>994.71158399446449</v>
       </c>
       <c r="H56" s="50">
         <f t="shared" si="6"/>
-        <v>69.180726539904001</v>
+        <v>69.625790738448003</v>
       </c>
       <c r="I56" s="45">
         <f t="shared" si="7"/>
-        <v>1047.8770156029648</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1064.3373747329124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="33">
-        <v>78.8</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="B57" s="19">
-        <v>838.05712122</v>
+        <v>828.85010898000007</v>
       </c>
       <c r="C57" s="21">
-        <v>1.4228541188799999</v>
+        <v>1.4323131788799999</v>
       </c>
       <c r="D57" s="31">
-        <v>0.38063080870880001</v>
+        <v>0.37332036206079999</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="49">
         <f t="shared" si="4"/>
-        <v>148.85658923863045</v>
+        <v>173.86726568719408</v>
       </c>
       <c r="G57" s="45">
         <f t="shared" si="5"/>
-        <v>986.91371045863048</v>
+        <v>1002.7173746671941</v>
       </c>
       <c r="H57" s="50">
         <f t="shared" si="6"/>
-        <v>68.723853941903997</v>
+        <v>69.180726539904001</v>
       </c>
       <c r="I57" s="45">
         <f t="shared" si="7"/>
-        <v>1055.6375644005345</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1071.8981012070981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="33">
-        <v>79.7</v>
+        <v>78.8</v>
       </c>
       <c r="B58" s="19">
-        <v>847.34825549999994</v>
+        <v>838.05712122</v>
       </c>
       <c r="C58" s="21">
-        <v>1.41312923504</v>
+        <v>1.4228541188799999</v>
       </c>
       <c r="D58" s="31">
-        <v>0.38821637332959996</v>
+        <v>0.38063080870880001</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="49">
         <f t="shared" si="4"/>
-        <v>147.83918835405927</v>
+        <v>172.71903852401377</v>
       </c>
       <c r="G58" s="45">
         <f t="shared" si="5"/>
-        <v>995.18744385405921</v>
+        <v>1010.7761597440137</v>
       </c>
       <c r="H58" s="50">
         <f t="shared" si="6"/>
-        <v>68.254142052432002</v>
+        <v>68.723853941903997</v>
       </c>
       <c r="I58" s="45">
         <f t="shared" si="7"/>
-        <v>1063.4415859064911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1079.5000136859178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="33">
-        <v>80.599999999999994</v>
+        <v>79.7</v>
       </c>
       <c r="B59" s="19">
-        <v>856.72351182</v>
+        <v>847.34825549999994</v>
       </c>
       <c r="C59" s="21">
-        <v>1.4031171838399998</v>
+        <v>1.41312923504</v>
       </c>
       <c r="D59" s="31">
-        <v>0.3961002815536</v>
+        <v>0.38821637332959996</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="49">
         <f t="shared" si="4"/>
-        <v>146.79174450641614</v>
+        <v>171.53854323337595</v>
       </c>
       <c r="G59" s="45">
         <f t="shared" si="5"/>
-        <v>1003.5152563264162</v>
+        <v>1018.8867987333758</v>
       </c>
       <c r="H59" s="50">
         <f t="shared" si="6"/>
-        <v>67.770559979471997</v>
+        <v>68.254142052432002</v>
       </c>
       <c r="I59" s="45">
         <f t="shared" si="7"/>
-        <v>1071.2858163058881</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1087.1409407858077</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="33">
-        <v>81.5</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="B60" s="19">
-        <v>866.18579093999995</v>
+        <v>856.72351182</v>
       </c>
       <c r="C60" s="21">
-        <v>1.3927888604799998</v>
+        <v>1.4031171838399998</v>
       </c>
       <c r="D60" s="31">
-        <v>0.40430919337760002</v>
+        <v>0.3961002815536</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="49">
         <f t="shared" si="4"/>
-        <v>145.71121280079512</v>
+        <v>170.32318894373279</v>
       </c>
       <c r="G60" s="45">
         <f t="shared" si="5"/>
-        <v>1011.8970037407951</v>
+        <v>1027.0467007637328</v>
       </c>
       <c r="H60" s="50">
         <f t="shared" si="6"/>
-        <v>67.271701961183993</v>
+        <v>67.770559979471997</v>
       </c>
       <c r="I60" s="45">
         <f t="shared" si="7"/>
-        <v>1079.168705701979</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1094.8172607432048</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="33">
-        <v>82.4</v>
+        <v>81.5</v>
       </c>
       <c r="B61" s="19">
-        <v>875.73364248000007</v>
+        <v>866.18579093999995</v>
       </c>
       <c r="C61" s="21">
-        <v>1.3821171004799999</v>
+        <v>1.3927888604799998</v>
       </c>
       <c r="D61" s="31">
-        <v>0.41287390167999999</v>
+        <v>0.40430919337760002</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="49">
         <f t="shared" si="4"/>
-        <v>144.59475133528403</v>
+        <v>169.06944264842846</v>
       </c>
       <c r="G61" s="45">
         <f t="shared" si="5"/>
-        <v>1020.3283938152841</v>
+        <v>1035.2552335884284</v>
       </c>
       <c r="H61" s="50">
         <f t="shared" si="6"/>
-        <v>66.756255953183995</v>
+        <v>67.271701961183993</v>
       </c>
       <c r="I61" s="45">
         <f t="shared" si="7"/>
-        <v>1087.0846497684681</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1102.5269355496123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="33">
-        <v>83.3</v>
+        <v>82.4</v>
       </c>
       <c r="B62" s="19">
-        <v>885.37141757999996</v>
+        <v>875.73364248000007</v>
       </c>
       <c r="C62" s="21">
-        <v>1.37106309744</v>
+        <v>1.3821171004799999</v>
       </c>
       <c r="D62" s="31">
-        <v>0.42183024417120002</v>
+        <v>0.41287390167999999</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="49">
         <f t="shared" si="4"/>
-        <v>143.4383002500083</v>
+        <v>167.77400687458405</v>
       </c>
       <c r="G62" s="45">
         <f t="shared" si="5"/>
-        <v>1028.8097178300081</v>
+        <v>1043.5076493545841</v>
       </c>
       <c r="H62" s="50">
         <f t="shared" si="6"/>
-        <v>66.222347606352002</v>
+        <v>66.756255953183995</v>
       </c>
       <c r="I62" s="45">
         <f t="shared" si="7"/>
-        <v>1095.0320654363602</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1110.2639053077683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="33">
-        <v>84.2</v>
+        <v>83.3</v>
       </c>
       <c r="B63" s="19">
-        <v>895.10056662</v>
+        <v>885.37141757999996</v>
       </c>
       <c r="C63" s="21">
-        <v>1.35958416432</v>
+        <v>1.37106309744</v>
       </c>
       <c r="D63" s="31">
-        <v>0.43122034519840002</v>
+        <v>0.42183024417120002</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="49">
         <f t="shared" si="4"/>
-        <v>142.23739369910584</v>
+        <v>166.43217094665832</v>
       </c>
       <c r="G63" s="45">
         <f t="shared" si="5"/>
-        <v>1037.3379603191058</v>
+        <v>1051.8035885266584</v>
       </c>
       <c r="H63" s="50">
         <f t="shared" si="6"/>
-        <v>65.667915136656006</v>
+        <v>66.222347606352002</v>
       </c>
       <c r="I63" s="45">
         <f t="shared" si="7"/>
-        <v>1103.0058754557617</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1118.0259361330104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="33">
-        <v>85.1</v>
+        <v>84.2</v>
       </c>
       <c r="B64" s="19">
-        <v>904.91963922000002</v>
+        <v>895.10056662</v>
       </c>
       <c r="C64" s="21">
-        <v>1.3476317931200001</v>
+        <v>1.35958416432</v>
       </c>
       <c r="D64" s="31">
-        <v>0.44109424561439997</v>
+        <v>0.43122034519840002</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="49">
         <f t="shared" si="4"/>
-        <v>140.98695685773345</v>
+        <v>165.03875312155583</v>
       </c>
       <c r="G64" s="45">
         <f t="shared" si="5"/>
-        <v>1045.9065960777334</v>
+        <v>1060.1393197415559</v>
       </c>
       <c r="H64" s="50">
         <f t="shared" si="6"/>
-        <v>65.090615607696009</v>
+        <v>65.667915136656006</v>
       </c>
       <c r="I64" s="45">
         <f t="shared" si="7"/>
-        <v>1110.9972116854294</v>
+        <v>1125.8072348782121</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="33">
-        <v>86</v>
+        <v>85.1</v>
       </c>
       <c r="B65" s="19">
-        <v>914.83443690000001</v>
+        <v>904.91963922000002</v>
       </c>
       <c r="C65" s="21">
-        <v>1.33514583392</v>
+        <v>1.3476317931200001</v>
       </c>
       <c r="D65" s="31">
-        <v>0.45151211474239994</v>
+        <v>0.44109424561439997</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="49">
         <f t="shared" si="4"/>
-        <v>139.68069694308545</v>
+        <v>163.58786505485011</v>
       </c>
       <c r="G65" s="45">
         <f t="shared" si="5"/>
-        <v>1054.5151338430856</v>
+        <v>1068.5075042748501</v>
       </c>
       <c r="H65" s="50">
         <f t="shared" si="6"/>
-        <v>64.487543778336004</v>
+        <v>65.090615607696009</v>
       </c>
       <c r="I65" s="45">
         <f t="shared" si="7"/>
-        <v>1119.0026776214215</v>
+        <v>1133.5981198825461</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="33">
-        <v>86.9</v>
+        <v>86</v>
       </c>
       <c r="B66" s="19">
-        <v>924.84350928000003</v>
+        <v>914.83443690000001</v>
       </c>
       <c r="C66" s="21">
-        <v>1.3220506142399999</v>
+        <v>1.33514583392</v>
       </c>
       <c r="D66" s="31">
-        <v>0.4625472966784</v>
+        <v>0.45151211474239994</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="49">
         <f t="shared" si="4"/>
-        <v>138.3106972284065</v>
+        <v>162.07220519945213</v>
       </c>
       <c r="G66" s="45">
         <f t="shared" si="5"/>
-        <v>1063.1542065084066</v>
+        <v>1076.9066420994523</v>
       </c>
       <c r="H66" s="50">
         <f t="shared" si="6"/>
-        <v>63.855044667792001</v>
+        <v>64.487543778336004</v>
       </c>
       <c r="I66" s="45">
         <f t="shared" si="7"/>
-        <v>1127.0092511761986</v>
+        <v>1141.3941858777882</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="33">
-        <v>87.8</v>
+        <v>86.9</v>
       </c>
       <c r="B67" s="19">
-        <v>934.95120750000012</v>
+        <v>924.84350928000003</v>
       </c>
       <c r="C67" s="21">
-        <v>1.30825687936</v>
+        <v>1.3220506142399999</v>
       </c>
       <c r="D67" s="31">
-        <v>0.47429065660800002</v>
+        <v>0.4625472966784</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="49">
         <f t="shared" si="4"/>
-        <v>136.867620035985</v>
+        <v>160.48258773805651</v>
       </c>
       <c r="G67" s="45">
         <f t="shared" si="5"/>
-        <v>1071.8188275359851</v>
+        <v>1085.3260970180565</v>
       </c>
       <c r="H67" s="50">
         <f t="shared" si="6"/>
-        <v>63.18880727308801</v>
+        <v>63.855044667792001</v>
       </c>
       <c r="I67" s="45">
         <f t="shared" si="7"/>
-        <v>1135.0076348090731</v>
+        <v>1149.1811416858486</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="33">
-        <v>88.7</v>
+        <v>87.8</v>
       </c>
       <c r="B68" s="19">
-        <v>945.16043231999993</v>
+        <v>934.95120750000012</v>
       </c>
       <c r="C68" s="21">
-        <v>1.29364626976</v>
+        <v>1.30825687936</v>
       </c>
       <c r="D68" s="31">
-        <v>0.48685690624959999</v>
+        <v>0.47429065660800002</v>
       </c>
       <c r="E68" s="21"/>
       <c r="F68" s="49">
         <f t="shared" si="4"/>
-        <v>135.33908279320343</v>
+        <v>158.80817811691833</v>
       </c>
       <c r="G68" s="45">
         <f t="shared" si="5"/>
-        <v>1080.4995151132034</v>
+        <v>1093.7593856169185</v>
       </c>
       <c r="H68" s="50">
         <f t="shared" si="6"/>
-        <v>62.483114829408009</v>
+        <v>63.18880727308801</v>
       </c>
       <c r="I68" s="45">
         <f t="shared" si="7"/>
-        <v>1142.9826299426113</v>
+        <v>1156.9481928900066</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="33">
-        <v>89.6</v>
+        <v>88.7</v>
       </c>
       <c r="B69" s="19">
-        <v>955.47118374000013</v>
+        <v>945.16043231999993</v>
       </c>
       <c r="C69" s="21">
-        <v>1.2780693808000001</v>
+        <v>1.29364626976</v>
       </c>
       <c r="D69" s="31">
-        <v>0.50039415022879996</v>
+        <v>0.48685690624959999</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="49">
         <f t="shared" si="4"/>
-        <v>133.70945503954474</v>
+        <v>157.0346087756368</v>
       </c>
       <c r="G69" s="45">
         <f t="shared" si="5"/>
-        <v>1089.1806387795448</v>
+        <v>1102.1950410956367</v>
       </c>
       <c r="H69" s="50">
         <f t="shared" si="6"/>
-        <v>61.730751092640013</v>
+        <v>62.483114829408009</v>
       </c>
       <c r="I69" s="45">
         <f t="shared" si="7"/>
-        <v>1150.9113898721848</v>
+        <v>1164.6781559250448</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="33">
-        <v>90.5</v>
+        <v>89.6</v>
       </c>
       <c r="B70" s="19">
-        <v>965.88781289999997</v>
+        <v>955.47118374000013</v>
       </c>
       <c r="C70" s="21">
-        <v>1.2613302401599999</v>
+        <v>1.2780693808000001</v>
       </c>
       <c r="D70" s="31">
-        <v>0.51509886534880001</v>
+        <v>0.50039415022879996</v>
       </c>
       <c r="E70" s="21"/>
       <c r="F70" s="49">
         <f t="shared" si="4"/>
-        <v>131.95823448264215</v>
+        <v>155.14374361337809</v>
       </c>
       <c r="G70" s="45">
         <f t="shared" si="5"/>
-        <v>1097.8460473826422</v>
+        <v>1110.6149273533783</v>
       </c>
       <c r="H70" s="50">
         <f t="shared" si="6"/>
-        <v>60.922250599728002</v>
+        <v>61.730751092640013</v>
       </c>
       <c r="I70" s="45">
         <f t="shared" si="7"/>
-        <v>1158.7682979823701</v>
+        <v>1172.3456784460184</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="33">
-        <v>91.4</v>
+        <v>90.5</v>
       </c>
       <c r="B71" s="19">
-        <v>976.41612132</v>
+        <v>965.88781289999997</v>
       </c>
       <c r="C71" s="21">
-        <v>1.24315138208</v>
+        <v>1.2613302401599999</v>
       </c>
       <c r="D71" s="31">
-        <v>0.53124065907359996</v>
+        <v>0.51509886534880001</v>
       </c>
       <c r="E71" s="21"/>
       <c r="F71" s="49">
         <f t="shared" si="4"/>
-        <v>130.05639312439246</v>
+        <v>153.11179371865882</v>
       </c>
       <c r="G71" s="45">
         <f t="shared" si="5"/>
-        <v>1106.4725144443923</v>
+        <v>1118.9996066186588</v>
       </c>
       <c r="H71" s="50">
         <f t="shared" si="6"/>
-        <v>60.044211754464001</v>
+        <v>60.922250599728002</v>
       </c>
       <c r="I71" s="45">
         <f t="shared" si="7"/>
-        <v>1166.5167261988563</v>
+        <v>1179.9218572183868</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="33">
-        <v>92.3</v>
+        <v>91.4</v>
       </c>
       <c r="B72" s="19">
-        <v>987.05610900000011</v>
+        <v>976.41612132</v>
       </c>
       <c r="C72" s="21">
-        <v>1.2231428022399999</v>
+        <v>1.24315138208</v>
       </c>
       <c r="D72" s="31">
-        <v>0.54920555806720006</v>
+        <v>0.53124065907359996</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="49">
         <f t="shared" si="4"/>
-        <v>127.96312937305603</v>
+        <v>150.90507776135911</v>
       </c>
       <c r="G72" s="45">
         <f t="shared" si="5"/>
-        <v>1115.0192383730562</v>
+        <v>1127.3211990813591</v>
       </c>
       <c r="H72" s="50">
         <f t="shared" si="6"/>
-        <v>59.077797348192007</v>
+        <v>60.044211754464001</v>
       </c>
       <c r="I72" s="45">
         <f t="shared" si="7"/>
-        <v>1174.0970357212482</v>
+        <v>1187.365410835823</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="33">
-        <v>93.2</v>
+        <v>92.3</v>
       </c>
       <c r="B73" s="19">
-        <v>997.81792859999996</v>
+        <v>987.05610900000011</v>
       </c>
       <c r="C73" s="21">
-        <v>1.20071076272</v>
+        <v>1.2231428022399999</v>
       </c>
       <c r="D73" s="31">
-        <v>0.56957841358399997</v>
+        <v>0.54920555806720006</v>
       </c>
       <c r="E73" s="21"/>
       <c r="F73" s="49">
         <f t="shared" si="4"/>
-        <v>125.61632737255174</v>
+        <v>148.47625345228937</v>
       </c>
       <c r="G73" s="45">
         <f t="shared" si="5"/>
-        <v>1123.4342559725517</v>
+        <v>1135.5323624522894</v>
       </c>
       <c r="H73" s="50">
         <f t="shared" si="6"/>
-        <v>57.994329839376007</v>
+        <v>59.077797348192007</v>
       </c>
       <c r="I73" s="45">
         <f t="shared" si="7"/>
-        <v>1181.4285858119276</v>
+        <v>1194.6101598004814</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="33">
-        <v>94.1</v>
+        <v>93.2</v>
       </c>
       <c r="B74" s="19">
-        <v>1008.70448088</v>
+        <v>997.81792859999996</v>
       </c>
       <c r="C74" s="21">
-        <v>1.1748812228800001</v>
+        <v>1.20071076272</v>
       </c>
       <c r="D74" s="31">
-        <v>0.59331624965759999</v>
+        <v>0.56957841358399997</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="49">
         <f t="shared" si="4"/>
-        <v>122.91408464002747</v>
+        <v>145.7532474556684</v>
       </c>
       <c r="G74" s="45">
         <f t="shared" si="5"/>
-        <v>1131.6185655200275</v>
+        <v>1143.5711760556683</v>
       </c>
       <c r="H74" s="50">
         <f t="shared" si="6"/>
-        <v>56.746763065104005</v>
+        <v>57.994329839376007</v>
       </c>
       <c r="I74" s="45">
         <f t="shared" si="7"/>
-        <v>1188.3653285851315</v>
+        <v>1201.5655058950442</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="33">
-        <v>95</v>
+        <v>94.1</v>
       </c>
       <c r="B75" s="19">
-        <v>1019.7259185</v>
+        <v>1008.70448088</v>
       </c>
       <c r="C75" s="21">
-        <v>1.143867148</v>
+        <v>1.1748812228800001</v>
       </c>
       <c r="D75" s="31">
-        <v>0.6221741633408</v>
+        <v>0.59331624965759999</v>
       </c>
       <c r="E75" s="21"/>
       <c r="F75" s="49">
         <f t="shared" si="4"/>
-        <v>119.66944462825852</v>
+        <v>142.61782181541079</v>
       </c>
       <c r="G75" s="45">
         <f t="shared" si="5"/>
-        <v>1139.3953631282586</v>
+        <v>1151.3223026954108</v>
       </c>
       <c r="H75" s="50">
         <f t="shared" si="6"/>
-        <v>55.248783248400002</v>
+        <v>56.746763065104005</v>
       </c>
       <c r="I75" s="45">
         <f t="shared" si="7"/>
-        <v>1194.6441463766587</v>
+        <v>1208.0690657605148</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="33">
-        <v>95.9</v>
+        <v>95</v>
       </c>
       <c r="B76" s="19">
-        <v>1030.8938445000001</v>
+        <v>1019.7259185</v>
       </c>
       <c r="C76" s="21">
-        <v>1.1037122256</v>
+        <v>1.143867148</v>
       </c>
       <c r="D76" s="31">
-        <v>0.66003374539039994</v>
+        <v>0.6221741633408</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="49">
         <f t="shared" si="4"/>
-        <v>115.4685046230309</v>
+        <v>138.85304992284185</v>
       </c>
       <c r="G76" s="45">
         <f t="shared" si="5"/>
-        <v>1146.362349123031</v>
+        <v>1158.5789684228419</v>
       </c>
       <c r="H76" s="50">
         <f t="shared" si="6"/>
-        <v>53.309300496480006</v>
+        <v>55.248783248400002</v>
       </c>
       <c r="I76" s="45">
         <f t="shared" si="7"/>
-        <v>1199.6716496195111</v>
+        <v>1213.8277516712419</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="33">
-        <v>96.8</v>
+        <v>95.9</v>
       </c>
       <c r="B77" s="19">
-        <v>1042.23146496</v>
+        <v>1030.8938445000001</v>
       </c>
       <c r="C77" s="21">
-        <v>1.04153273088</v>
+        <v>1.1037122256</v>
       </c>
       <c r="D77" s="31">
-        <v>0.7195324357888</v>
+        <v>0.66003374539039994</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="49">
         <f t="shared" si="4"/>
-        <v>108.96339114598214</v>
+        <v>133.97867840653092</v>
       </c>
       <c r="G77" s="45">
         <f t="shared" si="5"/>
-        <v>1151.1948561059821</v>
+        <v>1164.872522906531</v>
       </c>
       <c r="H77" s="50">
         <f t="shared" si="6"/>
-        <v>50.306030901504002</v>
+        <v>53.309300496480006</v>
       </c>
       <c r="I77" s="45">
         <f t="shared" si="7"/>
-        <v>1201.5008870074862</v>
+        <v>1218.1818234030111</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="34">
+      <c r="A78" s="33">
+        <v>96.8</v>
+      </c>
+      <c r="B78" s="19">
+        <v>1042.23146496</v>
+      </c>
+      <c r="C78" s="21">
+        <v>1.04153273088</v>
+      </c>
+      <c r="D78" s="31">
+        <v>0.7195324357888</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="49">
+        <f t="shared" si="4"/>
+        <v>126.43076298678214</v>
+      </c>
+      <c r="G78" s="45">
+        <f t="shared" si="5"/>
+        <v>1168.6622279467822</v>
+      </c>
+      <c r="H78" s="50">
+        <f t="shared" si="6"/>
+        <v>50.306030901504002</v>
+      </c>
+      <c r="I78" s="45">
+        <f t="shared" si="7"/>
+        <v>1218.9682588482863</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="34">
         <v>97.47</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B79" s="20">
         <v>1050.8003100000001</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C79" s="22">
         <v>0.87704598352000007</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D79" s="32">
         <v>0.8770468760672</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="53">
+      <c r="E79" s="22"/>
+      <c r="F79" s="53">
         <f t="shared" si="4"/>
-        <v>91.755066088569208</v>
-      </c>
-      <c r="G78" s="51">
+        <v>106.46385810385254</v>
+      </c>
+      <c r="G79" s="51">
         <f t="shared" si="5"/>
-        <v>1142.5553760885693</v>
-      </c>
-      <c r="H78" s="52">
+        <v>1157.2641681038526</v>
+      </c>
+      <c r="H79" s="52">
         <f t="shared" si="6"/>
         <v>42.361321004016006</v>
       </c>
-      <c r="I78" s="51">
+      <c r="I79" s="51">
         <f t="shared" si="7"/>
-        <v>1184.9166970925853</v>
-      </c>
-      <c r="J78" s="28"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
+        <v>1199.6254891078686</v>
+      </c>
+      <c r="J79" s="28"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+      <c r="A80" s="33"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="35"/>
@@ -8063,6 +8153,9 @@
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="35"/>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8073,7 +8166,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F52:I52" formula="1"/>
+    <ignoredError sqref="F53:I53 G47:I47 F47" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ASME-BPV-SectionVIII-Calcs.xlsx
+++ b/ASME-BPV-SectionVIII-Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danzanko/Documents/GitHub/Propulsion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED2366-3961-284C-875D-7EF4EEE5B78C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A880C54D-2AA8-4249-895B-69AB897E56A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>slug/ft3</t>
   </si>
   <si>
-    <t>Worst Case Pressure</t>
-  </si>
-  <si>
     <t>Bottom of RT</t>
   </si>
   <si>
@@ -147,15 +144,18 @@
   <si>
     <t>interpolated</t>
   </si>
+  <si>
+    <t>Worst Case Pressure Case Study</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000E+00"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -412,19 +412,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -433,32 +421,26 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -471,13 +453,7 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,22 +465,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,16 +483,76 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2880,16 +2901,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>160866</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28786</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>764</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>425026</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>164253</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>264924</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3229,44 +3250,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="50"/>
+      <c r="D5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3382,49 +3403,49 @@
       <c r="E18" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="21">
         <f>B20*B22*B19</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="28">
+      <c r="A24" s="47"/>
+      <c r="B24" s="22">
         <f>B23+B6</f>
         <v>825</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="21">
         <f>B20*B22*(B19+B26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27">
+      <c r="A29" s="47"/>
+      <c r="B29" s="21">
         <f>B27+B6</f>
         <v>825</v>
       </c>
@@ -3446,4723 +3467,4731 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2381E3-ED84-DB4C-A4E2-7857F2E34756}">
-  <dimension ref="A1:N819"/>
+  <dimension ref="A1:O819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="184" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="30"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="29"/>
+    <col min="4" max="4" width="10.83203125" style="23"/>
     <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="14" style="49" customWidth="1"/>
-    <col min="7" max="7" width="16" style="45" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="36" customWidth="1"/>
+    <col min="7" max="7" width="16" style="35" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="63" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="44"/>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1">
         <v>1.5</v>
       </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1">
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1">
         <v>3.2490157499999999</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="46"/>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2">
-        <f>N1+(2*N3)</f>
+      <c r="L2">
+        <f>O1+(2*O3)</f>
         <v>3.7698490833333334</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="62"/>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="N2">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3">
-        <f>N2/12</f>
+      <c r="O3">
+        <f>O2/12</f>
         <v>0.26041666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
         <v>32</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>452.82023903999999</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>1.75999830112</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="25">
         <v>0.16525852904319999</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="49">
-        <f t="shared" ref="F4:F33" si="0">C4*$K$3*$K$2</f>
+      <c r="E4" s="17"/>
+      <c r="F4" s="36">
+        <f t="shared" ref="F4:F33" si="0">C4*$L$3*$L$2</f>
         <v>213.64468102508368</v>
       </c>
-      <c r="G4" s="45">
-        <f t="shared" ref="G4:G33" si="1">B4+(C4*$K$3*$K$2)</f>
+      <c r="G4" s="35">
+        <f t="shared" ref="G4:G33" si="1">B4+(C4*$L$3*$L$2)</f>
         <v>666.46492006508367</v>
       </c>
-      <c r="H4" s="50">
-        <f t="shared" ref="H4:H33" si="2">C4*$K$3*$K$1</f>
+      <c r="H4" s="37">
+        <f t="shared" ref="H4:H33" si="2">C4*$L$3*$L$1</f>
         <v>85.007917944096008</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="35">
         <f t="shared" ref="I4:I33" si="3">G4+H4</f>
         <v>751.47283800917967</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
         <v>32.9</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>458.65366740000002</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>1.7550485447999999</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="25">
         <v>0.16772615040639999</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="49">
+      <c r="E5" s="17"/>
+      <c r="F5" s="36">
         <f t="shared" si="0"/>
         <v>213.04383435979696</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="35">
         <f t="shared" si="1"/>
         <v>671.69750175979698</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="37">
         <f t="shared" si="2"/>
         <v>84.768844713840011</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="35">
         <f t="shared" si="3"/>
         <v>756.46634647363703</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
         <v>33.799999999999997</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>464.54366057999999</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>1.7500619224</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="25">
         <v>0.1702317244288</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="49">
+      <c r="E6" s="17"/>
+      <c r="F6" s="36">
         <f t="shared" si="0"/>
         <v>212.438512552746</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="35">
         <f t="shared" si="1"/>
         <v>676.98217313274597</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="37">
         <f t="shared" si="2"/>
         <v>84.527990851920009</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="35">
         <f t="shared" si="3"/>
         <v>761.51016398466595</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
         <v>34.700000000000003</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>470.48731781999993</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>1.7450423145599998</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="25">
         <v>0.17277604664159998</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="49">
+      <c r="E7" s="17"/>
+      <c r="F7" s="36">
         <f t="shared" si="0"/>
         <v>211.82918667148499</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="35">
         <f t="shared" si="1"/>
         <v>682.31650449148492</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="37">
         <f t="shared" si="2"/>
         <v>84.285543793247996</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="35">
         <f t="shared" si="3"/>
         <v>766.60204828473297</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
         <v>35.6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>476.48608949999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>1.73998778096</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="25">
         <v>0.17536002899519998</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="49">
+      <c r="E8" s="17"/>
+      <c r="F8" s="36">
         <f t="shared" si="0"/>
         <v>211.21562118223687</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="35">
         <f t="shared" si="1"/>
         <v>687.70171068223681</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="37">
         <f t="shared" si="2"/>
         <v>84.041409820368003</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="35">
         <f t="shared" si="3"/>
         <v>771.74312050260482</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
         <v>36.5</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>482.54142600000006</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>1.73489638128</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="25">
         <v>0.17798456403679999</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="49">
+      <c r="E9" s="17"/>
+      <c r="F9" s="36">
         <f t="shared" si="0"/>
         <v>210.59758055122458</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="35">
         <f t="shared" si="1"/>
         <v>693.13900655122461</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="37">
         <f t="shared" si="2"/>
         <v>83.795495215824019</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="35">
         <f t="shared" si="3"/>
         <v>776.93450176704869</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
         <v>37.4</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>488.65187693999997</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <v>1.7297661752</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="25">
         <v>0.18065056371679999</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="49">
+      <c r="E10" s="17"/>
+      <c r="F10" s="36">
         <f t="shared" si="0"/>
         <v>209.97482924467101</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="35">
         <f t="shared" si="1"/>
         <v>698.62670618467098</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="37">
         <f t="shared" si="2"/>
         <v>83.547706262160006</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="35">
         <f t="shared" si="3"/>
         <v>782.17441244683096</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
         <v>38.299999999999997</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>494.82034307999999</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <v>1.7246010433599999</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="25">
         <v>0.18335905640479999</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="49">
+      <c r="E11" s="17"/>
+      <c r="F11" s="36">
         <f t="shared" si="0"/>
         <v>209.34783833013029</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="35">
         <f t="shared" si="1"/>
         <v>704.16818141013027</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="37">
         <f t="shared" si="2"/>
         <v>83.298230394287998</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="35">
         <f t="shared" si="3"/>
         <v>787.46641180441827</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
         <v>39.200000000000003</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>501.04537404000001</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>1.7193932244799999</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="25">
         <v>0.18611099285759999</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="49">
+      <c r="E12" s="17"/>
+      <c r="F12" s="36">
         <f t="shared" si="0"/>
         <v>208.7156656724942</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="35">
         <f t="shared" si="1"/>
         <v>709.76103971249427</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="37">
         <f t="shared" si="2"/>
         <v>83.046692742383996</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="35">
         <f t="shared" si="3"/>
         <v>792.80773245487831</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
         <v>40.1</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>507.32696982000004</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>1.71414853952</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="25">
         <v>0.1889074790576</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="49">
+      <c r="E13" s="17"/>
+      <c r="F13" s="36">
         <f t="shared" si="0"/>
         <v>208.07901787309396</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="35">
         <f t="shared" si="1"/>
         <v>715.40598769309395</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="37">
         <f t="shared" si="2"/>
         <v>82.793374458816004</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="35">
         <f t="shared" si="3"/>
         <v>798.19936215191001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
         <v>41</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <v>513.66803117999996</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>1.7088611675200001</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="25">
         <v>0.19174958218079999</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="49">
+      <c r="E14" s="17"/>
+      <c r="F14" s="36">
         <f t="shared" si="0"/>
         <v>207.4371883305983</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="35">
         <f t="shared" si="1"/>
         <v>721.10521951059832</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="37">
         <f t="shared" si="2"/>
         <v>82.537994391216003</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="35">
         <f t="shared" si="3"/>
         <v>803.64321390181431</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
         <v>41.9</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <v>520.06565735999993</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="17">
         <v>1.7035330488</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="25">
         <v>0.19463846641919999</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="49">
+      <c r="E15" s="17"/>
+      <c r="F15" s="36">
         <f t="shared" si="0"/>
         <v>206.79041257878436</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="35">
         <f t="shared" si="1"/>
         <v>726.85606993878423</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="37">
         <f t="shared" si="2"/>
         <v>82.280646257040004</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="35">
         <f t="shared" si="3"/>
         <v>809.13671619582419</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
         <v>42.8</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>526.52129874000002</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>1.6981603027200001</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="25">
         <v>0.19757531536799999</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="49">
+      <c r="E16" s="17"/>
+      <c r="F16" s="36">
         <f t="shared" si="0"/>
         <v>206.13821955009797</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="35">
         <f t="shared" si="1"/>
         <v>732.65951829009805</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="37">
         <f t="shared" si="2"/>
         <v>82.021142621376015</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="35">
         <f t="shared" si="3"/>
         <v>814.68066091147409</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="33">
+      <c r="A17" s="27">
         <v>43.7</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <v>533.03640570000005</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <v>1.69274292928</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="25">
         <v>0.20056135142879999</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="49">
+      <c r="E17" s="17"/>
+      <c r="F17" s="36">
         <f t="shared" si="0"/>
         <v>205.48060924453912</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="35">
         <f t="shared" si="1"/>
         <v>738.51701494453914</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="37">
         <f t="shared" si="2"/>
         <v>81.759483484224006</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="35">
         <f t="shared" si="3"/>
         <v>820.27649842876315</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="A18" s="27">
         <v>44.6</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <v>539.61097824000001</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>1.6872809284800001</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="25">
         <v>0.20359789401919998</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="49">
+      <c r="E18" s="17"/>
+      <c r="F18" s="36">
         <f t="shared" si="0"/>
         <v>204.81758166210787</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="35">
         <f t="shared" si="1"/>
         <v>744.42855990210785</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="37">
         <f t="shared" si="2"/>
         <v>81.495668845584021</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="35">
         <f t="shared" si="3"/>
         <v>825.92422874769181</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="33">
+      <c r="A19" s="27">
         <v>45.5</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="15">
         <v>546.24646674000007</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="17">
         <v>1.6817723599999999</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="25">
         <v>0.20668630136319999</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="49">
+      <c r="E19" s="17"/>
+      <c r="F19" s="36">
         <f t="shared" si="0"/>
         <v>204.14890126902705</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="35">
         <f t="shared" si="1"/>
         <v>750.39536800902715</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="37">
         <f t="shared" si="2"/>
         <v>81.229604988000006</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="35">
         <f t="shared" si="3"/>
         <v>831.62497299702716</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
+      <c r="A20" s="27">
         <v>46.4</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <v>552.93997044000002</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <v>1.6762152835199999</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="25">
         <v>0.2098279704912</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="49">
+      <c r="E20" s="17"/>
+      <c r="F20" s="36">
         <f t="shared" si="0"/>
         <v>203.47433253151968</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="35">
         <f t="shared" si="1"/>
         <v>756.41430297151965</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="37">
         <f t="shared" si="2"/>
         <v>80.961198194015992</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="35">
         <f t="shared" si="3"/>
         <v>837.37550116553564</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="33">
+      <c r="A21" s="27">
         <v>47.3</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="15">
         <v>559.69439009999996</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="17">
         <v>1.6706096990399999</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="25">
         <v>0.21302437604639998</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="49">
+      <c r="E21" s="17"/>
+      <c r="F21" s="36">
         <f t="shared" si="0"/>
         <v>202.79387544958578</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="35">
         <f t="shared" si="1"/>
         <v>762.48826554958578</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="37">
         <f t="shared" si="2"/>
         <v>80.690448463632009</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="35">
         <f t="shared" si="3"/>
         <v>843.17871401321781</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="33">
+      <c r="A22" s="27">
         <v>48.2</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="15">
         <v>566.51117609999994</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="17">
         <v>1.66495172592</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="25">
         <v>0.21627710909119999</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="49">
+      <c r="E22" s="17"/>
+      <c r="F22" s="36">
         <f t="shared" si="0"/>
         <v>202.10705895567119</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="35">
         <f t="shared" si="1"/>
         <v>768.61823505567111</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="37">
         <f t="shared" si="2"/>
         <v>80.417168361936007</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="35">
         <f t="shared" si="3"/>
         <v>849.03540341760709</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="33">
+      <c r="A23" s="27">
         <v>49.1</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="15">
         <v>573.38742767999997</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="17">
         <v>1.6592413641600001</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="25">
         <v>0.21958774128479999</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="49">
+      <c r="E23" s="17"/>
+      <c r="F23" s="36">
         <f t="shared" si="0"/>
         <v>201.4138830497759</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="35">
         <f t="shared" si="1"/>
         <v>774.80131072977588</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="37">
         <f t="shared" si="2"/>
         <v>80.141357888928013</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="35">
         <f t="shared" si="3"/>
         <v>854.94266861870392</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="33">
+      <c r="A24" s="27">
         <v>50</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="15">
         <v>580.32604560000004</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>1.6534766734399999</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="25">
         <v>0.22295801891519998</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="49">
+      <c r="E24" s="17"/>
+      <c r="F24" s="36">
         <f t="shared" si="0"/>
         <v>200.71411219812285</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="35">
         <f t="shared" si="1"/>
         <v>781.04015779812289</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="37">
         <f t="shared" si="2"/>
         <v>79.862923327152004</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="35">
         <f t="shared" si="3"/>
         <v>860.90308112527487</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="33">
+      <c r="A25" s="27">
         <v>50.9</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="15">
         <v>587.32702986000004</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="17">
         <v>1.6476576537600001</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="25">
         <v>0.22638970767359998</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="49">
+      <c r="E25" s="17"/>
+      <c r="F25" s="36">
         <f t="shared" si="0"/>
         <v>200.00774640071208</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="35">
         <f t="shared" si="1"/>
         <v>787.33477626071215</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="37">
         <f t="shared" si="2"/>
         <v>79.581864676608006</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="35">
         <f t="shared" si="3"/>
         <v>866.91664093732015</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
+      <c r="A26" s="27">
         <v>51.8</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="15">
         <v>594.39038045999996</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="17">
         <v>1.6417804244800001</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="25">
         <v>0.22988470907359998</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="49">
+      <c r="E26" s="17"/>
+      <c r="F26" s="36">
         <f t="shared" si="0"/>
         <v>199.2943145899894</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="35">
         <f t="shared" si="1"/>
         <v>793.68469504998939</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="37">
         <f t="shared" si="2"/>
         <v>79.297994502384014</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="35">
         <f t="shared" si="3"/>
         <v>872.98268955237336</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="33">
+      <c r="A27" s="27">
         <v>52.7</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="15">
         <v>601.51754778000009</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="17">
         <v>1.6358430452799999</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="25">
         <v>0.23344498283839998</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="49">
+      <c r="E27" s="17"/>
+      <c r="F27" s="36">
         <f t="shared" si="0"/>
         <v>198.57358123217773</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="35">
         <f t="shared" si="1"/>
         <v>800.09112901217782</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="37">
         <f t="shared" si="2"/>
         <v>79.011219087024003</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="35">
         <f t="shared" si="3"/>
         <v>879.10234809920178</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="33">
+      <c r="A28" s="27">
         <v>53.6</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="15">
         <v>608.70708144000002</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <v>1.6298455161600001</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="25">
         <v>0.23707262451360001</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="49">
+      <c r="E28" s="17"/>
+      <c r="F28" s="36">
         <f t="shared" si="0"/>
         <v>197.84554632727719</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="35">
         <f t="shared" si="1"/>
         <v>806.55262776727727</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="37">
         <f t="shared" si="2"/>
         <v>78.721538430528014</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="35">
         <f t="shared" si="3"/>
         <v>885.27416619780524</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="33">
+      <c r="A29" s="27">
         <v>54.5</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="15">
         <v>615.96188219999999</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="17">
         <v>1.6237820161600001</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="25">
         <v>0.2407698072576</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="49">
+      <c r="E29" s="17"/>
+      <c r="F29" s="36">
         <f t="shared" si="0"/>
         <v>197.10950327395648</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="35">
         <f t="shared" si="1"/>
         <v>813.07138547395652</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="37">
         <f t="shared" si="2"/>
         <v>78.428671380528002</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="35">
         <f t="shared" si="3"/>
         <v>891.50005685448457</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="33">
+      <c r="A30" s="27">
         <v>55.4</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="15">
         <v>623.28049967999993</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>1.6176544856000001</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="25">
         <v>0.24453885945439999</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="49">
+      <c r="E30" s="17"/>
+      <c r="F30" s="36">
         <f t="shared" si="0"/>
         <v>196.36568760599275</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="35">
         <f t="shared" si="1"/>
         <v>819.64618728599271</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="37">
         <f t="shared" si="2"/>
         <v>78.132711654480005</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="35">
         <f t="shared" si="3"/>
         <v>897.77889894047269</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="33">
+      <c r="A31" s="27">
         <v>56.3</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="15">
         <v>630.66438426000002</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="17">
         <v>1.6114590438399998</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="25">
         <v>0.24838222590720002</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="49">
+      <c r="E31" s="17"/>
+      <c r="F31" s="36">
         <f t="shared" si="0"/>
         <v>195.61362825583177</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="35">
         <f t="shared" si="1"/>
         <v>826.27801251583173</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="37">
         <f t="shared" si="2"/>
         <v>77.833471817472002</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="35">
         <f t="shared" si="3"/>
         <v>904.11148433330368</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+      <c r="A32" s="27">
         <v>57.2</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="15">
         <v>638.11353594000002</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>1.60519375056</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="25">
         <v>0.25230250664479997</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="49">
+      <c r="E32" s="17"/>
+      <c r="F32" s="36">
         <f t="shared" si="0"/>
         <v>194.85308968969659</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="35">
         <f t="shared" si="1"/>
         <v>832.96662562969664</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="37">
         <f t="shared" si="2"/>
         <v>77.530858152048012</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="35">
         <f t="shared" si="3"/>
         <v>910.49748378174468</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="27">
         <v>58.1</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="15">
         <v>645.62795472000005</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="17">
         <v>1.5988547251199998</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="25">
         <v>0.25630243751839998</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="49">
+      <c r="E33" s="17"/>
+      <c r="F33" s="36">
         <f t="shared" si="0"/>
         <v>194.08360084003297</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="35">
         <f t="shared" si="1"/>
         <v>839.71155556003305</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="37">
         <f t="shared" si="2"/>
         <v>77.224683223295997</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="35">
         <f t="shared" si="3"/>
         <v>916.93623878332903</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="33">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="27">
         <v>59</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="15">
         <v>653.21054135999998</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>1.5924400272000001</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="25">
         <v>0.26038490960479999</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="49">
-        <f t="shared" ref="F34:F79" si="4">C34*$K$3*$K$2</f>
+      <c r="E34" s="17"/>
+      <c r="F34" s="36">
+        <f t="shared" ref="F34:F79" si="4">C34*$L$3*$L$2</f>
         <v>193.30492617306399</v>
       </c>
-      <c r="G34" s="45">
-        <f t="shared" ref="G34:G79" si="5">B34+(C34*$K$3*$K$2)</f>
+      <c r="G34" s="35">
+        <f t="shared" ref="G34:G79" si="5">B34+(C34*$L$3*$L$2)</f>
         <v>846.515467533064</v>
       </c>
-      <c r="H34" s="50">
-        <f t="shared" ref="H34:H79" si="6">C34*$K$3*$K$1</f>
+      <c r="H34" s="37">
+        <f t="shared" ref="H34:H79" si="6">C34*$L$3*$L$1</f>
         <v>76.914853313760005</v>
       </c>
-      <c r="I34" s="45">
+      <c r="I34" s="35">
         <f t="shared" ref="I34:I79" si="7">G34+H34</f>
         <v>923.43032084682397</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
         <v>59.9</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="15">
         <v>660.85839510000005</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="17">
         <v>1.58594577616</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="25">
         <v>0.26455302741599995</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="49">
+      <c r="E35" s="17"/>
+      <c r="F35" s="36">
         <f t="shared" si="4"/>
         <v>192.51659462123538</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="35">
         <f t="shared" si="5"/>
         <v>853.37498972123547</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="37">
         <f t="shared" si="6"/>
         <v>76.601180988528014</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="35">
         <f t="shared" si="7"/>
         <v>929.97617070976344</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="33">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="27">
         <v>60.8</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="15">
         <v>668.57586708000008</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="17">
         <v>1.5793700316800001</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="25">
         <v>0.2688100700928</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="49">
+      <c r="E36" s="17"/>
+      <c r="F36" s="36">
         <f t="shared" si="4"/>
         <v>191.71837065077017</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="35">
         <f t="shared" si="5"/>
         <v>860.29423773077019</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36" s="37">
         <f t="shared" si="6"/>
         <v>76.283572530144014</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="35">
         <f t="shared" si="7"/>
         <v>936.57781026091425</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="33">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
         <v>61.7</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="15">
         <v>676.36005653999996</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="17">
         <v>1.5727089131200001</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="25">
         <v>0.27315953021120004</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="49">
+      <c r="E37" s="17"/>
+      <c r="F37" s="36">
         <f t="shared" si="4"/>
         <v>190.9097831941142</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="35">
         <f t="shared" si="5"/>
         <v>867.26983973411416</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="37">
         <f t="shared" si="6"/>
         <v>75.96184050369601</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="35">
         <f t="shared" si="7"/>
         <v>943.23168023781022</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="33">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
         <v>62.6</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="15">
         <v>684.21241385999997</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="17">
         <v>1.56595853984</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="25">
         <v>0.27760515258880003</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="49">
+      <c r="E38" s="17"/>
+      <c r="F38" s="36">
         <f t="shared" si="4"/>
         <v>190.0903611837133</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="35">
         <f t="shared" si="5"/>
         <v>874.30277504371327</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38" s="37">
         <f t="shared" si="6"/>
         <v>75.63579747427201</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="35">
         <f t="shared" si="7"/>
         <v>949.93857251798522</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
         <v>63.5</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="15">
         <v>692.13438942000005</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="17">
         <v>1.5591150311999999</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="25">
         <v>0.28215091488159999</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="49">
+      <c r="E39" s="17"/>
+      <c r="F39" s="36">
         <f t="shared" si="4"/>
         <v>189.25963355201344</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="35">
         <f t="shared" si="5"/>
         <v>881.39402297201354</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="37">
         <f t="shared" si="6"/>
         <v>75.305256006960008</v>
       </c>
-      <c r="I39" s="45">
+      <c r="I39" s="35">
         <f t="shared" si="7"/>
         <v>956.69927897897355</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
         <v>64.400000000000006</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="15">
         <v>700.12743360000002</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="17">
         <v>1.5521764468799999</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="25">
         <v>0.28680106639039998</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="49">
+      <c r="E40" s="17"/>
+      <c r="F40" s="36">
         <f t="shared" si="4"/>
         <v>188.41736476523749</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="35">
         <f t="shared" si="5"/>
         <v>888.54479836523751</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="37">
         <f t="shared" si="6"/>
         <v>74.970122384304005</v>
       </c>
-      <c r="I40" s="45">
+      <c r="I40" s="35">
         <f t="shared" si="7"/>
         <v>963.51492074954149</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="33">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
         <v>65.3</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="15">
         <v>708.18864564</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="17">
         <v>1.5451350256</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="25">
         <v>0.29156020567359997</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="49">
+      <c r="E41" s="17"/>
+      <c r="F41" s="36">
         <f t="shared" si="4"/>
         <v>187.56261268827728</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="35">
         <f t="shared" si="5"/>
         <v>895.75125832827734</v>
       </c>
-      <c r="H41" s="50">
+      <c r="H41" s="37">
         <f t="shared" si="6"/>
         <v>74.630021736480018</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="35">
         <f t="shared" si="7"/>
         <v>970.38128006475733</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="33">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="27">
         <v>66.2</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="15">
         <v>716.32237667999993</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="17">
         <v>1.5379868867199999</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="25">
         <v>0.29643326114399998</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="49">
+      <c r="E42" s="17"/>
+      <c r="F42" s="36">
         <f t="shared" si="4"/>
         <v>186.69490625357855</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="35">
         <f t="shared" si="5"/>
         <v>903.01728293357849</v>
       </c>
-      <c r="H42" s="50">
+      <c r="H42" s="37">
         <f t="shared" si="6"/>
         <v>74.284766628575994</v>
       </c>
-      <c r="I42" s="45">
+      <c r="I42" s="35">
         <f t="shared" si="7"/>
         <v>977.30204956215448</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="33">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="27">
         <v>67.099999999999994</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="15">
         <v>724.52862672000003</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="17">
         <v>1.5307281495999998</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="25">
         <v>0.301425510472</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="49">
+      <c r="E43" s="17"/>
+      <c r="F43" s="36">
         <f t="shared" si="4"/>
         <v>185.81377439358727</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="35">
         <f t="shared" si="5"/>
         <v>910.34240111358736</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H43" s="37">
         <f t="shared" si="6"/>
         <v>73.934169625679999</v>
       </c>
-      <c r="I43" s="45">
+      <c r="I43" s="35">
         <f t="shared" si="7"/>
         <v>984.2765707392673</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="33">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="27">
         <v>68</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="15">
         <v>732.80594538000003</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="17">
         <v>1.5233529932800001</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="25">
         <v>0.30654265819839999</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="49">
+      <c r="E44" s="17"/>
+      <c r="F44" s="36">
         <f t="shared" si="4"/>
         <v>184.91851050697227</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="35">
         <f t="shared" si="5"/>
         <v>917.72445588697224</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44" s="37">
         <f t="shared" si="6"/>
         <v>73.577949575424014</v>
       </c>
-      <c r="I44" s="45">
+      <c r="I44" s="35">
         <f t="shared" si="7"/>
         <v>991.30240546239622</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="33">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="27">
         <v>68.900000000000006</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="15">
         <v>741.15723342000001</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="17">
         <v>1.51585365648</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="25">
         <v>0.31179093275039999</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="49">
+      <c r="E45" s="17"/>
+      <c r="F45" s="36">
         <f t="shared" si="4"/>
         <v>184.00817245862527</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="35">
         <f t="shared" si="5"/>
         <v>925.16540587862528</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H45" s="37">
         <f t="shared" si="6"/>
         <v>73.215731607984011</v>
       </c>
-      <c r="I45" s="45">
+      <c r="I45" s="35">
         <f t="shared" si="7"/>
         <v>998.3811374866093</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="27">
         <v>69.8</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="15">
         <v>749.58104045999994</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="17">
         <v>1.5082262585599999</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="25">
         <v>0.31717698942559996</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="49">
+      <c r="E46" s="17"/>
+      <c r="F46" s="36">
         <f t="shared" si="4"/>
         <v>183.08228918099206</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="35">
         <f t="shared" si="5"/>
         <v>932.66332964099206</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46" s="37">
         <f t="shared" si="6"/>
         <v>72.847328288447997</v>
       </c>
-      <c r="I46" s="45">
+      <c r="I46" s="35">
         <f t="shared" si="7"/>
         <v>1005.5106579294401</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="33">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="27">
         <v>70</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="15">
         <f>B46+(((B48-B46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>751.46975752666663</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="17">
         <f>C46+(((C48-C46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>1.5065010984888887</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="17">
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="54">
-        <f t="shared" ref="E47:I47" si="8">F46+(((F48-F46)/($A$48-$A$46))*($A$47-$A$46))</f>
+      <c r="E47" s="17"/>
+      <c r="F47" s="41">
+        <f t="shared" ref="F47:I47" si="8">F46+(((F48-F46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>182.87287348276371</v>
       </c>
-      <c r="G47" s="57">
+      <c r="G47" s="44">
         <f t="shared" si="8"/>
         <v>934.34263100943042</v>
       </c>
-      <c r="H47" s="54">
+      <c r="H47" s="41">
         <f t="shared" si="8"/>
         <v>72.764003057013326</v>
       </c>
-      <c r="I47" s="57">
+      <c r="I47" s="44">
         <f t="shared" si="8"/>
         <v>1007.1066340664437</v>
       </c>
-      <c r="J47" s="55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="33">
+      <c r="J47" s="44"/>
+      <c r="K47" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="27">
         <v>70.7</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="15">
         <v>758.08026725999991</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="17">
         <v>1.5004630382399999</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="25">
         <v>0.32270816263359997</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="49">
+      <c r="E48" s="17"/>
+      <c r="F48" s="36">
         <f t="shared" si="4"/>
         <v>182.13991853896454</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="35">
         <f t="shared" si="5"/>
         <v>940.22018579896439</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="37">
         <f t="shared" si="6"/>
         <v>72.472364746992</v>
       </c>
-      <c r="I48" s="45">
+      <c r="I48" s="35">
         <f t="shared" si="7"/>
         <v>1012.6925505459564</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="33">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="27">
         <v>71.599999999999994</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="15">
         <v>766.65491381999993</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="17">
         <v>1.4925542939199998</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="25">
         <v>0.32839236888000001</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="49">
+      <c r="E49" s="17"/>
+      <c r="F49" s="36">
         <f t="shared" si="4"/>
         <v>181.17988286365727</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="35">
         <f t="shared" si="5"/>
         <v>947.83479668365726</v>
       </c>
-      <c r="H49" s="50">
+      <c r="H49" s="37">
         <f t="shared" si="6"/>
         <v>72.090372396335994</v>
       </c>
-      <c r="I49" s="45">
+      <c r="I49" s="35">
         <f t="shared" si="7"/>
         <v>1019.9251690799932</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="33">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="27">
         <v>72.5</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="15">
         <v>775.30498014</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="17">
         <v>1.48449226432</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="25">
         <v>0.33423830079839995</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="49">
+      <c r="E50" s="17"/>
+      <c r="F50" s="36">
         <f t="shared" si="4"/>
         <v>180.20124001996211</v>
       </c>
-      <c r="G50" s="45">
+      <c r="G50" s="35">
         <f t="shared" si="5"/>
         <v>955.50622015996214</v>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="37">
         <f t="shared" si="6"/>
         <v>71.700976366656008</v>
       </c>
-      <c r="I50" s="45">
+      <c r="I50" s="35">
         <f t="shared" si="7"/>
         <v>1027.2071965266182</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="33">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="27">
         <v>73.400000000000006</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="15">
         <v>784.03191660000005</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="17">
         <v>1.4762691881599999</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="25">
         <v>0.34025552416639998</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="49">
+      <c r="E51" s="17"/>
+      <c r="F51" s="36">
         <f t="shared" si="4"/>
         <v>179.2030478727707</v>
       </c>
-      <c r="G51" s="45">
+      <c r="G51" s="35">
         <f t="shared" si="5"/>
         <v>963.2349644727708</v>
       </c>
-      <c r="H51" s="50">
+      <c r="H51" s="37">
         <f t="shared" si="6"/>
         <v>71.303801788127998</v>
       </c>
-      <c r="I51" s="45">
+      <c r="I51" s="35">
         <f t="shared" si="7"/>
         <v>1034.5387662608987</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="33">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="27">
         <v>74.3</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="15">
         <v>792.83572320000007</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="17">
         <v>1.4678734235199999</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="25">
         <v>0.34645449730880001</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="49">
+      <c r="E52" s="17"/>
+      <c r="F52" s="36">
         <f t="shared" si="4"/>
         <v>178.18389321942075</v>
       </c>
-      <c r="G52" s="45">
+      <c r="G52" s="35">
         <f t="shared" si="5"/>
         <v>971.0196164194208</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="36">
         <f t="shared" si="6"/>
         <v>70.898286356016001</v>
       </c>
-      <c r="I52" s="45">
+      <c r="I52" s="35">
         <f t="shared" si="7"/>
         <v>1041.9179027754367</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="33">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="27">
         <v>75</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="15">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="17">
         <f t="shared" ref="C53:D53" si="9">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="25">
         <f t="shared" si="9"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="54">
+      <c r="E53" s="25"/>
+      <c r="F53" s="41">
         <f>F52+(((F54-F52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>177.3738140488434</v>
       </c>
-      <c r="G53" s="58">
+      <c r="G53" s="45">
         <f t="shared" ref="G53" si="10">G52+(((G54-G52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>977.11898641550999</v>
       </c>
-      <c r="H53" s="54">
+      <c r="H53" s="41">
         <f t="shared" ref="H53" si="11">H52+(((H54-H52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>70.57596078568001</v>
       </c>
-      <c r="I53" s="58">
+      <c r="I53" s="45">
         <f t="shared" ref="I53" si="12">I52+(((I54-I52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1047.69494720119</v>
       </c>
-      <c r="J53" s="56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="33">
+      <c r="J53" s="64"/>
+      <c r="K53" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="27">
         <v>75.2</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="15">
         <v>801.71930069999996</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="17">
         <v>1.45929332848</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="25">
         <v>0.35284684274239997</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="49">
+      <c r="E54" s="17"/>
+      <c r="F54" s="36">
         <f t="shared" si="4"/>
         <v>177.14236285724985</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="35">
         <f t="shared" si="5"/>
         <v>978.86166355724981</v>
       </c>
-      <c r="H54" s="50">
+      <c r="H54" s="37">
         <f t="shared" si="6"/>
         <v>70.483867765584009</v>
       </c>
-      <c r="I54" s="45">
+      <c r="I54" s="35">
         <f t="shared" si="7"/>
         <v>1049.3455313228337</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="33">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="27">
         <v>76.099999999999994</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="15">
         <v>810.68264910000005</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="17">
         <v>1.4505153208000001</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="25">
         <v>0.35944542478879998</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="49">
+      <c r="E55" s="17"/>
+      <c r="F55" s="36">
         <f t="shared" si="4"/>
         <v>176.07680804981857</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="35">
         <f t="shared" si="5"/>
         <v>986.75945714981867</v>
       </c>
-      <c r="H55" s="50">
+      <c r="H55" s="37">
         <f t="shared" si="6"/>
         <v>70.059889994640017</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="35">
         <f t="shared" si="7"/>
         <v>1056.8193471444588</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="33">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="27">
         <v>77</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="15">
         <v>819.72576839999999</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="17">
         <v>1.4415277585599999</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="25">
         <v>0.36626458241279997</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="49">
+      <c r="E56" s="17"/>
+      <c r="F56" s="36">
         <f t="shared" si="4"/>
         <v>174.98581559446447</v>
       </c>
-      <c r="G56" s="45">
+      <c r="G56" s="35">
         <f t="shared" si="5"/>
         <v>994.71158399446449</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H56" s="37">
         <f t="shared" si="6"/>
         <v>69.625790738448003</v>
       </c>
-      <c r="I56" s="45">
+      <c r="I56" s="35">
         <f t="shared" si="7"/>
         <v>1064.3373747329124</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="33">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="27">
         <v>77.900000000000006</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="15">
         <v>828.85010898000007</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="17">
         <v>1.4323131788799999</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="25">
         <v>0.37332036206079999</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="49">
+      <c r="E57" s="17"/>
+      <c r="F57" s="36">
         <f t="shared" si="4"/>
         <v>173.86726568719408</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="35">
         <f t="shared" si="5"/>
         <v>1002.7173746671941</v>
       </c>
-      <c r="H57" s="50">
+      <c r="H57" s="37">
         <f t="shared" si="6"/>
         <v>69.180726539904001</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I57" s="35">
         <f t="shared" si="7"/>
         <v>1071.8981012070981</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="33">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="27">
         <v>78.8</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="15">
         <v>838.05712122</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="17">
         <v>1.4228541188799999</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="25">
         <v>0.38063080870880001</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="49">
+      <c r="E58" s="17"/>
+      <c r="F58" s="36">
         <f t="shared" si="4"/>
         <v>172.71903852401377</v>
       </c>
-      <c r="G58" s="45">
+      <c r="G58" s="35">
         <f t="shared" si="5"/>
         <v>1010.7761597440137</v>
       </c>
-      <c r="H58" s="50">
+      <c r="H58" s="37">
         <f t="shared" si="6"/>
         <v>68.723853941903997</v>
       </c>
-      <c r="I58" s="45">
+      <c r="I58" s="35">
         <f t="shared" si="7"/>
         <v>1079.5000136859178</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="33">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="27">
         <v>79.7</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="15">
         <v>847.34825549999994</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="17">
         <v>1.41312923504</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="25">
         <v>0.38821637332959996</v>
       </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="49">
+      <c r="E59" s="17"/>
+      <c r="F59" s="36">
         <f t="shared" si="4"/>
         <v>171.53854323337595</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="35">
         <f t="shared" si="5"/>
         <v>1018.8867987333758</v>
       </c>
-      <c r="H59" s="50">
+      <c r="H59" s="37">
         <f t="shared" si="6"/>
         <v>68.254142052432002</v>
       </c>
-      <c r="I59" s="45">
+      <c r="I59" s="35">
         <f t="shared" si="7"/>
         <v>1087.1409407858077</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="33">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="27">
         <v>80.599999999999994</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="15">
         <v>856.72351182</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="17">
         <v>1.4031171838399998</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="25">
         <v>0.3961002815536</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="49">
+      <c r="E60" s="17"/>
+      <c r="F60" s="36">
         <f t="shared" si="4"/>
         <v>170.32318894373279</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="35">
         <f t="shared" si="5"/>
         <v>1027.0467007637328</v>
       </c>
-      <c r="H60" s="50">
+      <c r="H60" s="37">
         <f t="shared" si="6"/>
         <v>67.770559979471997</v>
       </c>
-      <c r="I60" s="45">
+      <c r="I60" s="35">
         <f t="shared" si="7"/>
         <v>1094.8172607432048</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="33">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="27">
         <v>81.5</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="15">
         <v>866.18579093999995</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="17">
         <v>1.3927888604799998</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="25">
         <v>0.40430919337760002</v>
       </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="49">
+      <c r="E61" s="17"/>
+      <c r="F61" s="36">
         <f t="shared" si="4"/>
         <v>169.06944264842846</v>
       </c>
-      <c r="G61" s="45">
+      <c r="G61" s="35">
         <f t="shared" si="5"/>
         <v>1035.2552335884284</v>
       </c>
-      <c r="H61" s="50">
+      <c r="H61" s="37">
         <f t="shared" si="6"/>
         <v>67.271701961183993</v>
       </c>
-      <c r="I61" s="45">
+      <c r="I61" s="35">
         <f t="shared" si="7"/>
         <v>1102.5269355496123</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="33">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="27">
         <v>82.4</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="15">
         <v>875.73364248000007</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="17">
         <v>1.3821171004799999</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="25">
         <v>0.41287390167999999</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="49">
+      <c r="E62" s="17"/>
+      <c r="F62" s="36">
         <f t="shared" si="4"/>
         <v>167.77400687458405</v>
       </c>
-      <c r="G62" s="45">
+      <c r="G62" s="35">
         <f t="shared" si="5"/>
         <v>1043.5076493545841</v>
       </c>
-      <c r="H62" s="50">
+      <c r="H62" s="37">
         <f t="shared" si="6"/>
         <v>66.756255953183995</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I62" s="35">
         <f t="shared" si="7"/>
         <v>1110.2639053077683</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="33">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="27">
         <v>83.3</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="15">
         <v>885.37141757999996</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="17">
         <v>1.37106309744</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="25">
         <v>0.42183024417120002</v>
       </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="49">
+      <c r="E63" s="17"/>
+      <c r="F63" s="36">
         <f t="shared" si="4"/>
         <v>166.43217094665832</v>
       </c>
-      <c r="G63" s="45">
+      <c r="G63" s="35">
         <f t="shared" si="5"/>
         <v>1051.8035885266584</v>
       </c>
-      <c r="H63" s="50">
+      <c r="H63" s="37">
         <f t="shared" si="6"/>
         <v>66.222347606352002</v>
       </c>
-      <c r="I63" s="45">
+      <c r="I63" s="35">
         <f t="shared" si="7"/>
         <v>1118.0259361330104</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="33">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="27">
         <v>84.2</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="15">
         <v>895.10056662</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="17">
         <v>1.35958416432</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="25">
         <v>0.43122034519840002</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="49">
+      <c r="E64" s="17"/>
+      <c r="F64" s="36">
         <f t="shared" si="4"/>
         <v>165.03875312155583</v>
       </c>
-      <c r="G64" s="45">
+      <c r="G64" s="35">
         <f t="shared" si="5"/>
         <v>1060.1393197415559</v>
       </c>
-      <c r="H64" s="50">
+      <c r="H64" s="37">
         <f t="shared" si="6"/>
         <v>65.667915136656006</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I64" s="35">
         <f t="shared" si="7"/>
         <v>1125.8072348782121</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="33">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="27">
         <v>85.1</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="15">
         <v>904.91963922000002</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="17">
         <v>1.3476317931200001</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="25">
         <v>0.44109424561439997</v>
       </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="49">
+      <c r="E65" s="17"/>
+      <c r="F65" s="36">
         <f t="shared" si="4"/>
         <v>163.58786505485011</v>
       </c>
-      <c r="G65" s="45">
+      <c r="G65" s="35">
         <f t="shared" si="5"/>
         <v>1068.5075042748501</v>
       </c>
-      <c r="H65" s="50">
+      <c r="H65" s="37">
         <f t="shared" si="6"/>
         <v>65.090615607696009</v>
       </c>
-      <c r="I65" s="45">
+      <c r="I65" s="35">
         <f t="shared" si="7"/>
         <v>1133.5981198825461</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="33">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="27">
         <v>86</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B66" s="15">
         <v>914.83443690000001</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="17">
         <v>1.33514583392</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D66" s="25">
         <v>0.45151211474239994</v>
       </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="49">
+      <c r="E66" s="17"/>
+      <c r="F66" s="36">
         <f t="shared" si="4"/>
         <v>162.07220519945213</v>
       </c>
-      <c r="G66" s="45">
+      <c r="G66" s="35">
         <f t="shared" si="5"/>
         <v>1076.9066420994523</v>
       </c>
-      <c r="H66" s="50">
+      <c r="H66" s="37">
         <f t="shared" si="6"/>
         <v>64.487543778336004</v>
       </c>
-      <c r="I66" s="45">
+      <c r="I66" s="35">
         <f t="shared" si="7"/>
         <v>1141.3941858777882</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="33">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="27">
         <v>86.9</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="15">
         <v>924.84350928000003</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="17">
         <v>1.3220506142399999</v>
       </c>
-      <c r="D67" s="31">
+      <c r="D67" s="25">
         <v>0.4625472966784</v>
       </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="49">
+      <c r="E67" s="17"/>
+      <c r="F67" s="36">
         <f t="shared" si="4"/>
         <v>160.48258773805651</v>
       </c>
-      <c r="G67" s="45">
+      <c r="G67" s="35">
         <f t="shared" si="5"/>
         <v>1085.3260970180565</v>
       </c>
-      <c r="H67" s="50">
+      <c r="H67" s="37">
         <f t="shared" si="6"/>
         <v>63.855044667792001</v>
       </c>
-      <c r="I67" s="45">
+      <c r="I67" s="35">
         <f t="shared" si="7"/>
         <v>1149.1811416858486</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="33">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="27">
         <v>87.8</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="15">
         <v>934.95120750000012</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="17">
         <v>1.30825687936</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="25">
         <v>0.47429065660800002</v>
       </c>
-      <c r="E68" s="21"/>
-      <c r="F68" s="49">
+      <c r="E68" s="17"/>
+      <c r="F68" s="36">
         <f t="shared" si="4"/>
         <v>158.80817811691833</v>
       </c>
-      <c r="G68" s="45">
+      <c r="G68" s="35">
         <f t="shared" si="5"/>
         <v>1093.7593856169185</v>
       </c>
-      <c r="H68" s="50">
+      <c r="H68" s="37">
         <f t="shared" si="6"/>
         <v>63.18880727308801</v>
       </c>
-      <c r="I68" s="45">
+      <c r="I68" s="35">
         <f t="shared" si="7"/>
         <v>1156.9481928900066</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="33">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="27">
         <v>88.7</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="15">
         <v>945.16043231999993</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="17">
         <v>1.29364626976</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D69" s="25">
         <v>0.48685690624959999</v>
       </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="49">
+      <c r="E69" s="17"/>
+      <c r="F69" s="36">
         <f t="shared" si="4"/>
         <v>157.0346087756368</v>
       </c>
-      <c r="G69" s="45">
+      <c r="G69" s="35">
         <f t="shared" si="5"/>
         <v>1102.1950410956367</v>
       </c>
-      <c r="H69" s="50">
+      <c r="H69" s="37">
         <f t="shared" si="6"/>
         <v>62.483114829408009</v>
       </c>
-      <c r="I69" s="45">
+      <c r="I69" s="35">
         <f t="shared" si="7"/>
         <v>1164.6781559250448</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="33">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="27">
         <v>89.6</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="15">
         <v>955.47118374000013</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="17">
         <v>1.2780693808000001</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="25">
         <v>0.50039415022879996</v>
       </c>
-      <c r="E70" s="21"/>
-      <c r="F70" s="49">
+      <c r="E70" s="17"/>
+      <c r="F70" s="36">
         <f t="shared" si="4"/>
         <v>155.14374361337809</v>
       </c>
-      <c r="G70" s="45">
+      <c r="G70" s="35">
         <f t="shared" si="5"/>
         <v>1110.6149273533783</v>
       </c>
-      <c r="H70" s="50">
+      <c r="H70" s="37">
         <f t="shared" si="6"/>
         <v>61.730751092640013</v>
       </c>
-      <c r="I70" s="45">
+      <c r="I70" s="35">
         <f t="shared" si="7"/>
         <v>1172.3456784460184</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="33">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="27">
         <v>90.5</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="15">
         <v>965.88781289999997</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="17">
         <v>1.2613302401599999</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="25">
         <v>0.51509886534880001</v>
       </c>
-      <c r="E71" s="21"/>
-      <c r="F71" s="49">
+      <c r="E71" s="17"/>
+      <c r="F71" s="36">
         <f t="shared" si="4"/>
         <v>153.11179371865882</v>
       </c>
-      <c r="G71" s="45">
+      <c r="G71" s="35">
         <f t="shared" si="5"/>
         <v>1118.9996066186588</v>
       </c>
-      <c r="H71" s="50">
+      <c r="H71" s="37">
         <f t="shared" si="6"/>
         <v>60.922250599728002</v>
       </c>
-      <c r="I71" s="45">
+      <c r="I71" s="35">
         <f t="shared" si="7"/>
         <v>1179.9218572183868</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="33">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="27">
         <v>91.4</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="15">
         <v>976.41612132</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="17">
         <v>1.24315138208</v>
       </c>
-      <c r="D72" s="31">
+      <c r="D72" s="25">
         <v>0.53124065907359996</v>
       </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="49">
+      <c r="E72" s="17"/>
+      <c r="F72" s="36">
         <f t="shared" si="4"/>
         <v>150.90507776135911</v>
       </c>
-      <c r="G72" s="45">
+      <c r="G72" s="35">
         <f t="shared" si="5"/>
         <v>1127.3211990813591</v>
       </c>
-      <c r="H72" s="50">
+      <c r="H72" s="37">
         <f t="shared" si="6"/>
         <v>60.044211754464001</v>
       </c>
-      <c r="I72" s="45">
+      <c r="I72" s="35">
         <f t="shared" si="7"/>
         <v>1187.365410835823</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="33">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="27">
         <v>92.3</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B73" s="15">
         <v>987.05610900000011</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="17">
         <v>1.2231428022399999</v>
       </c>
-      <c r="D73" s="31">
+      <c r="D73" s="25">
         <v>0.54920555806720006</v>
       </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="49">
+      <c r="E73" s="17"/>
+      <c r="F73" s="36">
         <f t="shared" si="4"/>
         <v>148.47625345228937</v>
       </c>
-      <c r="G73" s="45">
+      <c r="G73" s="35">
         <f t="shared" si="5"/>
         <v>1135.5323624522894</v>
       </c>
-      <c r="H73" s="50">
+      <c r="H73" s="37">
         <f t="shared" si="6"/>
         <v>59.077797348192007</v>
       </c>
-      <c r="I73" s="45">
+      <c r="I73" s="35">
         <f t="shared" si="7"/>
         <v>1194.6101598004814</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="33">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="27">
         <v>93.2</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="15">
         <v>997.81792859999996</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="17">
         <v>1.20071076272</v>
       </c>
-      <c r="D74" s="31">
+      <c r="D74" s="25">
         <v>0.56957841358399997</v>
       </c>
-      <c r="E74" s="21"/>
-      <c r="F74" s="49">
+      <c r="E74" s="17"/>
+      <c r="F74" s="36">
         <f t="shared" si="4"/>
         <v>145.7532474556684</v>
       </c>
-      <c r="G74" s="45">
+      <c r="G74" s="35">
         <f t="shared" si="5"/>
         <v>1143.5711760556683</v>
       </c>
-      <c r="H74" s="50">
+      <c r="H74" s="37">
         <f t="shared" si="6"/>
         <v>57.994329839376007</v>
       </c>
-      <c r="I74" s="45">
+      <c r="I74" s="35">
         <f t="shared" si="7"/>
         <v>1201.5655058950442</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="33">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="27">
         <v>94.1</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="15">
         <v>1008.70448088</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="17">
         <v>1.1748812228800001</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="25">
         <v>0.59331624965759999</v>
       </c>
-      <c r="E75" s="21"/>
-      <c r="F75" s="49">
+      <c r="E75" s="17"/>
+      <c r="F75" s="36">
         <f t="shared" si="4"/>
         <v>142.61782181541079</v>
       </c>
-      <c r="G75" s="45">
+      <c r="G75" s="35">
         <f t="shared" si="5"/>
         <v>1151.3223026954108</v>
       </c>
-      <c r="H75" s="50">
+      <c r="H75" s="37">
         <f t="shared" si="6"/>
         <v>56.746763065104005</v>
       </c>
-      <c r="I75" s="45">
+      <c r="I75" s="35">
         <f t="shared" si="7"/>
         <v>1208.0690657605148</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="33">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="27">
         <v>95</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="15">
         <v>1019.7259185</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="17">
         <v>1.143867148</v>
       </c>
-      <c r="D76" s="31">
+      <c r="D76" s="25">
         <v>0.6221741633408</v>
       </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="49">
+      <c r="E76" s="17"/>
+      <c r="F76" s="36">
         <f t="shared" si="4"/>
         <v>138.85304992284185</v>
       </c>
-      <c r="G76" s="45">
+      <c r="G76" s="35">
         <f t="shared" si="5"/>
         <v>1158.5789684228419</v>
       </c>
-      <c r="H76" s="50">
+      <c r="H76" s="37">
         <f t="shared" si="6"/>
         <v>55.248783248400002</v>
       </c>
-      <c r="I76" s="45">
+      <c r="I76" s="35">
         <f t="shared" si="7"/>
         <v>1213.8277516712419</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="33">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="27">
         <v>95.9</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="15">
         <v>1030.8938445000001</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="17">
         <v>1.1037122256</v>
       </c>
-      <c r="D77" s="31">
+      <c r="D77" s="25">
         <v>0.66003374539039994</v>
       </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="49">
+      <c r="E77" s="17"/>
+      <c r="F77" s="36">
         <f t="shared" si="4"/>
         <v>133.97867840653092</v>
       </c>
-      <c r="G77" s="45">
+      <c r="G77" s="35">
         <f t="shared" si="5"/>
         <v>1164.872522906531</v>
       </c>
-      <c r="H77" s="50">
+      <c r="H77" s="37">
         <f t="shared" si="6"/>
         <v>53.309300496480006</v>
       </c>
-      <c r="I77" s="45">
+      <c r="I77" s="35">
         <f t="shared" si="7"/>
         <v>1218.1818234030111</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="33">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="27">
         <v>96.8</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="15">
         <v>1042.23146496</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="17">
         <v>1.04153273088</v>
       </c>
-      <c r="D78" s="31">
+      <c r="D78" s="25">
         <v>0.7195324357888</v>
       </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="49">
+      <c r="E78" s="17"/>
+      <c r="F78" s="36">
         <f t="shared" si="4"/>
         <v>126.43076298678214</v>
       </c>
-      <c r="G78" s="45">
+      <c r="G78" s="35">
         <f t="shared" si="5"/>
         <v>1168.6622279467822</v>
       </c>
-      <c r="H78" s="50">
+      <c r="H78" s="37">
         <f t="shared" si="6"/>
         <v>50.306030901504002</v>
       </c>
-      <c r="I78" s="45">
+      <c r="I78" s="35">
         <f t="shared" si="7"/>
         <v>1218.9682588482863</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="34">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="28">
         <v>97.47</v>
       </c>
-      <c r="B79" s="20">
+      <c r="B79" s="16">
         <v>1050.8003100000001</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="18">
         <v>0.87704598352000007</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="26">
         <v>0.8770468760672</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="53">
+      <c r="E79" s="18"/>
+      <c r="F79" s="40">
         <f t="shared" si="4"/>
         <v>106.46385810385254</v>
       </c>
-      <c r="G79" s="51">
+      <c r="G79" s="38">
         <f t="shared" si="5"/>
         <v>1157.2641681038526</v>
       </c>
-      <c r="H79" s="52">
+      <c r="H79" s="39">
         <f t="shared" si="6"/>
         <v>42.361321004016006</v>
       </c>
-      <c r="I79" s="51">
+      <c r="I79" s="38">
         <f t="shared" si="7"/>
         <v>1199.6254891078686</v>
       </c>
-      <c r="J79" s="28"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="22"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="27"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+      <c r="A81" s="29"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="35"/>
+      <c r="A82" s="29"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+      <c r="A83" s="29"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+      <c r="A84" s="29"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="35"/>
+      <c r="A85" s="29"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="35"/>
+      <c r="A86" s="29"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="29"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="29"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="35"/>
+      <c r="A89" s="29"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="35"/>
+      <c r="A90" s="29"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="35"/>
+      <c r="A91" s="29"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="35"/>
+      <c r="A92" s="29"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="35"/>
+      <c r="A93" s="29"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="35"/>
+      <c r="A94" s="29"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="35"/>
+      <c r="A95" s="29"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="35"/>
+      <c r="A96" s="29"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="35"/>
+      <c r="A97" s="29"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="35"/>
+      <c r="A98" s="29"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="35"/>
+      <c r="A99" s="29"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="35"/>
+      <c r="A100" s="29"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="35"/>
+      <c r="A101" s="29"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="35"/>
+      <c r="A102" s="29"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="35"/>
+      <c r="A103" s="29"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="35"/>
+      <c r="A104" s="29"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="35"/>
+      <c r="A105" s="29"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="35"/>
+      <c r="A106" s="29"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="35"/>
+      <c r="A107" s="29"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="35"/>
+      <c r="A108" s="29"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="35"/>
+      <c r="A109" s="29"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="35"/>
+      <c r="A110" s="29"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="35"/>
+      <c r="A111" s="29"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="35"/>
+      <c r="A112" s="29"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="35"/>
+      <c r="A113" s="29"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="35"/>
+      <c r="A114" s="29"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="35"/>
+      <c r="A115" s="29"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="35"/>
+      <c r="A116" s="29"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="35"/>
+      <c r="A117" s="29"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="35"/>
+      <c r="A118" s="29"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="35"/>
+      <c r="A119" s="29"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="35"/>
+      <c r="A120" s="29"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="35"/>
+      <c r="A121" s="29"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="35"/>
+      <c r="A122" s="29"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="35"/>
+      <c r="A123" s="29"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="35"/>
+      <c r="A124" s="29"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="35"/>
+      <c r="A125" s="29"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="35"/>
+      <c r="A126" s="29"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="35"/>
+      <c r="A127" s="29"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="35"/>
+      <c r="A128" s="29"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="35"/>
+      <c r="A129" s="29"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="35"/>
+      <c r="A130" s="29"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="35"/>
+      <c r="A131" s="29"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="35"/>
+      <c r="A132" s="29"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="35"/>
+      <c r="A133" s="29"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="35"/>
+      <c r="A134" s="29"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="35"/>
+      <c r="A135" s="29"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="35"/>
+      <c r="A136" s="29"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="35"/>
+      <c r="A137" s="29"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="35"/>
+      <c r="A138" s="29"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="35"/>
+      <c r="A139" s="29"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="35"/>
+      <c r="A140" s="29"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="35"/>
+      <c r="A141" s="29"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="35"/>
+      <c r="A142" s="29"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="35"/>
+      <c r="A143" s="29"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="35"/>
+      <c r="A144" s="29"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="35"/>
+      <c r="A145" s="29"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="35"/>
+      <c r="A146" s="29"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="35"/>
+      <c r="A147" s="29"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="35"/>
+      <c r="A148" s="29"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="35"/>
+      <c r="A149" s="29"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="35"/>
+      <c r="A150" s="29"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="35"/>
+      <c r="A151" s="29"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="35"/>
+      <c r="A152" s="29"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="35"/>
+      <c r="A153" s="29"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="35"/>
+      <c r="A154" s="29"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="35"/>
+      <c r="A155" s="29"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="35"/>
+      <c r="A156" s="29"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="35"/>
+      <c r="A157" s="29"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="35"/>
+      <c r="A158" s="29"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="35"/>
+      <c r="A159" s="29"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="35"/>
+      <c r="A160" s="29"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="35"/>
+      <c r="A161" s="29"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="35"/>
+      <c r="A162" s="29"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="35"/>
+      <c r="A163" s="29"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="35"/>
+      <c r="A164" s="29"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="35"/>
+      <c r="A165" s="29"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="35"/>
+      <c r="A166" s="29"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="35"/>
+      <c r="A167" s="29"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="35"/>
+      <c r="A168" s="29"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="35"/>
+      <c r="A169" s="29"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="35"/>
+      <c r="A170" s="29"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="35"/>
+      <c r="A171" s="29"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="35"/>
+      <c r="A172" s="29"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="35"/>
+      <c r="A173" s="29"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="35"/>
+      <c r="A174" s="29"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="35"/>
+      <c r="A175" s="29"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="35"/>
+      <c r="A176" s="29"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="35"/>
+      <c r="A177" s="29"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="35"/>
+      <c r="A178" s="29"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="35"/>
+      <c r="A179" s="29"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="35"/>
+      <c r="A180" s="29"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="35"/>
+      <c r="A181" s="29"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="35"/>
+      <c r="A182" s="29"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="35"/>
+      <c r="A183" s="29"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="35"/>
+      <c r="A184" s="29"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="35"/>
+      <c r="A185" s="29"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="35"/>
+      <c r="A186" s="29"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="35"/>
+      <c r="A187" s="29"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="35"/>
+      <c r="A188" s="29"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="35"/>
+      <c r="A189" s="29"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="35"/>
+      <c r="A190" s="29"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="35"/>
+      <c r="A191" s="29"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="35"/>
+      <c r="A192" s="29"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="35"/>
+      <c r="A193" s="29"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="35"/>
+      <c r="A194" s="29"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="35"/>
+      <c r="A195" s="29"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="35"/>
+      <c r="A196" s="29"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="35"/>
+      <c r="A197" s="29"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="35"/>
+      <c r="A198" s="29"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="35"/>
+      <c r="A199" s="29"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="35"/>
+      <c r="A200" s="29"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="35"/>
+      <c r="A201" s="29"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="35"/>
+      <c r="A202" s="29"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="35"/>
+      <c r="A203" s="29"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="35"/>
+      <c r="A204" s="29"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="35"/>
+      <c r="A205" s="29"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="35"/>
+      <c r="A206" s="29"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="35"/>
+      <c r="A207" s="29"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="35"/>
+      <c r="A208" s="29"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="35"/>
+      <c r="A209" s="29"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="35"/>
+      <c r="A210" s="29"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="35"/>
+      <c r="A211" s="29"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="35"/>
+      <c r="A212" s="29"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="35"/>
+      <c r="A213" s="29"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="35"/>
+      <c r="A214" s="29"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="35"/>
+      <c r="A215" s="29"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="35"/>
+      <c r="A216" s="29"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="35"/>
+      <c r="A217" s="29"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="35"/>
+      <c r="A218" s="29"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="35"/>
+      <c r="A219" s="29"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="35"/>
+      <c r="A220" s="29"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="35"/>
+      <c r="A221" s="29"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="35"/>
+      <c r="A222" s="29"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="35"/>
+      <c r="A223" s="29"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="35"/>
+      <c r="A224" s="29"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="35"/>
+      <c r="A225" s="29"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="35"/>
+      <c r="A226" s="29"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="35"/>
+      <c r="A227" s="29"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="35"/>
+      <c r="A228" s="29"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="35"/>
+      <c r="A229" s="29"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="35"/>
+      <c r="A230" s="29"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="35"/>
+      <c r="A231" s="29"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="35"/>
+      <c r="A232" s="29"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="35"/>
+      <c r="A233" s="29"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="35"/>
+      <c r="A234" s="29"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="35"/>
+      <c r="A235" s="29"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="35"/>
+      <c r="A236" s="29"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="35"/>
+      <c r="A237" s="29"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="35"/>
+      <c r="A238" s="29"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="35"/>
+      <c r="A239" s="29"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="35"/>
+      <c r="A240" s="29"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="35"/>
+      <c r="A241" s="29"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="35"/>
+      <c r="A242" s="29"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="35"/>
+      <c r="A243" s="29"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="35"/>
+      <c r="A244" s="29"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="35"/>
+      <c r="A245" s="29"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="35"/>
+      <c r="A246" s="29"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="35"/>
+      <c r="A247" s="29"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="35"/>
+      <c r="A248" s="29"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="35"/>
+      <c r="A249" s="29"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="35"/>
+      <c r="A250" s="29"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="35"/>
+      <c r="A251" s="29"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="35"/>
+      <c r="A252" s="29"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="35"/>
+      <c r="A253" s="29"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="35"/>
+      <c r="A254" s="29"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="35"/>
+      <c r="A255" s="29"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="35"/>
+      <c r="A256" s="29"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="35"/>
+      <c r="A257" s="29"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="35"/>
+      <c r="A258" s="29"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="35"/>
+      <c r="A259" s="29"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="35"/>
+      <c r="A260" s="29"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="35"/>
+      <c r="A261" s="29"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="35"/>
+      <c r="A262" s="29"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="35"/>
+      <c r="A263" s="29"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="35"/>
+      <c r="A264" s="29"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="35"/>
+      <c r="A265" s="29"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="35"/>
+      <c r="A266" s="29"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="35"/>
+      <c r="A267" s="29"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="35"/>
+      <c r="A268" s="29"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="35"/>
+      <c r="A269" s="29"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="35"/>
+      <c r="A270" s="29"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="35"/>
+      <c r="A271" s="29"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="35"/>
+      <c r="A272" s="29"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="35"/>
+      <c r="A273" s="29"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="35"/>
+      <c r="A274" s="29"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="35"/>
+      <c r="A275" s="29"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="35"/>
+      <c r="A276" s="29"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="35"/>
+      <c r="A277" s="29"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="35"/>
+      <c r="A278" s="29"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="35"/>
+      <c r="A279" s="29"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="35"/>
+      <c r="A280" s="29"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="35"/>
+      <c r="A281" s="29"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="35"/>
+      <c r="A282" s="29"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="35"/>
+      <c r="A283" s="29"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="35"/>
+      <c r="A284" s="29"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="35"/>
+      <c r="A285" s="29"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="35"/>
+      <c r="A286" s="29"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="35"/>
+      <c r="A287" s="29"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="35"/>
+      <c r="A288" s="29"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="35"/>
+      <c r="A289" s="29"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="35"/>
+      <c r="A290" s="29"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="35"/>
+      <c r="A291" s="29"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="35"/>
+      <c r="A292" s="29"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="35"/>
+      <c r="A293" s="29"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="35"/>
+      <c r="A294" s="29"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="35"/>
+      <c r="A295" s="29"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="35"/>
+      <c r="A296" s="29"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="35"/>
+      <c r="A297" s="29"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="35"/>
+      <c r="A298" s="29"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="35"/>
+      <c r="A299" s="29"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="35"/>
+      <c r="A300" s="29"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="35"/>
+      <c r="A301" s="29"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="35"/>
+      <c r="A302" s="29"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="35"/>
+      <c r="A303" s="29"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="35"/>
+      <c r="A304" s="29"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="35"/>
+      <c r="A305" s="29"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="35"/>
+      <c r="A306" s="29"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="35"/>
+      <c r="A307" s="29"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="35"/>
+      <c r="A308" s="29"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="35"/>
+      <c r="A309" s="29"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="35"/>
+      <c r="A310" s="29"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="35"/>
+      <c r="A311" s="29"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="35"/>
+      <c r="A312" s="29"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="35"/>
+      <c r="A313" s="29"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="35"/>
+      <c r="A314" s="29"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="35"/>
+      <c r="A315" s="29"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="35"/>
+      <c r="A316" s="29"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="35"/>
+      <c r="A317" s="29"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="35"/>
+      <c r="A318" s="29"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="35"/>
+      <c r="A319" s="29"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="35"/>
+      <c r="A320" s="29"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="35"/>
+      <c r="A321" s="29"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="35"/>
+      <c r="A322" s="29"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="35"/>
+      <c r="A323" s="29"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="35"/>
+      <c r="A324" s="29"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="35"/>
+      <c r="A325" s="29"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="35"/>
+      <c r="A326" s="29"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="35"/>
+      <c r="A327" s="29"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="35"/>
+      <c r="A328" s="29"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="35"/>
+      <c r="A329" s="29"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="35"/>
+      <c r="A330" s="29"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="35"/>
+      <c r="A331" s="29"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="35"/>
+      <c r="A332" s="29"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="35"/>
+      <c r="A333" s="29"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="35"/>
+      <c r="A334" s="29"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="35"/>
+      <c r="A335" s="29"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="35"/>
+      <c r="A336" s="29"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="35"/>
+      <c r="A337" s="29"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="35"/>
+      <c r="A338" s="29"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="35"/>
+      <c r="A339" s="29"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="35"/>
+      <c r="A340" s="29"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="35"/>
+      <c r="A341" s="29"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="35"/>
+      <c r="A342" s="29"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="35"/>
+      <c r="A343" s="29"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="35"/>
+      <c r="A344" s="29"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="35"/>
+      <c r="A345" s="29"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="35"/>
+      <c r="A346" s="29"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="35"/>
+      <c r="A347" s="29"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="35"/>
+      <c r="A348" s="29"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="35"/>
+      <c r="A349" s="29"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="35"/>
+      <c r="A350" s="29"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="35"/>
+      <c r="A351" s="29"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="35"/>
+      <c r="A352" s="29"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="35"/>
+      <c r="A353" s="29"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="35"/>
+      <c r="A354" s="29"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="35"/>
+      <c r="A355" s="29"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="35"/>
+      <c r="A356" s="29"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="35"/>
+      <c r="A357" s="29"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="35"/>
+      <c r="A358" s="29"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="35"/>
+      <c r="A359" s="29"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="35"/>
+      <c r="A360" s="29"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="35"/>
+      <c r="A361" s="29"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="35"/>
+      <c r="A362" s="29"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="35"/>
+      <c r="A363" s="29"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="35"/>
+      <c r="A364" s="29"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="35"/>
+      <c r="A365" s="29"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="35"/>
+      <c r="A366" s="29"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="35"/>
+      <c r="A367" s="29"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="35"/>
+      <c r="A368" s="29"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="35"/>
+      <c r="A369" s="29"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="35"/>
+      <c r="A370" s="29"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="35"/>
+      <c r="A371" s="29"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="35"/>
+      <c r="A372" s="29"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="35"/>
+      <c r="A373" s="29"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="35"/>
+      <c r="A374" s="29"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="35"/>
+      <c r="A375" s="29"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="35"/>
+      <c r="A376" s="29"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="35"/>
+      <c r="A377" s="29"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="35"/>
+      <c r="A378" s="29"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="35"/>
+      <c r="A379" s="29"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="35"/>
+      <c r="A380" s="29"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="35"/>
+      <c r="A381" s="29"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="35"/>
+      <c r="A382" s="29"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="35"/>
+      <c r="A383" s="29"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="35"/>
+      <c r="A384" s="29"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="35"/>
+      <c r="A385" s="29"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="35"/>
+      <c r="A386" s="29"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="35"/>
+      <c r="A387" s="29"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="35"/>
+      <c r="A388" s="29"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="35"/>
+      <c r="A389" s="29"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="35"/>
+      <c r="A390" s="29"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="35"/>
+      <c r="A391" s="29"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="35"/>
+      <c r="A392" s="29"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="35"/>
+      <c r="A393" s="29"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="35"/>
+      <c r="A394" s="29"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="35"/>
+      <c r="A395" s="29"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="35"/>
+      <c r="A396" s="29"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="35"/>
+      <c r="A397" s="29"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="35"/>
+      <c r="A398" s="29"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="35"/>
+      <c r="A399" s="29"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="35"/>
+      <c r="A400" s="29"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="35"/>
+      <c r="A401" s="29"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="35"/>
+      <c r="A402" s="29"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="35"/>
+      <c r="A403" s="29"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="35"/>
+      <c r="A404" s="29"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="35"/>
+      <c r="A405" s="29"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="35"/>
+      <c r="A406" s="29"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="35"/>
+      <c r="A407" s="29"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="35"/>
+      <c r="A408" s="29"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="35"/>
+      <c r="A409" s="29"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="35"/>
+      <c r="A410" s="29"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="35"/>
+      <c r="A411" s="29"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="35"/>
+      <c r="A412" s="29"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="35"/>
+      <c r="A413" s="29"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="35"/>
+      <c r="A414" s="29"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="35"/>
+      <c r="A415" s="29"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="35"/>
+      <c r="A416" s="29"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="35"/>
+      <c r="A417" s="29"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="35"/>
+      <c r="A418" s="29"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="35"/>
+      <c r="A419" s="29"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="35"/>
+      <c r="A420" s="29"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="35"/>
+      <c r="A421" s="29"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="35"/>
+      <c r="A422" s="29"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="35"/>
+      <c r="A423" s="29"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="35"/>
+      <c r="A424" s="29"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="35"/>
+      <c r="A425" s="29"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="35"/>
+      <c r="A426" s="29"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="35"/>
+      <c r="A427" s="29"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="35"/>
+      <c r="A428" s="29"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="35"/>
+      <c r="A429" s="29"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="35"/>
+      <c r="A430" s="29"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="35"/>
+      <c r="A431" s="29"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="35"/>
+      <c r="A432" s="29"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="35"/>
+      <c r="A433" s="29"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="35"/>
+      <c r="A434" s="29"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="35"/>
+      <c r="A435" s="29"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="35"/>
+      <c r="A436" s="29"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="35"/>
+      <c r="A437" s="29"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="35"/>
+      <c r="A438" s="29"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="35"/>
+      <c r="A439" s="29"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="35"/>
+      <c r="A440" s="29"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="35"/>
+      <c r="A441" s="29"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="35"/>
+      <c r="A442" s="29"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="35"/>
+      <c r="A443" s="29"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="35"/>
+      <c r="A444" s="29"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="35"/>
+      <c r="A445" s="29"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="35"/>
+      <c r="A446" s="29"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="35"/>
+      <c r="A447" s="29"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="35"/>
+      <c r="A448" s="29"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="35"/>
+      <c r="A449" s="29"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="35"/>
+      <c r="A450" s="29"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="35"/>
+      <c r="A451" s="29"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="35"/>
+      <c r="A452" s="29"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="35"/>
+      <c r="A453" s="29"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="35"/>
+      <c r="A454" s="29"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="35"/>
+      <c r="A455" s="29"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="35"/>
+      <c r="A456" s="29"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="35"/>
+      <c r="A457" s="29"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="35"/>
+      <c r="A458" s="29"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="35"/>
+      <c r="A459" s="29"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="35"/>
+      <c r="A460" s="29"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="35"/>
+      <c r="A461" s="29"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="35"/>
+      <c r="A462" s="29"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="35"/>
+      <c r="A463" s="29"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="35"/>
+      <c r="A464" s="29"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="35"/>
+      <c r="A465" s="29"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="35"/>
+      <c r="A466" s="29"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="35"/>
+      <c r="A467" s="29"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="35"/>
+      <c r="A468" s="29"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="35"/>
+      <c r="A469" s="29"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="35"/>
+      <c r="A470" s="29"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="35"/>
+      <c r="A471" s="29"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="35"/>
+      <c r="A472" s="29"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="35"/>
+      <c r="A473" s="29"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="35"/>
+      <c r="A474" s="29"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="35"/>
+      <c r="A475" s="29"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="35"/>
+      <c r="A476" s="29"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="35"/>
+      <c r="A477" s="29"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="35"/>
+      <c r="A478" s="29"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="35"/>
+      <c r="A479" s="29"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="35"/>
+      <c r="A480" s="29"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="35"/>
+      <c r="A481" s="29"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="35"/>
+      <c r="A482" s="29"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="35"/>
+      <c r="A483" s="29"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="35"/>
+      <c r="A484" s="29"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="35"/>
+      <c r="A485" s="29"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="35"/>
+      <c r="A486" s="29"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="35"/>
+      <c r="A487" s="29"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="35"/>
+      <c r="A488" s="29"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="35"/>
+      <c r="A489" s="29"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="35"/>
+      <c r="A490" s="29"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="35"/>
+      <c r="A491" s="29"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="35"/>
+      <c r="A492" s="29"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="35"/>
+      <c r="A493" s="29"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="35"/>
+      <c r="A494" s="29"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="35"/>
+      <c r="A495" s="29"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="35"/>
+      <c r="A496" s="29"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="35"/>
+      <c r="A497" s="29"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="35"/>
+      <c r="A498" s="29"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="35"/>
+      <c r="A499" s="29"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="35"/>
+      <c r="A500" s="29"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="35"/>
+      <c r="A501" s="29"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="35"/>
+      <c r="A502" s="29"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="35"/>
+      <c r="A503" s="29"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="35"/>
+      <c r="A504" s="29"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" s="35"/>
+      <c r="A505" s="29"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" s="35"/>
+      <c r="A506" s="29"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="35"/>
+      <c r="A507" s="29"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="35"/>
+      <c r="A508" s="29"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" s="35"/>
+      <c r="A509" s="29"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" s="35"/>
+      <c r="A510" s="29"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" s="35"/>
+      <c r="A511" s="29"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" s="35"/>
+      <c r="A512" s="29"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" s="35"/>
+      <c r="A513" s="29"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" s="35"/>
+      <c r="A514" s="29"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="35"/>
+      <c r="A515" s="29"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" s="35"/>
+      <c r="A516" s="29"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="35"/>
+      <c r="A517" s="29"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" s="35"/>
+      <c r="A518" s="29"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" s="35"/>
+      <c r="A519" s="29"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" s="35"/>
+      <c r="A520" s="29"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" s="35"/>
+      <c r="A521" s="29"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" s="35"/>
+      <c r="A522" s="29"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" s="35"/>
+      <c r="A523" s="29"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" s="35"/>
+      <c r="A524" s="29"/>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" s="35"/>
+      <c r="A525" s="29"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" s="35"/>
+      <c r="A526" s="29"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" s="35"/>
+      <c r="A527" s="29"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" s="35"/>
+      <c r="A528" s="29"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A529" s="35"/>
+      <c r="A529" s="29"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" s="35"/>
+      <c r="A530" s="29"/>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A531" s="35"/>
+      <c r="A531" s="29"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" s="35"/>
+      <c r="A532" s="29"/>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" s="35"/>
+      <c r="A533" s="29"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534" s="35"/>
+      <c r="A534" s="29"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" s="35"/>
+      <c r="A535" s="29"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" s="35"/>
+      <c r="A536" s="29"/>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A537" s="35"/>
+      <c r="A537" s="29"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A538" s="35"/>
+      <c r="A538" s="29"/>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A539" s="35"/>
+      <c r="A539" s="29"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540" s="35"/>
+      <c r="A540" s="29"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541" s="35"/>
+      <c r="A541" s="29"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A542" s="35"/>
+      <c r="A542" s="29"/>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A543" s="35"/>
+      <c r="A543" s="29"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A544" s="35"/>
+      <c r="A544" s="29"/>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A545" s="35"/>
+      <c r="A545" s="29"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546" s="35"/>
+      <c r="A546" s="29"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A547" s="35"/>
+      <c r="A547" s="29"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A548" s="35"/>
+      <c r="A548" s="29"/>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A549" s="35"/>
+      <c r="A549" s="29"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A550" s="35"/>
+      <c r="A550" s="29"/>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A551" s="35"/>
+      <c r="A551" s="29"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552" s="35"/>
+      <c r="A552" s="29"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A553" s="35"/>
+      <c r="A553" s="29"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A554" s="35"/>
+      <c r="A554" s="29"/>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A555" s="35"/>
+      <c r="A555" s="29"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A556" s="35"/>
+      <c r="A556" s="29"/>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A557" s="35"/>
+      <c r="A557" s="29"/>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A558" s="35"/>
+      <c r="A558" s="29"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A559" s="35"/>
+      <c r="A559" s="29"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A560" s="35"/>
+      <c r="A560" s="29"/>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A561" s="35"/>
+      <c r="A561" s="29"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A562" s="35"/>
+      <c r="A562" s="29"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A563" s="35"/>
+      <c r="A563" s="29"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A564" s="35"/>
+      <c r="A564" s="29"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A565" s="35"/>
+      <c r="A565" s="29"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A566" s="35"/>
+      <c r="A566" s="29"/>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A567" s="35"/>
+      <c r="A567" s="29"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A568" s="35"/>
+      <c r="A568" s="29"/>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A569" s="35"/>
+      <c r="A569" s="29"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A570" s="35"/>
+      <c r="A570" s="29"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A571" s="35"/>
+      <c r="A571" s="29"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A572" s="35"/>
+      <c r="A572" s="29"/>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A573" s="35"/>
+      <c r="A573" s="29"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A574" s="35"/>
+      <c r="A574" s="29"/>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A575" s="35"/>
+      <c r="A575" s="29"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A576" s="35"/>
+      <c r="A576" s="29"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A577" s="35"/>
+      <c r="A577" s="29"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A578" s="35"/>
+      <c r="A578" s="29"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A579" s="35"/>
+      <c r="A579" s="29"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A580" s="35"/>
+      <c r="A580" s="29"/>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A581" s="35"/>
+      <c r="A581" s="29"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A582" s="35"/>
+      <c r="A582" s="29"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A583" s="35"/>
+      <c r="A583" s="29"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A584" s="35"/>
+      <c r="A584" s="29"/>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585" s="35"/>
+      <c r="A585" s="29"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A586" s="35"/>
+      <c r="A586" s="29"/>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A587" s="35"/>
+      <c r="A587" s="29"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588" s="35"/>
+      <c r="A588" s="29"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A589" s="35"/>
+      <c r="A589" s="29"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A590" s="35"/>
+      <c r="A590" s="29"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A591" s="35"/>
+      <c r="A591" s="29"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A592" s="35"/>
+      <c r="A592" s="29"/>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A593" s="35"/>
+      <c r="A593" s="29"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A594" s="35"/>
+      <c r="A594" s="29"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A595" s="35"/>
+      <c r="A595" s="29"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A596" s="35"/>
+      <c r="A596" s="29"/>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A597" s="35"/>
+      <c r="A597" s="29"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A598" s="35"/>
+      <c r="A598" s="29"/>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A599" s="35"/>
+      <c r="A599" s="29"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A600" s="35"/>
+      <c r="A600" s="29"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A601" s="35"/>
+      <c r="A601" s="29"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A602" s="35"/>
+      <c r="A602" s="29"/>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A603" s="35"/>
+      <c r="A603" s="29"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A604" s="35"/>
+      <c r="A604" s="29"/>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A605" s="35"/>
+      <c r="A605" s="29"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A606" s="35"/>
+      <c r="A606" s="29"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A607" s="35"/>
+      <c r="A607" s="29"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A608" s="35"/>
+      <c r="A608" s="29"/>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A609" s="35"/>
+      <c r="A609" s="29"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A610" s="35"/>
+      <c r="A610" s="29"/>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A611" s="35"/>
+      <c r="A611" s="29"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A612" s="35"/>
+      <c r="A612" s="29"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A613" s="35"/>
+      <c r="A613" s="29"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A614" s="35"/>
+      <c r="A614" s="29"/>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A615" s="35"/>
+      <c r="A615" s="29"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A616" s="35"/>
+      <c r="A616" s="29"/>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A617" s="35"/>
+      <c r="A617" s="29"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A618" s="35"/>
+      <c r="A618" s="29"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A619" s="35"/>
+      <c r="A619" s="29"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A620" s="35"/>
+      <c r="A620" s="29"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A621" s="35"/>
+      <c r="A621" s="29"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A622" s="35"/>
+      <c r="A622" s="29"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A623" s="35"/>
+      <c r="A623" s="29"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A624" s="35"/>
+      <c r="A624" s="29"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A625" s="35"/>
+      <c r="A625" s="29"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A626" s="35"/>
+      <c r="A626" s="29"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A627" s="35"/>
+      <c r="A627" s="29"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A628" s="35"/>
+      <c r="A628" s="29"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A629" s="35"/>
+      <c r="A629" s="29"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A630" s="35"/>
+      <c r="A630" s="29"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A631" s="35"/>
+      <c r="A631" s="29"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A632" s="35"/>
+      <c r="A632" s="29"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A633" s="35"/>
+      <c r="A633" s="29"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A634" s="35"/>
+      <c r="A634" s="29"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A635" s="35"/>
+      <c r="A635" s="29"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A636" s="35"/>
+      <c r="A636" s="29"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A637" s="35"/>
+      <c r="A637" s="29"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A638" s="35"/>
+      <c r="A638" s="29"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A639" s="35"/>
+      <c r="A639" s="29"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A640" s="35"/>
+      <c r="A640" s="29"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A641" s="35"/>
+      <c r="A641" s="29"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A642" s="35"/>
+      <c r="A642" s="29"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A643" s="35"/>
+      <c r="A643" s="29"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A644" s="35"/>
+      <c r="A644" s="29"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A645" s="35"/>
+      <c r="A645" s="29"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A646" s="35"/>
+      <c r="A646" s="29"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A647" s="35"/>
+      <c r="A647" s="29"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A648" s="35"/>
+      <c r="A648" s="29"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A649" s="35"/>
+      <c r="A649" s="29"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A650" s="35"/>
+      <c r="A650" s="29"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A651" s="35"/>
+      <c r="A651" s="29"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A652" s="35"/>
+      <c r="A652" s="29"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A653" s="35"/>
+      <c r="A653" s="29"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A654" s="35"/>
+      <c r="A654" s="29"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A655" s="35"/>
+      <c r="A655" s="29"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A656" s="35"/>
+      <c r="A656" s="29"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A657" s="35"/>
+      <c r="A657" s="29"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A658" s="35"/>
+      <c r="A658" s="29"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A659" s="35"/>
+      <c r="A659" s="29"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A660" s="35"/>
+      <c r="A660" s="29"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A661" s="35"/>
+      <c r="A661" s="29"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A662" s="35"/>
+      <c r="A662" s="29"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A663" s="35"/>
+      <c r="A663" s="29"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A664" s="35"/>
+      <c r="A664" s="29"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A665" s="35"/>
+      <c r="A665" s="29"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A666" s="35"/>
+      <c r="A666" s="29"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A667" s="35"/>
+      <c r="A667" s="29"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A668" s="35"/>
+      <c r="A668" s="29"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A669" s="35"/>
+      <c r="A669" s="29"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A670" s="35"/>
+      <c r="A670" s="29"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A671" s="35"/>
+      <c r="A671" s="29"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A672" s="35"/>
+      <c r="A672" s="29"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A673" s="35"/>
+      <c r="A673" s="29"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A674" s="35"/>
+      <c r="A674" s="29"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A675" s="35"/>
+      <c r="A675" s="29"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A676" s="35"/>
+      <c r="A676" s="29"/>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A677" s="35"/>
+      <c r="A677" s="29"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A678" s="35"/>
+      <c r="A678" s="29"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A679" s="35"/>
+      <c r="A679" s="29"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A680" s="35"/>
+      <c r="A680" s="29"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A681" s="35"/>
+      <c r="A681" s="29"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A682" s="35"/>
+      <c r="A682" s="29"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A683" s="35"/>
+      <c r="A683" s="29"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A684" s="35"/>
+      <c r="A684" s="29"/>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A685" s="35"/>
+      <c r="A685" s="29"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A686" s="35"/>
+      <c r="A686" s="29"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A687" s="35"/>
+      <c r="A687" s="29"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A688" s="35"/>
+      <c r="A688" s="29"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A689" s="35"/>
+      <c r="A689" s="29"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A690" s="35"/>
+      <c r="A690" s="29"/>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A691" s="35"/>
+      <c r="A691" s="29"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A692" s="35"/>
+      <c r="A692" s="29"/>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A693" s="35"/>
+      <c r="A693" s="29"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A694" s="35"/>
+      <c r="A694" s="29"/>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A695" s="35"/>
+      <c r="A695" s="29"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A696" s="35"/>
+      <c r="A696" s="29"/>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A697" s="35"/>
+      <c r="A697" s="29"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A698" s="35"/>
+      <c r="A698" s="29"/>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A699" s="35"/>
+      <c r="A699" s="29"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A700" s="35"/>
+      <c r="A700" s="29"/>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A701" s="35"/>
+      <c r="A701" s="29"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A702" s="35"/>
+      <c r="A702" s="29"/>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A703" s="35"/>
+      <c r="A703" s="29"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A704" s="35"/>
+      <c r="A704" s="29"/>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A705" s="35"/>
+      <c r="A705" s="29"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A706" s="35"/>
+      <c r="A706" s="29"/>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A707" s="35"/>
+      <c r="A707" s="29"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A708" s="35"/>
+      <c r="A708" s="29"/>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A709" s="35"/>
+      <c r="A709" s="29"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A710" s="35"/>
+      <c r="A710" s="29"/>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A711" s="35"/>
+      <c r="A711" s="29"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A712" s="35"/>
+      <c r="A712" s="29"/>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A713" s="35"/>
+      <c r="A713" s="29"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A714" s="35"/>
+      <c r="A714" s="29"/>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A715" s="35"/>
+      <c r="A715" s="29"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A716" s="35"/>
+      <c r="A716" s="29"/>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A717" s="35"/>
+      <c r="A717" s="29"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A718" s="35"/>
+      <c r="A718" s="29"/>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A719" s="35"/>
+      <c r="A719" s="29"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A720" s="35"/>
+      <c r="A720" s="29"/>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A721" s="35"/>
+      <c r="A721" s="29"/>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A722" s="35"/>
+      <c r="A722" s="29"/>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A723" s="35"/>
+      <c r="A723" s="29"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A724" s="35"/>
+      <c r="A724" s="29"/>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A725" s="35"/>
+      <c r="A725" s="29"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A726" s="35"/>
+      <c r="A726" s="29"/>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A727" s="35"/>
+      <c r="A727" s="29"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A728" s="35"/>
+      <c r="A728" s="29"/>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A729" s="35"/>
+      <c r="A729" s="29"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A730" s="35"/>
+      <c r="A730" s="29"/>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A731" s="35"/>
+      <c r="A731" s="29"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A732" s="35"/>
+      <c r="A732" s="29"/>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A733" s="35"/>
+      <c r="A733" s="29"/>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A734" s="35"/>
+      <c r="A734" s="29"/>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A735" s="35"/>
+      <c r="A735" s="29"/>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A736" s="35"/>
+      <c r="A736" s="29"/>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A737" s="35"/>
+      <c r="A737" s="29"/>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A738" s="35"/>
+      <c r="A738" s="29"/>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A739" s="35"/>
+      <c r="A739" s="29"/>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A740" s="35"/>
+      <c r="A740" s="29"/>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A741" s="35"/>
+      <c r="A741" s="29"/>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A742" s="35"/>
+      <c r="A742" s="29"/>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A743" s="35"/>
+      <c r="A743" s="29"/>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A744" s="35"/>
+      <c r="A744" s="29"/>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A745" s="35"/>
+      <c r="A745" s="29"/>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A746" s="35"/>
+      <c r="A746" s="29"/>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A747" s="35"/>
+      <c r="A747" s="29"/>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A748" s="35"/>
+      <c r="A748" s="29"/>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A749" s="35"/>
+      <c r="A749" s="29"/>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A750" s="35"/>
+      <c r="A750" s="29"/>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A751" s="35"/>
+      <c r="A751" s="29"/>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A752" s="35"/>
+      <c r="A752" s="29"/>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A753" s="35"/>
+      <c r="A753" s="29"/>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A754" s="35"/>
+      <c r="A754" s="29"/>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A755" s="35"/>
+      <c r="A755" s="29"/>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A756" s="35"/>
+      <c r="A756" s="29"/>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A757" s="35"/>
+      <c r="A757" s="29"/>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A758" s="35"/>
+      <c r="A758" s="29"/>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A759" s="35"/>
+      <c r="A759" s="29"/>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A760" s="35"/>
+      <c r="A760" s="29"/>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A761" s="35"/>
+      <c r="A761" s="29"/>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A762" s="35"/>
+      <c r="A762" s="29"/>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A763" s="35"/>
+      <c r="A763" s="29"/>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A764" s="35"/>
+      <c r="A764" s="29"/>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A765" s="35"/>
+      <c r="A765" s="29"/>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A766" s="35"/>
+      <c r="A766" s="29"/>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A767" s="35"/>
+      <c r="A767" s="29"/>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A768" s="35"/>
+      <c r="A768" s="29"/>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A769" s="35"/>
+      <c r="A769" s="29"/>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A770" s="35"/>
+      <c r="A770" s="29"/>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A771" s="35"/>
+      <c r="A771" s="29"/>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A772" s="35"/>
+      <c r="A772" s="29"/>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A773" s="35"/>
+      <c r="A773" s="29"/>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A774" s="35"/>
+      <c r="A774" s="29"/>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A775" s="35"/>
+      <c r="A775" s="29"/>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A776" s="35"/>
+      <c r="A776" s="29"/>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A777" s="35"/>
+      <c r="A777" s="29"/>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A778" s="35"/>
+      <c r="A778" s="29"/>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A779" s="35"/>
+      <c r="A779" s="29"/>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A780" s="35"/>
+      <c r="A780" s="29"/>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A781" s="35"/>
+      <c r="A781" s="29"/>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A782" s="35"/>
+      <c r="A782" s="29"/>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A783" s="35"/>
+      <c r="A783" s="29"/>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A784" s="35"/>
+      <c r="A784" s="29"/>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A785" s="35"/>
+      <c r="A785" s="29"/>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A786" s="35"/>
+      <c r="A786" s="29"/>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A787" s="35"/>
+      <c r="A787" s="29"/>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A788" s="35"/>
+      <c r="A788" s="29"/>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A789" s="35"/>
+      <c r="A789" s="29"/>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A790" s="35"/>
+      <c r="A790" s="29"/>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A791" s="35"/>
+      <c r="A791" s="29"/>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A792" s="35"/>
+      <c r="A792" s="29"/>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A793" s="35"/>
+      <c r="A793" s="29"/>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A794" s="35"/>
+      <c r="A794" s="29"/>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A795" s="35"/>
+      <c r="A795" s="29"/>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A796" s="35"/>
+      <c r="A796" s="29"/>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A797" s="35"/>
+      <c r="A797" s="29"/>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A798" s="35"/>
+      <c r="A798" s="29"/>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A799" s="35"/>
+      <c r="A799" s="29"/>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A800" s="35"/>
+      <c r="A800" s="29"/>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A801" s="35"/>
+      <c r="A801" s="29"/>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A802" s="35"/>
+      <c r="A802" s="29"/>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A803" s="35"/>
+      <c r="A803" s="29"/>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A804" s="35"/>
+      <c r="A804" s="29"/>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A805" s="35"/>
+      <c r="A805" s="29"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A806" s="35"/>
+      <c r="A806" s="29"/>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A807" s="35"/>
+      <c r="A807" s="29"/>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A808" s="35"/>
+      <c r="A808" s="29"/>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A809" s="35"/>
+      <c r="A809" s="29"/>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A810" s="35"/>
+      <c r="A810" s="29"/>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A811" s="35"/>
+      <c r="A811" s="29"/>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A812" s="35"/>
+      <c r="A812" s="29"/>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A813" s="35"/>
+      <c r="A813" s="29"/>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A814" s="35"/>
+      <c r="A814" s="29"/>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A815" s="35"/>
+      <c r="A815" s="29"/>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A816" s="35"/>
+      <c r="A816" s="29"/>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A817" s="35"/>
+      <c r="A817" s="29"/>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A818" s="35"/>
+      <c r="A818" s="29"/>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A819" s="35"/>
+      <c r="A819" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/ASME-BPV-SectionVIII-Calcs.xlsx
+++ b/ASME-BPV-SectionVIII-Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD Documents\Propulsion Github\Propulsion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BBB642-7538-4E12-A955-6F351E99AA27}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50306F1A-5AB9-403E-845B-8148BD3329B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" activeTab="2" xr2:uid="{838B0196-D158-479E-A7C6-911A07F6EFB7}"/>
   </bookViews>
@@ -26,8 +26,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dan</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{54115B5C-47B3-4614-9055-2EA3E002CA64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Makes sense because mass continuity, with Ullage taking into account density variations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{9F188605-EE30-4C0D-A26D-BC3556D56C44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Makes sense because mass continuity, with Ullage taking into account density variations</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Inner Radius (in)</t>
   </si>
@@ -137,12 +195,6 @@
     <t>Worst Case Pressure Case Study</t>
   </si>
   <si>
-    <t>Volumetric Ullage % req to not vent  as temp rises to 75F (with only liq at 75F)</t>
-  </si>
-  <si>
-    <t>Height from top required</t>
-  </si>
-  <si>
     <t>Ullage Volume</t>
   </si>
   <si>
@@ -159,9 +211,6 @@
   </si>
   <si>
     <t>ft^3</t>
-  </si>
-  <si>
-    <t>Makes sense because mass continuity, with Ullage taking into account density variations</t>
   </si>
   <si>
     <t>Worst case internal tank pressure (located at bottom of RT) (psi)</t>
@@ -190,6 +239,93 @@
   <si>
     <t>&lt;</t>
   </si>
+  <si>
+    <t>MAX OP PRESSURES</t>
+  </si>
+  <si>
+    <t>Ullage Volume Required in shell</t>
+  </si>
+  <si>
+    <t>Height from top of storage volume required</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Volumetric Ullage % req to not vent  as temp rises to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>70F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (with only liq at</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 70F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Volumetric Ullage % req to not vent  as temp rises to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">75F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(with only liq at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>75F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +337,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,13 +455,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -466,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -658,6 +813,18 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,9 +835,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,6 +864,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -709,17 +876,32 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3417,44 +3599,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="D5" s="79" t="s">
+      <c r="B5" s="83"/>
+      <c r="D5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="79"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3552,7 +3734,7 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="62">
         <f>'N2O Pressure Calcs'!H53</f>
@@ -3563,7 +3745,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" s="60">
         <f>B10*B16</f>
@@ -3581,7 +3763,7 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="62">
         <f>'N2O Pressure Calcs'!J53</f>
@@ -3639,7 +3821,7 @@
   <dimension ref="A1:P819"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I15" sqref="I15:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,20 +3840,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="47"/>
       <c r="L1" t="s">
         <v>27</v>
@@ -3701,14 +3883,14 @@
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="46"/>
       <c r="L2" t="s">
         <v>15</v>
@@ -3830,7 +4012,7 @@
         <v>756.46634647363703</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M5">
         <v>0.87815195180003003</v>
@@ -3868,7 +4050,7 @@
         <v>761.51016398466595</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M6">
         <v>1.25</v>
@@ -3906,7 +4088,7 @@
         <v>766.60204828473297</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M7" s="43">
         <f>M5*M6</f>
@@ -5361,43 +5543,45 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="70">
+      <c r="A53" s="98">
         <v>75</v>
       </c>
-      <c r="B53" s="71">
+      <c r="B53" s="99">
         <f>B52+(((B54-B52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>799.74517236666668</v>
       </c>
-      <c r="C53" s="44">
+      <c r="C53" s="100">
         <f t="shared" ref="C53:D53" si="6">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D53" s="101">
         <f t="shared" si="6"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="41">
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="103">
         <f>G52+(((G54-G52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>177.3738140488434</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H53" s="101">
         <f t="shared" ref="H53" si="7">H52+(((H54-H52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>977.11898641550999</v>
       </c>
-      <c r="I53" s="41">
+      <c r="I53" s="103">
         <f t="shared" ref="I53" si="8">I52+(((I54-I52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>70.57596078568001</v>
       </c>
-      <c r="J53" s="45">
+      <c r="J53" s="101">
         <f t="shared" ref="J53" si="9">J52+(((J54-J52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1047.69494720119</v>
       </c>
       <c r="K53" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L53" s="43"/>
+      <c r="L53" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
@@ -8470,11 +8654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
-  <dimension ref="A1:P819"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA32C0C-ED9A-4805-89D4-96E4CF8ECC22}">
+  <dimension ref="A1:W819"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8482,49 +8666,61 @@
     <col min="1" max="1" width="11.42578125" style="24"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="23"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="64"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="15" width="19.85546875" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="47"/>
-      <c r="L1" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="47"/>
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="M1">
+      <c r="T1">
         <v>1.5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="P1">
+      <c r="W1">
         <v>3.2490157499999999</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>19</v>
       </c>
@@ -8537,38 +8733,55 @@
       <c r="D2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="92"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="M2">
-        <f>P1+(2*P3)</f>
+      <c r="T2">
+        <f>W1+(2*W3)</f>
         <v>3.7698490833333334</v>
       </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="P2">
+      <c r="W2">
         <v>3.125</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
@@ -8581,34 +8794,51 @@
       <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="48"/>
-      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="48"/>
+      <c r="S3" t="s">
         <v>14</v>
       </c>
-      <c r="M3">
+      <c r="T3">
         <v>32.200000000000003</v>
       </c>
-      <c r="O3" t="s">
+      <c r="V3" t="s">
         <v>33</v>
       </c>
-      <c r="P3">
-        <f>P2/12</f>
+      <c r="W3">
+        <f>W2/12</f>
         <v>0.26041666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>32</v>
       </c>
@@ -8621,26 +8851,51 @@
       <c r="D4" s="25">
         <v>0.16525852904319999</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="41">
-        <f t="shared" ref="F4:F35" si="0">($C$53-C4)/(D4-C4)</f>
-        <v>0.18736491688811011</v>
+        <f>($C$47-C4)/(D4-C4)</f>
+        <v>0.15895834986355586</v>
       </c>
       <c r="G4" s="69">
-        <f>$M$7/((C4*(1-F4))+(D4*F4))</f>
-        <v>0.75122497093492424</v>
+        <f>$T$7/((C4*(1-F4))+(D4*F4))</f>
+        <v>0.72863533976250439</v>
       </c>
       <c r="H4" s="53">
         <f>G4*F4</f>
+        <v>0.11582267126091907</v>
+      </c>
+      <c r="I4" s="53">
+        <f>H4-$M$55</f>
+        <v>7.8834322787596306E-2</v>
+      </c>
+      <c r="J4" s="25">
+        <f>IF(I4&gt;0, ('BPV Calcs'!$B$8/12)+(I4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.63043898282165145</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="41">
+        <f t="shared" ref="L4:L35" si="0">($C$53-C4)/(D4-C4)</f>
+        <v>0.18736491688811011</v>
+      </c>
+      <c r="M4" s="69">
+        <f t="shared" ref="M4:M35" si="1">$T$7/((C4*(1-L4))+(D4*L4))</f>
+        <v>0.75122497093492424</v>
+      </c>
+      <c r="N4" s="53">
+        <f>M4*L4</f>
         <v>0.14075320424349502</v>
       </c>
-      <c r="I4" s="25">
-        <f>IF(H4&gt;$G$55, $G$58-(G4*(1-F4)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>1.0078713506575352</v>
-      </c>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="53">
+        <f>N4-$M$55</f>
+        <v>0.10376485577017228</v>
+      </c>
+      <c r="P4" s="25">
+        <f>IF(I4&gt;0, ('BPV Calcs'!$B$8/12)+(O4/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.7474546839908689</v>
+      </c>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>32.9</v>
       </c>
@@ -8653,32 +8908,57 @@
       <c r="D5" s="25">
         <v>0.16772615040639999</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="41">
+        <f t="shared" ref="F5:F46" si="2">($C$47-C5)/(D5-C5)</f>
+        <v>0.15658283861487579</v>
+      </c>
+      <c r="G5" s="69">
+        <f>$T$7/((C5*(1-F5))+(D5*F5))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H5" s="53">
+        <f t="shared" ref="H5:H45" si="3">G5*F5</f>
+        <v>0.11409178981512741</v>
+      </c>
+      <c r="I5" s="53">
+        <f t="shared" ref="I5:I47" si="4">H5-$M$55</f>
+        <v>7.7103441341804663E-2</v>
+      </c>
+      <c r="J5" s="25">
+        <f>IF(I5&gt;0, ('BPV Calcs'!$B$8/12)+(I5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.62231479605991424</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="41">
         <f t="shared" si="0"/>
         <v>0.18512214630827489</v>
       </c>
-      <c r="G5" s="69">
-        <f>$M$7/((C5*(1-F5))+(D5*F5))</f>
+      <c r="M5" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H5" s="53">
-        <f t="shared" ref="H5:H53" si="1">G5*F5</f>
+      <c r="N5" s="53">
+        <f t="shared" ref="N5:N53" si="5">M5*L5</f>
         <v>0.13906837897984459</v>
       </c>
-      <c r="I5" s="25">
-        <f>IF(H5&gt;$G$55, $G$58-(G5*(1-F5)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.99996333642809798</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5">
+      <c r="O5" s="53">
+        <f t="shared" ref="O5:O53" si="6">N5-$M$55</f>
+        <v>0.10208003050652184</v>
+      </c>
+      <c r="P5" s="25">
+        <f>IF(I5&gt;0, ('BPV Calcs'!$B$8/12)+(O5/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.73954666976143157</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5">
         <v>0.87815195180003003</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>33.799999999999997</v>
       </c>
@@ -8691,32 +8971,57 @@
       <c r="D6" s="25">
         <v>0.1702317244288</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="41">
+        <f t="shared" si="2"/>
+        <v>0.1541689886823846</v>
+      </c>
+      <c r="G6" s="69">
+        <f>$T$7/((C6*(1-F6))+(D6*F6))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H6" s="53">
+        <f t="shared" si="3"/>
+        <v>0.112332973449431</v>
+      </c>
+      <c r="I6" s="53">
+        <f t="shared" si="4"/>
+        <v>7.5344624976108249E-2</v>
+      </c>
+      <c r="J6" s="25">
+        <f>IF(I6&gt;0, ('BPV Calcs'!$B$8/12)+(I6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.61405949199546828</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="41">
         <f t="shared" si="0"/>
         <v>0.18284364136366457</v>
       </c>
-      <c r="G6" s="69">
-        <f>$M$7/((C6*(1-F6))+(D6*F6))</f>
+      <c r="M6" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H6" s="53">
-        <f t="shared" si="1"/>
+      <c r="N6" s="53">
+        <f t="shared" si="5"/>
         <v>0.13735670916905462</v>
       </c>
-      <c r="I6" s="25">
-        <f>IF(H6&gt;$G$55, $G$58-(G6*(1-F6)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.99192932274617007</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6">
+      <c r="O6" s="53">
+        <f t="shared" si="6"/>
+        <v>0.10036836069573188</v>
+      </c>
+      <c r="P6" s="25">
+        <f>IF(I6&gt;0, ('BPV Calcs'!$B$8/12)+(O6/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.73151265607950378</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6">
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>34.700000000000003</v>
       </c>
@@ -8729,33 +9034,58 @@
       <c r="D7" s="25">
         <v>0.17277604664159998</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="41">
+        <f t="shared" si="2"/>
+        <v>0.15171807787171285</v>
+      </c>
+      <c r="G7" s="69">
+        <f>$T$7/((C7*(1-F7))+(D7*F7))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H7" s="53">
+        <f t="shared" si="3"/>
+        <v>0.11054715321816959</v>
+      </c>
+      <c r="I7" s="53">
+        <f t="shared" si="4"/>
+        <v>7.3558804744846829E-2</v>
+      </c>
+      <c r="J7" s="25">
+        <f>IF(I7&gt;0, ('BPV Calcs'!$B$8/12)+(I7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.60567744069037677</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="41">
         <f t="shared" si="0"/>
         <v>0.18053067987595114</v>
       </c>
-      <c r="G7" s="69">
-        <f>$M$7/((C7*(1-F7))+(D7*F7))</f>
+      <c r="M7" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H7" s="53">
-        <f t="shared" si="1"/>
+      <c r="N7" s="53">
+        <f t="shared" si="5"/>
         <v>0.1356191547426735</v>
       </c>
-      <c r="I7" s="25">
-        <f>IF(H7&gt;$G$55, $G$58-(G7*(1-F7)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.98377381521390994</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="L7" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="43">
-        <f>M5*M6</f>
+      <c r="O7" s="53">
+        <f t="shared" si="6"/>
+        <v>9.8630806269350751E-2</v>
+      </c>
+      <c r="P7" s="25">
+        <f>IF(I7&gt;0, ('BPV Calcs'!$B$8/12)+(O7/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.72335714854724331</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="S7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="43">
+        <f>T5*T6</f>
         <v>1.0976899397500375</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>35.6</v>
       </c>
@@ -8768,26 +9098,51 @@
       <c r="D8" s="25">
         <v>0.17536002899519998</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="41">
+        <f t="shared" si="2"/>
+        <v>0.14922826351373839</v>
+      </c>
+      <c r="G8" s="69">
+        <f>$T$7/((C8*(1-F8))+(D8*F8))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H8" s="53">
+        <f t="shared" si="3"/>
+        <v>0.10873298648750131</v>
+      </c>
+      <c r="I8" s="53">
+        <f t="shared" si="4"/>
+        <v>7.1744638014178547E-2</v>
+      </c>
+      <c r="J8" s="25">
+        <f>IF(I8&gt;0, ('BPV Calcs'!$B$8/12)+(I8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.59716234026410897</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="41">
         <f t="shared" si="0"/>
         <v>0.17818152870115089</v>
       </c>
-      <c r="G8" s="69">
-        <f>$M$7/((C8*(1-F8))+(D8*F8))</f>
+      <c r="M8" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H8" s="53">
-        <f t="shared" si="1"/>
+      <c r="N8" s="53">
+        <f t="shared" si="5"/>
         <v>0.13385441371966245</v>
       </c>
-      <c r="I8" s="25">
-        <f>IF(H8&gt;$G$55, $G$58-(G8*(1-F8)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.97549070276163929</v>
-      </c>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="53">
+        <f t="shared" si="6"/>
+        <v>9.68660652463397E-2</v>
+      </c>
+      <c r="P8" s="25">
+        <f>IF(I8&gt;0, ('BPV Calcs'!$B$8/12)+(O8/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.71507403609497255</v>
+      </c>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>36.5</v>
       </c>
@@ -8800,26 +9155,51 @@
       <c r="D9" s="25">
         <v>0.17798456403679999</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="41">
+        <f t="shared" si="2"/>
+        <v>0.14669763583368992</v>
+      </c>
+      <c r="G9" s="69">
+        <f>$T$7/((C9*(1-F9))+(D9*F9))</f>
+        <v>0.72863533976250427</v>
+      </c>
+      <c r="H9" s="53">
+        <f t="shared" si="3"/>
+        <v>0.10688908172803678</v>
+      </c>
+      <c r="I9" s="53">
+        <f t="shared" si="4"/>
+        <v>6.990073325471402E-2</v>
+      </c>
+      <c r="J9" s="25">
+        <f>IF(I9&gt;0, ('BPV Calcs'!$B$8/12)+(I9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.58850765933655724</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="41">
         <f t="shared" si="0"/>
         <v>0.17579439116722953</v>
       </c>
-      <c r="G9" s="69">
-        <f>$M$7/((C9*(1-F9))+(D9*F9))</f>
+      <c r="M9" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H9" s="53">
-        <f t="shared" si="1"/>
+      <c r="N9" s="53">
+        <f t="shared" si="5"/>
         <v>0.13206113639512471</v>
       </c>
-      <c r="I9" s="25">
-        <f>IF(H9&gt;$G$55, $G$58-(G9*(1-F9)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.96707365031962755</v>
-      </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="53">
+        <f t="shared" si="6"/>
+        <v>9.507278792180196E-2</v>
+      </c>
+      <c r="P9" s="25">
+        <f>IF(I9&gt;0, ('BPV Calcs'!$B$8/12)+(O9/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.70665698365296103</v>
+      </c>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>37.4</v>
       </c>
@@ -8832,26 +9212,51 @@
       <c r="D10" s="25">
         <v>0.18065056371679999</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="41">
+        <f t="shared" si="2"/>
+        <v>0.14412421839668005</v>
+      </c>
+      <c r="G10" s="69">
+        <f>$T$7/((C10*(1-F10))+(D10*F10))</f>
+        <v>0.72863533976250427</v>
+      </c>
+      <c r="H10" s="53">
+        <f t="shared" si="3"/>
+        <v>0.10501399883947034</v>
+      </c>
+      <c r="I10" s="53">
+        <f t="shared" si="4"/>
+        <v>6.8025650366147578E-2</v>
+      </c>
+      <c r="J10" s="25">
+        <f>IF(I10&gt;0, ('BPV Calcs'!$B$8/12)+(I10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.57970663855174887</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="41">
         <f t="shared" si="0"/>
         <v>0.17336740843776965</v>
       </c>
-      <c r="G10" s="69">
-        <f>$M$7/((C10*(1-F10))+(D10*F10))</f>
+      <c r="M10" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H10" s="53">
-        <f t="shared" si="1"/>
+      <c r="N10" s="53">
+        <f t="shared" si="5"/>
         <v>0.13023792636472664</v>
       </c>
-      <c r="I10" s="25">
-        <f>IF(H10&gt;$G$55, $G$58-(G10*(1-F10)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.95851610362638651</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="53">
+        <f t="shared" si="6"/>
+        <v>9.3249577891403895E-2</v>
+      </c>
+      <c r="P10" s="25">
+        <f>IF(I10&gt;0, ('BPV Calcs'!$B$8/12)+(O10/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.69809943695971999</v>
+      </c>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>38.299999999999997</v>
       </c>
@@ -8864,26 +9269,51 @@
       <c r="D11" s="25">
         <v>0.18335905640479999</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="41">
+        <f t="shared" si="2"/>
+        <v>0.14150921576045203</v>
+      </c>
+      <c r="G11" s="69">
+        <f>$T$7/((C11*(1-F11))+(D11*F11))</f>
+        <v>0.7286353397625045</v>
+      </c>
+      <c r="H11" s="53">
+        <f t="shared" si="3"/>
+        <v>0.10310861550514253</v>
+      </c>
+      <c r="I11" s="53">
+        <f t="shared" si="4"/>
+        <v>6.6120267031819779E-2</v>
+      </c>
+      <c r="J11" s="25">
+        <f>IF(I11&gt;0, ('BPV Calcs'!$B$8/12)+(I11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.57076339746587479</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="41">
         <f t="shared" si="0"/>
         <v>0.17090179823980461</v>
       </c>
-      <c r="G11" s="69">
-        <f>$M$7/((C11*(1-F11))+(D11*F11))</f>
+      <c r="M11" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H11" s="53">
-        <f t="shared" si="1"/>
+      <c r="N11" s="53">
+        <f t="shared" si="5"/>
         <v>0.12838569841542352</v>
       </c>
-      <c r="I11" s="25">
-        <f>IF(H11&gt;$G$55, $G$58-(G11*(1-F11)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.94982235639023971</v>
-      </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="53">
+        <f t="shared" si="6"/>
+        <v>9.1397349942100775E-2</v>
+      </c>
+      <c r="P11" s="25">
+        <f>IF(I11&gt;0, ('BPV Calcs'!$B$8/12)+(O11/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.68940568972357363</v>
+      </c>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>39.200000000000003</v>
       </c>
@@ -8896,26 +9326,51 @@
       <c r="D12" s="25">
         <v>0.18611099285759999</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="41">
+        <f t="shared" si="2"/>
+        <v>0.13884731825649951</v>
+      </c>
+      <c r="G12" s="69">
+        <f>$T$7/((C12*(1-F12))+(D12*F12))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H12" s="53">
+        <f t="shared" si="3"/>
+        <v>0.1011690629129371</v>
+      </c>
+      <c r="I12" s="53">
+        <f t="shared" si="4"/>
+        <v>6.4180714439614345E-2</v>
+      </c>
+      <c r="J12" s="25">
+        <f>IF(I12&gt;0, ('BPV Calcs'!$B$8/12)+(I12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.56165977715057258</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="41">
         <f t="shared" si="0"/>
         <v>0.16839248697229939</v>
       </c>
-      <c r="G12" s="69">
-        <f>$M$7/((C12*(1-F12))+(D12*F12))</f>
+      <c r="M12" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H12" s="53">
-        <f t="shared" si="1"/>
+      <c r="N12" s="53">
+        <f t="shared" si="5"/>
         <v>0.12650064113142523</v>
       </c>
-      <c r="I12" s="25">
-        <f>IF(H12&gt;$G$55, $G$58-(G12*(1-F12)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.94097451908225427</v>
-      </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="53">
+        <f t="shared" si="6"/>
+        <v>8.9512292658102482E-2</v>
+      </c>
+      <c r="P12" s="25">
+        <f>IF(I12&gt;0, ('BPV Calcs'!$B$8/12)+(O12/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.68055785241558797</v>
+      </c>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>40.1</v>
       </c>
@@ -8928,26 +9383,51 @@
       <c r="D13" s="25">
         <v>0.1889074790576</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="41">
+        <f t="shared" si="2"/>
+        <v>0.13614073631623833</v>
+      </c>
+      <c r="G13" s="69">
+        <f>$T$7/((C13*(1-F13))+(D13*F13))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H13" s="53">
+        <f t="shared" si="3"/>
+        <v>9.9196951661299826E-2</v>
+      </c>
+      <c r="I13" s="53">
+        <f t="shared" si="4"/>
+        <v>6.2208603187977073E-2</v>
+      </c>
+      <c r="J13" s="25">
+        <f>IF(I13&gt;0, ('BPV Calcs'!$B$8/12)+(I13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.55240333722386414</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="41">
         <f t="shared" si="0"/>
         <v>0.16584166910419268</v>
       </c>
-      <c r="G13" s="69">
-        <f>$M$7/((C13*(1-F13))+(D13*F13))</f>
+      <c r="M13" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H13" s="53">
-        <f t="shared" si="1"/>
+      <c r="N13" s="53">
+        <f t="shared" si="5"/>
         <v>0.12458440305259647</v>
       </c>
-      <c r="I13" s="25">
-        <f>IF(H13&gt;$G$55, $G$58-(G13*(1-F13)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.93198032940496134</v>
-      </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="53">
+        <f t="shared" si="6"/>
+        <v>8.7596054579273719E-2</v>
+      </c>
+      <c r="P13" s="25">
+        <f>IF(I13&gt;0, ('BPV Calcs'!$B$8/12)+(O13/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.67156366273829482</v>
+      </c>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>41</v>
       </c>
@@ -8960,26 +9440,51 @@
       <c r="D14" s="25">
         <v>0.19174958218079999</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.1333850924260572</v>
+      </c>
+      <c r="G14" s="69">
+        <f>$T$7/((C14*(1-F14))+(D14*F14))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H14" s="53">
+        <f t="shared" si="3"/>
+        <v>9.718909213911324E-2</v>
+      </c>
+      <c r="I14" s="53">
+        <f t="shared" si="4"/>
+        <v>6.0200743665790486E-2</v>
+      </c>
+      <c r="J14" s="25">
+        <f>IF(I14&gt;0, ('BPV Calcs'!$B$8/12)+(I14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.54297910670291372</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="41">
         <f t="shared" si="0"/>
         <v>0.16324517830239926</v>
       </c>
-      <c r="G14" s="69">
-        <f>$M$7/((C14*(1-F14))+(D14*F14))</f>
+      <c r="M14" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H14" s="53">
-        <f t="shared" si="1"/>
+      <c r="N14" s="53">
+        <f t="shared" si="5"/>
         <v>0.12263385432548642</v>
       </c>
-      <c r="I14" s="25">
-        <f>IF(H14&gt;$G$55, $G$58-(G14*(1-F14)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.9228250968583076</v>
-      </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="53">
+        <f t="shared" si="6"/>
+        <v>8.5645505852163656E-2</v>
+      </c>
+      <c r="P14" s="25">
+        <f>IF(I14&gt;0, ('BPV Calcs'!$B$8/12)+(O14/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.66240843019164086</v>
+      </c>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>41.9</v>
       </c>
@@ -8992,26 +9497,51 @@
       <c r="D15" s="25">
         <v>0.19463846641919999</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="41">
+        <f t="shared" si="2"/>
+        <v>0.13058032854768797</v>
+      </c>
+      <c r="G15" s="69">
+        <f>$T$7/((C15*(1-F15))+(D15*F15))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H15" s="53">
+        <f t="shared" si="3"/>
+        <v>9.5145442057644081E-2</v>
+      </c>
+      <c r="I15" s="53">
+        <f t="shared" si="4"/>
+        <v>5.8157093584321327E-2</v>
+      </c>
+      <c r="J15" s="25">
+        <f>IF(I15&gt;0, ('BPV Calcs'!$B$8/12)+(I15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.5333868870983518</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="41">
         <f t="shared" si="0"/>
         <v>0.16060302380499611</v>
       </c>
-      <c r="G15" s="69">
-        <f>$M$7/((C15*(1-F15))+(D15*F15))</f>
+      <c r="M15" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H15" s="53">
-        <f t="shared" si="1"/>
+      <c r="N15" s="53">
+        <f t="shared" si="5"/>
         <v>0.12064900188996915</v>
       </c>
-      <c r="I15" s="25">
-        <f>IF(H15&gt;$G$55, $G$58-(G15*(1-F15)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.91350885401577342</v>
-      </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="53">
+        <f t="shared" si="6"/>
+        <v>8.3660653416646386E-2</v>
+      </c>
+      <c r="P15" s="25">
+        <f>IF(I15&gt;0, ('BPV Calcs'!$B$8/12)+(O15/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.65309218734910679</v>
+      </c>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>42.8</v>
       </c>
@@ -9024,26 +9554,51 @@
       <c r="D16" s="25">
         <v>0.19757531536799999</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="41">
+        <f t="shared" si="2"/>
+        <v>0.12772299193084816</v>
+      </c>
+      <c r="G16" s="69">
+        <f>$T$7/((C16*(1-F16))+(D16*F16))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H16" s="53">
+        <f t="shared" si="3"/>
+        <v>9.3063485621017156E-2</v>
+      </c>
+      <c r="I16" s="53">
+        <f t="shared" si="4"/>
+        <v>5.6075137147694402E-2</v>
+      </c>
+      <c r="J16" s="25">
+        <f>IF(I16&gt;0, ('BPV Calcs'!$B$8/12)+(I16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.52361487009390451</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="41">
         <f t="shared" si="0"/>
         <v>0.15791193997714462</v>
       </c>
-      <c r="G16" s="69">
-        <f>$M$7/((C16*(1-F16))+(D16*F16))</f>
+      <c r="M16" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H16" s="53">
-        <f t="shared" si="1"/>
+      <c r="N16" s="53">
+        <f t="shared" si="5"/>
         <v>0.11862739251960797</v>
       </c>
-      <c r="I16" s="25">
-        <f>IF(H16&gt;$G$55, $G$58-(G16*(1-F16)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.90402008624139762</v>
-      </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O16" s="53">
+        <f t="shared" si="6"/>
+        <v>8.163904404628522E-2</v>
+      </c>
+      <c r="P16" s="25">
+        <f>IF(I16&gt;0, ('BPV Calcs'!$B$8/12)+(O16/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.64360341957473133</v>
+      </c>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>43.7</v>
       </c>
@@ -9056,26 +9611,51 @@
       <c r="D17" s="25">
         <v>0.20056135142879999</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="41">
+        <f t="shared" si="2"/>
+        <v>0.1248117746228357</v>
+      </c>
+      <c r="G17" s="69">
+        <f>$T$7/((C17*(1-F17))+(D17*F17))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H17" s="53">
+        <f t="shared" si="3"/>
+        <v>9.0942269808671011E-2</v>
+      </c>
+      <c r="I17" s="53">
+        <f t="shared" si="4"/>
+        <v>5.3953921335348258E-2</v>
+      </c>
+      <c r="J17" s="25">
+        <f>IF(I17&gt;0, ('BPV Calcs'!$B$8/12)+(I17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.51365858252530772</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="41">
         <f t="shared" si="0"/>
         <v>0.15517073555268265</v>
       </c>
-      <c r="G17" s="69">
-        <f>$M$7/((C17*(1-F17))+(D17*F17))</f>
+      <c r="M17" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H17" s="53">
-        <f t="shared" si="1"/>
+      <c r="N17" s="53">
+        <f t="shared" si="5"/>
         <v>0.11656813130551485</v>
       </c>
-      <c r="I17" s="25">
-        <f>IF(H17&gt;$G$55, $G$58-(G17*(1-F17)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.89435459312794929</v>
-      </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O17" s="53">
+        <f t="shared" si="6"/>
+        <v>7.9579782832192109E-2</v>
+      </c>
+      <c r="P17" s="25">
+        <f>IF(I17&gt;0, ('BPV Calcs'!$B$8/12)+(O17/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.63393792646128322</v>
+      </c>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>44.6</v>
       </c>
@@ -9088,26 +9668,51 @@
       <c r="D18" s="25">
         <v>0.20359789401919998</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="41">
+        <f t="shared" si="2"/>
+        <v>0.12184531722222625</v>
+      </c>
+      <c r="G18" s="69">
+        <f>$T$7/((C18*(1-F18))+(D18*F18))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H18" s="53">
+        <f t="shared" si="3"/>
+        <v>8.8780804112686948E-2</v>
+      </c>
+      <c r="I18" s="53">
+        <f t="shared" si="4"/>
+        <v>5.1792455639364195E-2</v>
+      </c>
+      <c r="J18" s="25">
+        <f>IF(I18&gt;0, ('BPV Calcs'!$B$8/12)+(I18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.50351337527500317</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="41">
         <f t="shared" si="0"/>
         <v>0.15237817442287846</v>
       </c>
-      <c r="G18" s="69">
-        <f>$M$7/((C18*(1-F18))+(D18*F18))</f>
+      <c r="M18" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H18" s="53">
-        <f t="shared" si="1"/>
+      <c r="N18" s="53">
+        <f t="shared" si="5"/>
         <v>0.11447028965194368</v>
       </c>
-      <c r="I18" s="25">
-        <f>IF(H18&gt;$G$55, $G$58-(G18*(1-F18)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.88450801615319419</v>
-      </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O18" s="53">
+        <f t="shared" si="6"/>
+        <v>7.7481941178620922E-2</v>
+      </c>
+      <c r="P18" s="25">
+        <f>IF(I18&gt;0, ('BPV Calcs'!$B$8/12)+(O18/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.62409134948652745</v>
+      </c>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>45.5</v>
       </c>
@@ -9120,26 +9725,51 @@
       <c r="D19" s="25">
         <v>0.20668630136319999</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="41">
+        <f t="shared" si="2"/>
+        <v>0.11882104131137136</v>
+      </c>
+      <c r="G19" s="69">
+        <f>$T$7/((C19*(1-F19))+(D19*F19))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H19" s="53">
+        <f t="shared" si="3"/>
+        <v>8.6577209806845648E-2</v>
+      </c>
+      <c r="I19" s="53">
+        <f t="shared" si="4"/>
+        <v>4.9588861333522895E-2</v>
+      </c>
+      <c r="J19" s="25">
+        <f>IF(I19&gt;0, ('BPV Calcs'!$B$8/12)+(I19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.493170430221613</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="41">
         <f t="shared" si="0"/>
         <v>0.14953184761109797</v>
       </c>
-      <c r="G19" s="69">
-        <f>$M$7/((C19*(1-F19))+(D19*F19))</f>
+      <c r="M19" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H19" s="53">
-        <f t="shared" si="1"/>
+      <c r="N19" s="53">
+        <f t="shared" si="5"/>
         <v>0.11233205787549259</v>
       </c>
-      <c r="I19" s="25">
-        <f>IF(H19&gt;$G$55, $G$58-(G19*(1-F19)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.87447186125997156</v>
-      </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O19" s="53">
+        <f t="shared" si="6"/>
+        <v>7.5343709402169834E-2</v>
+      </c>
+      <c r="P19" s="25">
+        <f>IF(I19&gt;0, ('BPV Calcs'!$B$8/12)+(O19/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.61405519459330482</v>
+      </c>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>46.4</v>
       </c>
@@ -9152,26 +9782,51 @@
       <c r="D20" s="25">
         <v>0.2098279704912</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="41">
+        <f t="shared" si="2"/>
+        <v>0.11573626116593252</v>
+      </c>
+      <c r="G20" s="69">
+        <f>$T$7/((C20*(1-F20))+(D20*F20))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H20" s="53">
+        <f t="shared" si="3"/>
+        <v>8.4329529977481194E-2</v>
+      </c>
+      <c r="I20" s="53">
+        <f t="shared" si="4"/>
+        <v>4.734118150415844E-2</v>
+      </c>
+      <c r="J20" s="25">
+        <f>IF(I20&gt;0, ('BPV Calcs'!$B$8/12)+(I20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.48262056225766659</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="41">
         <f t="shared" si="0"/>
         <v>0.14662924681830652</v>
       </c>
-      <c r="G20" s="69">
-        <f>$M$7/((C20*(1-F20))+(D20*F20))</f>
+      <c r="M20" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H20" s="53">
-        <f t="shared" si="1"/>
+      <c r="N20" s="53">
+        <f t="shared" si="5"/>
         <v>0.11015155167929216</v>
       </c>
-      <c r="I20" s="25">
-        <f>IF(H20&gt;$G$55, $G$58-(G20*(1-F20)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.86423728418010937</v>
-      </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O20" s="53">
+        <f t="shared" si="6"/>
+        <v>7.3163203205969418E-2</v>
+      </c>
+      <c r="P20" s="25">
+        <f>IF(I20&gt;0, ('BPV Calcs'!$B$8/12)+(O20/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.60382061751344285</v>
+      </c>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>47.3</v>
       </c>
@@ -9184,26 +9839,51 @@
       <c r="D21" s="25">
         <v>0.21302437604639998</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="41">
+        <f t="shared" si="2"/>
+        <v>0.11258936129657487</v>
+      </c>
+      <c r="G21" s="69">
+        <f>$T$7/((C21*(1-F21))+(D21*F21))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H21" s="53">
+        <f t="shared" si="3"/>
+        <v>8.2036587521973195E-2</v>
+      </c>
+      <c r="I21" s="53">
+        <f t="shared" si="4"/>
+        <v>4.5048239048650442E-2</v>
+      </c>
+      <c r="J21" s="25">
+        <f>IF(I21&gt;0, ('BPV Calcs'!$B$8/12)+(I21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.47185824645160424</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="41">
         <f t="shared" si="0"/>
         <v>0.14366890189539364</v>
       </c>
-      <c r="G21" s="69">
-        <f>$M$7/((C21*(1-F21))+(D21*F21))</f>
+      <c r="M21" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H21" s="53">
-        <f t="shared" si="1"/>
+      <c r="N21" s="53">
+        <f t="shared" si="5"/>
         <v>0.10792766665061956</v>
       </c>
-      <c r="I21" s="25">
-        <f>IF(H21&gt;$G$55, $G$58-(G21*(1-F21)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.85379910116445856</v>
-      </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O21" s="53">
+        <f t="shared" si="6"/>
+        <v>7.0939318177296817E-2</v>
+      </c>
+      <c r="P21" s="25">
+        <f>IF(I21&gt;0, ('BPV Calcs'!$B$8/12)+(O21/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.59338243449779193</v>
+      </c>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>48.2</v>
       </c>
@@ -9216,26 +9896,51 @@
       <c r="D22" s="25">
         <v>0.21627710909119999</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="41">
+        <f t="shared" si="2"/>
+        <v>0.10937627096550176</v>
+      </c>
+      <c r="G22" s="69">
+        <f>$T$7/((C22*(1-F22))+(D22*F22))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H22" s="53">
+        <f t="shared" si="3"/>
+        <v>7.9695416356904122E-2</v>
+      </c>
+      <c r="I22" s="53">
+        <f t="shared" si="4"/>
+        <v>4.2707067883581369E-2</v>
+      </c>
+      <c r="J22" s="25">
+        <f>IF(I22&gt;0, ('BPV Calcs'!$B$8/12)+(I22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.46086956098590726</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="41">
         <f t="shared" si="0"/>
         <v>0.14064697985759764</v>
       </c>
-      <c r="G22" s="69">
-        <f>$M$7/((C22*(1-F22))+(D22*F22))</f>
+      <c r="M22" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H22" s="53">
-        <f t="shared" si="1"/>
+      <c r="N22" s="53">
+        <f t="shared" si="5"/>
         <v>0.10565752335560866</v>
       </c>
-      <c r="I22" s="25">
-        <f>IF(H22&gt;$G$55, $G$58-(G22*(1-F22)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.84314379709992204</v>
-      </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O22" s="53">
+        <f t="shared" si="6"/>
+        <v>6.866917488228591E-2</v>
+      </c>
+      <c r="P22" s="25">
+        <f>IF(I22&gt;0, ('BPV Calcs'!$B$8/12)+(O22/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.58272713043325564</v>
+      </c>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>49.1</v>
       </c>
@@ -9248,26 +9953,51 @@
       <c r="D23" s="25">
         <v>0.21958774128479999</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="41">
+        <f t="shared" si="2"/>
+        <v>0.10609514903040819</v>
+      </c>
+      <c r="G23" s="69">
+        <f>$T$7/((C23*(1-F23))+(D23*F23))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H23" s="53">
+        <f t="shared" si="3"/>
+        <v>7.730467496092501E-2</v>
+      </c>
+      <c r="I23" s="53">
+        <f t="shared" si="4"/>
+        <v>4.0316326487602257E-2</v>
+      </c>
+      <c r="J23" s="25">
+        <f>IF(I23&gt;0, ('BPV Calcs'!$B$8/12)+(I23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.44964820920171994</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="41">
         <f t="shared" si="0"/>
         <v>0.13756180288548553</v>
       </c>
-      <c r="G23" s="69">
-        <f>$M$7/((C23*(1-F23))+(D23*F23))</f>
+      <c r="M23" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H23" s="53">
-        <f t="shared" si="1"/>
+      <c r="N23" s="53">
+        <f t="shared" si="5"/>
         <v>0.10333986137440462</v>
       </c>
-      <c r="I23" s="25">
-        <f>IF(H23&gt;$G$55, $G$58-(G23*(1-F23)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.83226545599131585</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O23" s="53">
+        <f t="shared" si="6"/>
+        <v>6.6351512901081877E-2</v>
+      </c>
+      <c r="P23" s="25">
+        <f>IF(I23&gt;0, ('BPV Calcs'!$B$8/12)+(O23/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.57184878932464911</v>
+      </c>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>50</v>
       </c>
@@ -9280,26 +10010,51 @@
       <c r="D24" s="25">
         <v>0.22295801891519998</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="41">
+        <f t="shared" si="2"/>
+        <v>0.10274285797407841</v>
+      </c>
+      <c r="G24" s="69">
+        <f>$T$7/((C24*(1-F24))+(D24*F24))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H24" s="53">
+        <f t="shared" si="3"/>
+        <v>7.4862077228113361E-2</v>
+      </c>
+      <c r="I24" s="53">
+        <f t="shared" si="4"/>
+        <v>3.7873728754790607E-2</v>
+      </c>
+      <c r="J24" s="25">
+        <f>IF(I24&gt;0, ('BPV Calcs'!$B$8/12)+(I24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.43818346087166787</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>0.13441045075864813</v>
       </c>
-      <c r="G24" s="69">
-        <f>$M$7/((C24*(1-F24))+(D24*F24))</f>
+      <c r="M24" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H24" s="53">
-        <f t="shared" si="1"/>
+      <c r="N24" s="53">
+        <f t="shared" si="5"/>
         <v>0.10097248696451551</v>
       </c>
-      <c r="I24" s="25">
-        <f>IF(H24&gt;$G$55, $G$58-(G24*(1-F24)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.8211537811347509</v>
-      </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O24" s="53">
+        <f t="shared" si="6"/>
+        <v>6.3984138491192749E-2</v>
+      </c>
+      <c r="P24" s="25">
+        <f>IF(I24&gt;0, ('BPV Calcs'!$B$8/12)+(O24/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.56073711446808461</v>
+      </c>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>50.9</v>
       </c>
@@ -9312,26 +10067,51 @@
       <c r="D25" s="25">
         <v>0.22638970767359998</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="41">
+        <f t="shared" si="2"/>
+        <v>9.9317342419351473E-2</v>
+      </c>
+      <c r="G25" s="69">
+        <f>$T$7/((C25*(1-F25))+(D25*F25))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H25" s="53">
+        <f t="shared" si="3"/>
+        <v>7.2366125538033149E-2</v>
+      </c>
+      <c r="I25" s="53">
+        <f t="shared" si="4"/>
+        <v>3.5377777064710396E-2</v>
+      </c>
+      <c r="J25" s="25">
+        <f>IF(I25&gt;0, ('BPV Calcs'!$B$8/12)+(I25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.42646828665925313</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="41">
         <f t="shared" si="0"/>
         <v>0.13119105233236464</v>
       </c>
-      <c r="G25" s="69">
-        <f>$M$7/((C25*(1-F25))+(D25*F25))</f>
+      <c r="M25" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H25" s="53">
-        <f t="shared" si="1"/>
+      <c r="N25" s="53">
+        <f t="shared" si="5"/>
         <v>9.8553994475302747E-2</v>
       </c>
-      <c r="I25" s="25">
-        <f>IF(H25&gt;$G$55, $G$58-(G25*(1-F25)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.80980217486963424</v>
-      </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O25" s="53">
+        <f t="shared" si="6"/>
+        <v>6.1565646001979994E-2</v>
+      </c>
+      <c r="P25" s="25">
+        <f>IF(I25&gt;0, ('BPV Calcs'!$B$8/12)+(O25/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.54938550820296761</v>
+      </c>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>51.8</v>
       </c>
@@ -9344,26 +10124,51 @@
       <c r="D26" s="25">
         <v>0.22988470907359998</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="41">
+        <f t="shared" si="2"/>
+        <v>9.5813964526532028E-2</v>
+      </c>
+      <c r="G26" s="69">
+        <f>$T$7/((C26*(1-F26))+(D26*F26))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H26" s="53">
+        <f t="shared" si="3"/>
+        <v>6.9813440596782211E-2</v>
+      </c>
+      <c r="I26" s="53">
+        <f t="shared" si="4"/>
+        <v>3.2825092123459458E-2</v>
+      </c>
+      <c r="J26" s="25">
+        <f>IF(I26&gt;0, ('BPV Calcs'!$B$8/12)+(I26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.41448682527319503</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="41">
         <f t="shared" si="0"/>
         <v>0.12789925363670013</v>
       </c>
-      <c r="G26" s="69">
-        <f>$M$7/((C26*(1-F26))+(D26*F26))</f>
+      <c r="M26" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H26" s="53">
-        <f t="shared" si="1"/>
+      <c r="N26" s="53">
+        <f t="shared" si="5"/>
         <v>9.6081113095828549E-2</v>
       </c>
-      <c r="I26" s="25">
-        <f>IF(H26&gt;$G$55, $G$58-(G26*(1-F26)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.79819528508794724</v>
-      </c>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O26" s="53">
+        <f t="shared" si="6"/>
+        <v>5.9092764622505796E-2</v>
+      </c>
+      <c r="P26" s="25">
+        <f>IF(I26&gt;0, ('BPV Calcs'!$B$8/12)+(O26/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.5377786184212805</v>
+      </c>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>52.7</v>
       </c>
@@ -9376,26 +10181,51 @@
       <c r="D27" s="25">
         <v>0.23344498283839998</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="41">
+        <f t="shared" si="2"/>
+        <v>9.2229125421012484E-2</v>
+      </c>
+      <c r="G27" s="69">
+        <f>$T$7/((C27*(1-F27))+(D27*F27))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H27" s="53">
+        <f t="shared" si="3"/>
+        <v>6.7201400137138059E-2</v>
+      </c>
+      <c r="I27" s="53">
+        <f t="shared" si="4"/>
+        <v>3.0213051663815306E-2</v>
+      </c>
+      <c r="J27" s="25">
+        <f>IF(I27&gt;0, ('BPV Calcs'!$B$8/12)+(I27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.40222676865582369</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="41">
         <f t="shared" si="0"/>
         <v>0.12453171014032675</v>
       </c>
-      <c r="G27" s="69">
-        <f>$M$7/((C27*(1-F27))+(D27*F27))</f>
+      <c r="M27" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H27" s="53">
-        <f t="shared" si="1"/>
+      <c r="N27" s="53">
+        <f t="shared" si="5"/>
         <v>9.3551330330643362E-2</v>
       </c>
-      <c r="I27" s="25">
-        <f>IF(H27&gt;$G$55, $G$58-(G27*(1-F27)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.78632131896452595</v>
-      </c>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O27" s="53">
+        <f t="shared" si="6"/>
+        <v>5.6562981857320609E-2</v>
+      </c>
+      <c r="P27" s="25">
+        <f>IF(I27&gt;0, ('BPV Calcs'!$B$8/12)+(O27/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.5259046522978591</v>
+      </c>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>53.6</v>
       </c>
@@ -9408,26 +10238,51 @@
       <c r="D28" s="25">
         <v>0.23707262451360001</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="41">
+        <f t="shared" si="2"/>
+        <v>8.8560323374262145E-2</v>
+      </c>
+      <c r="G28" s="69">
+        <f>$T$7/((C28*(1-F28))+(D28*F28))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H28" s="53">
+        <f t="shared" si="3"/>
+        <v>6.4528181311282753E-2</v>
+      </c>
+      <c r="I28" s="53">
+        <f t="shared" si="4"/>
+        <v>2.753983283796E-2</v>
+      </c>
+      <c r="J28" s="25">
+        <f>IF(I28&gt;0, ('BPV Calcs'!$B$8/12)+(I28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.38967956096055162</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="41">
         <f t="shared" si="0"/>
         <v>0.12108614470086151</v>
       </c>
-      <c r="G28" s="69">
-        <f>$M$7/((C28*(1-F28))+(D28*F28))</f>
+      <c r="M28" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H28" s="53">
-        <f t="shared" si="1"/>
+      <c r="N28" s="53">
+        <f t="shared" si="5"/>
         <v>9.0962935533526718E-2</v>
       </c>
-      <c r="I28" s="25">
-        <f>IF(H28&gt;$G$55, $G$58-(G28*(1-F28)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.7741722472900836</v>
-      </c>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O28" s="53">
+        <f t="shared" si="6"/>
+        <v>5.3974587060203964E-2</v>
+      </c>
+      <c r="P28" s="25">
+        <f>IF(I28&gt;0, ('BPV Calcs'!$B$8/12)+(O28/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.51375558062341697</v>
+      </c>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>54.5</v>
       </c>
@@ -9440,26 +10295,51 @@
       <c r="D29" s="25">
         <v>0.2407698072576</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="41">
+        <f t="shared" si="2"/>
+        <v>8.4801071831599392E-2</v>
+      </c>
+      <c r="G29" s="69">
+        <f>$T$7/((C29*(1-F29))+(D29*F29))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H29" s="53">
+        <f t="shared" si="3"/>
+        <v>6.1789057786241962E-2</v>
+      </c>
+      <c r="I29" s="53">
+        <f t="shared" si="4"/>
+        <v>2.4800709312919209E-2</v>
+      </c>
+      <c r="J29" s="25">
+        <f>IF(I29&gt;0, ('BPV Calcs'!$B$8/12)+(I29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.37682301833886922</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="41">
         <f t="shared" si="0"/>
         <v>0.11755644588442445</v>
       </c>
-      <c r="G29" s="69">
-        <f>$M$7/((C29*(1-F29))+(D29*F29))</f>
+      <c r="M29" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H29" s="53">
-        <f t="shared" si="1"/>
+      <c r="N29" s="53">
+        <f t="shared" si="5"/>
         <v>8.8311337642739754E-2</v>
       </c>
-      <c r="I29" s="25">
-        <f>IF(H29&gt;$G$55, $G$58-(G29*(1-F29)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.76172652113468597</v>
-      </c>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O29" s="53">
+        <f t="shared" si="6"/>
+        <v>5.1322989169417001E-2</v>
+      </c>
+      <c r="P29" s="25">
+        <f>IF(I29&gt;0, ('BPV Calcs'!$B$8/12)+(O29/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.50130985446801912</v>
+      </c>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>55.4</v>
       </c>
@@ -9472,26 +10352,51 @@
       <c r="D30" s="25">
         <v>0.24453885945439999</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="41">
+        <f t="shared" si="2"/>
+        <v>8.0949764895709625E-2</v>
+      </c>
+      <c r="G30" s="69">
+        <f>$T$7/((C30*(1-F30))+(D30*F30))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H30" s="53">
+        <f t="shared" si="3"/>
+        <v>5.8982859448480231E-2</v>
+      </c>
+      <c r="I30" s="53">
+        <f t="shared" si="4"/>
+        <v>2.1994510975157477E-2</v>
+      </c>
+      <c r="J30" s="25">
+        <f>IF(I30&gt;0, ('BPV Calcs'!$B$8/12)+(I30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.36365164866367694</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="41">
         <f t="shared" si="0"/>
         <v>0.11394121977368245</v>
       </c>
-      <c r="G30" s="69">
-        <f>$M$7/((C30*(1-F30))+(D30*F30))</f>
+      <c r="M30" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H30" s="53">
-        <f t="shared" si="1"/>
+      <c r="N30" s="53">
+        <f t="shared" si="5"/>
         <v>8.5595489512774417E-2</v>
       </c>
-      <c r="I30" s="25">
-        <f>IF(H30&gt;$G$55, $G$58-(G30*(1-F30)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.74897922554260532</v>
-      </c>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O30" s="53">
+        <f t="shared" si="6"/>
+        <v>4.8607141039451664E-2</v>
+      </c>
+      <c r="P30" s="25">
+        <f>IF(I30&gt;0, ('BPV Calcs'!$B$8/12)+(O30/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.48856255887593891</v>
+      </c>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>56.3</v>
       </c>
@@ -9504,26 +10409,51 @@
       <c r="D31" s="25">
         <v>0.24838222590720002</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="41">
+        <f t="shared" si="2"/>
+        <v>7.7000755915053343E-2</v>
+      </c>
+      <c r="G31" s="69">
+        <f>$T$7/((C31*(1-F31))+(D31*F31))</f>
+        <v>0.7286353397625045</v>
+      </c>
+      <c r="H31" s="53">
+        <f t="shared" si="3"/>
+        <v>5.6105471948134568E-2</v>
+      </c>
+      <c r="I31" s="53">
+        <f t="shared" si="4"/>
+        <v>1.9117123474811815E-2</v>
+      </c>
+      <c r="J31" s="25">
+        <f>IF(I31&gt;0, ('BPV Calcs'!$B$8/12)+(I31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.3501461405333931</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="41">
         <f t="shared" si="0"/>
         <v>0.11023518674553594</v>
       </c>
-      <c r="G31" s="69">
-        <f>$M$7/((C31*(1-F31))+(D31*F31))</f>
+      <c r="M31" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492413</v>
       </c>
-      <c r="H31" s="53">
-        <f t="shared" si="1"/>
+      <c r="N31" s="53">
+        <f t="shared" si="5"/>
         <v>8.2811424958921173E-2</v>
       </c>
-      <c r="I31" s="25">
-        <f>IF(H31&gt;$G$55, $G$58-(G31*(1-F31)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.73591174455063557</v>
-      </c>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O31" s="53">
+        <f t="shared" si="6"/>
+        <v>4.582307648559842E-2</v>
+      </c>
+      <c r="P31" s="25">
+        <f>IF(I31&gt;0, ('BPV Calcs'!$B$8/12)+(O31/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.4754950778839685</v>
+      </c>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>57.2</v>
       </c>
@@ -9536,26 +10466,51 @@
       <c r="D32" s="25">
         <v>0.25230250664479997</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="41">
+        <f t="shared" si="2"/>
+        <v>7.2949435155999456E-2</v>
+      </c>
+      <c r="G32" s="69">
+        <f>$T$7/((C32*(1-F32))+(D32*F32))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H32" s="53">
+        <f t="shared" si="3"/>
+        <v>5.3153536470374449E-2</v>
+      </c>
+      <c r="I32" s="53">
+        <f t="shared" si="4"/>
+        <v>1.6165187997051696E-2</v>
+      </c>
+      <c r="J32" s="25">
+        <f>IF(I32&gt;0, ('BPV Calcs'!$B$8/12)+(I32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.33629072877874644</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="41">
         <f t="shared" si="0"/>
         <v>0.10643407956180023</v>
       </c>
-      <c r="G32" s="69">
-        <f>$M$7/((C32*(1-F32))+(D32*F32))</f>
+      <c r="M32" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H32" s="53">
-        <f t="shared" si="1"/>
+      <c r="N32" s="53">
+        <f t="shared" si="5"/>
         <v>7.9955938325298792E-2</v>
       </c>
-      <c r="I32" s="25">
-        <f>IF(H32&gt;$G$55, $G$58-(G32*(1-F32)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.72250903186710858</v>
-      </c>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O32" s="53">
+        <f t="shared" si="6"/>
+        <v>4.2967589851976039E-2</v>
+      </c>
+      <c r="P32" s="25">
+        <f>IF(I32&gt;0, ('BPV Calcs'!$B$8/12)+(O32/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.46209236520044183</v>
+      </c>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>58.1</v>
       </c>
@@ -9568,26 +10523,51 @@
       <c r="D33" s="25">
         <v>0.25630243751839998</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="41">
+        <f t="shared" si="2"/>
+        <v>6.8789593883226779E-2</v>
+      </c>
+      <c r="G33" s="69">
+        <f>$T$7/((C33*(1-F33))+(D33*F33))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H33" s="53">
+        <f t="shared" si="3"/>
+        <v>5.0122529111229636E-2</v>
+      </c>
+      <c r="I33" s="53">
+        <f t="shared" si="4"/>
+        <v>1.3134180637906882E-2</v>
+      </c>
+      <c r="J33" s="25">
+        <f>IF(I33&gt;0, ('BPV Calcs'!$B$8/12)+(I33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.32206417968622314</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="41">
         <f t="shared" si="0"/>
         <v>0.10253210256655709</v>
       </c>
-      <c r="G33" s="69">
-        <f>$M$7/((C33*(1-F33))+(D33*F33))</f>
+      <c r="M33" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H33" s="53">
-        <f t="shared" si="1"/>
+      <c r="N33" s="53">
+        <f t="shared" si="5"/>
         <v>7.7024675770458517E-2</v>
       </c>
-      <c r="I33" s="25">
-        <f>IF(H33&gt;$G$55, $G$58-(G33*(1-F33)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.70875065199591081</v>
-      </c>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O33" s="53">
+        <f t="shared" si="6"/>
+        <v>4.0036327297135764E-2</v>
+      </c>
+      <c r="P33" s="25">
+        <f>IF(I33&gt;0, ('BPV Calcs'!$B$8/12)+(O33/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.44833398532924401</v>
+      </c>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>59</v>
       </c>
@@ -9600,26 +10580,51 @@
       <c r="D34" s="25">
         <v>0.26038490960479999</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="41">
+        <f t="shared" si="2"/>
+        <v>6.4516045601971481E-2</v>
+      </c>
+      <c r="G34" s="69">
+        <f>$T$7/((C34*(1-F34))+(D34*F34))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H34" s="53">
+        <f t="shared" si="3"/>
+        <v>4.7008670807325716E-2</v>
+      </c>
+      <c r="I34" s="53">
+        <f t="shared" si="4"/>
+        <v>1.0020322334002962E-2</v>
+      </c>
+      <c r="J34" s="25">
+        <f>IF(I34&gt;0, ('BPV Calcs'!$B$8/12)+(I34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.30744875557846069</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="41">
         <f t="shared" si="0"/>
         <v>9.8524459836365458E-2</v>
       </c>
-      <c r="G34" s="69">
-        <f>$M$7/((C34*(1-F34))+(D34*F34))</f>
+      <c r="M34" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H34" s="53">
-        <f t="shared" si="1"/>
+      <c r="N34" s="53">
+        <f t="shared" si="5"/>
         <v>7.4014034476952761E-2</v>
       </c>
-      <c r="I34" s="25">
-        <f>IF(H34&gt;$G$55, $G$58-(G34*(1-F34)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.69461969449994321</v>
-      </c>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O34" s="53">
+        <f t="shared" si="6"/>
+        <v>3.7025686003630008E-2</v>
+      </c>
+      <c r="P34" s="25">
+        <f>IF(I34&gt;0, ('BPV Calcs'!$B$8/12)+(O34/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.43420302783327736</v>
+      </c>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>59.9</v>
       </c>
@@ -9632,26 +10637,51 @@
       <c r="D35" s="25">
         <v>0.26455302741599995</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="41">
+        <f t="shared" si="2"/>
+        <v>6.0121926464803473E-2</v>
+      </c>
+      <c r="G35" s="69">
+        <f>$T$7/((C35*(1-F35))+(D35*F35))</f>
+        <v>0.7286353397625045</v>
+      </c>
+      <c r="H35" s="53">
+        <f t="shared" si="3"/>
+        <v>4.3806960316858386E-2</v>
+      </c>
+      <c r="I35" s="53">
+        <f t="shared" si="4"/>
+        <v>6.8186118435356324E-3</v>
+      </c>
+      <c r="J35" s="25">
+        <f>IF(I35&gt;0, ('BPV Calcs'!$B$8/12)+(I35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.29242098227555063</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="41">
         <f t="shared" si="0"/>
         <v>9.4404755900095283E-2</v>
       </c>
-      <c r="G35" s="69">
-        <f>$M$7/((C35*(1-F35))+(D35*F35))</f>
+      <c r="M35" s="69">
+        <f t="shared" si="1"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H35" s="53">
-        <f t="shared" si="1"/>
+      <c r="N35" s="53">
+        <f t="shared" si="5"/>
         <v>7.0919210007167707E-2</v>
       </c>
-      <c r="I35" s="25">
-        <f>IF(H35&gt;$G$55, $G$58-(G35*(1-F35)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.68009360893327475</v>
-      </c>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O35" s="53">
+        <f t="shared" si="6"/>
+        <v>3.3930861533844954E-2</v>
+      </c>
+      <c r="P35" s="25">
+        <f>IF(I35&gt;0, ('BPV Calcs'!$B$8/12)+(O35/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.41967694226660884</v>
+      </c>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>60.8</v>
       </c>
@@ -9664,26 +10694,51 @@
       <c r="D36" s="25">
         <v>0.2688100700928</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="41">
-        <f t="shared" ref="F36:F53" si="2">($C$53-C36)/(D36-C36)</f>
+        <f t="shared" si="2"/>
+        <v>5.5601372945089003E-2</v>
+      </c>
+      <c r="G36" s="69">
+        <f>$T$7/((C36*(1-F36))+(D36*F36))</f>
+        <v>0.7286353397625045</v>
+      </c>
+      <c r="H36" s="53">
+        <f t="shared" si="3"/>
+        <v>4.0513125267106653E-2</v>
+      </c>
+      <c r="I36" s="53">
+        <f t="shared" si="4"/>
+        <v>3.5247767937839E-3</v>
+      </c>
+      <c r="J36" s="25">
+        <f>IF(I36&gt;0, ('BPV Calcs'!$B$8/12)+(I36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.27696080666872258</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="41">
+        <f t="shared" ref="L36:L53" si="7">($C$53-C36)/(D36-C36)</f>
         <v>9.0167576361954008E-2</v>
       </c>
-      <c r="G36" s="69">
-        <f>$M$7/((C36*(1-F36))+(D36*F36))</f>
+      <c r="M36" s="69">
+        <f t="shared" ref="M36:M67" si="8">$T$7/((C36*(1-L36))+(D36*L36))</f>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H36" s="53">
-        <f t="shared" si="1"/>
+      <c r="N36" s="53">
+        <f t="shared" si="5"/>
         <v>6.7736134931781461E-2</v>
       </c>
-      <c r="I36" s="25">
-        <f>IF(H36&gt;$G$55, $G$58-(G36*(1-F36)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.66515330412387197</v>
-      </c>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O36" s="53">
+        <f t="shared" si="6"/>
+        <v>3.0747786458458708E-2</v>
+      </c>
+      <c r="P36" s="25">
+        <f>IF(I36&gt;0, ('BPV Calcs'!$B$8/12)+(O36/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.40473663745720501</v>
+      </c>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>61.7</v>
       </c>
@@ -9696,26 +10751,51 @@
       <c r="D37" s="25">
         <v>0.27315953021120004</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="41">
         <f t="shared" si="2"/>
+        <v>5.0946747774153422E-2</v>
+      </c>
+      <c r="G37" s="69">
+        <f>$T$7/((C37*(1-F37))+(D37*F37))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H37" s="53">
+        <f t="shared" si="3"/>
+        <v>3.7121600874214893E-2</v>
+      </c>
+      <c r="I37" s="53">
+        <f t="shared" si="4"/>
+        <v>1.332524008921393E-4</v>
+      </c>
+      <c r="J37" s="25">
+        <f>IF(I37&gt;0, ('BPV Calcs'!$B$8/12)+(I37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.26104210949750278</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="41">
+        <f t="shared" si="7"/>
         <v>8.5805817247007074E-2</v>
       </c>
-      <c r="G37" s="69">
-        <f>$M$7/((C37*(1-F37))+(D37*F37))</f>
+      <c r="M37" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H37" s="53">
-        <f t="shared" si="1"/>
+      <c r="N37" s="53">
+        <f t="shared" si="5"/>
         <v>6.4459472567430315E-2</v>
       </c>
-      <c r="I37" s="25">
-        <f>IF(H37&gt;$G$55, $G$58-(G37*(1-F37)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.64977373143975337</v>
-      </c>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O37" s="53">
+        <f t="shared" si="6"/>
+        <v>2.7471124094107562E-2</v>
+      </c>
+      <c r="P37" s="25">
+        <f>IF(I37&gt;0, ('BPV Calcs'!$B$8/12)+(O37/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>0.38935706477308674</v>
+      </c>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>62.6</v>
       </c>
@@ -9728,26 +10808,51 @@
       <c r="D38" s="25">
         <v>0.27760515258880003</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="41">
         <f t="shared" si="2"/>
+        <v>4.6149947630415508E-2</v>
+      </c>
+      <c r="G38" s="69">
+        <f>$T$7/((C38*(1-F38))+(D38*F38))</f>
+        <v>0.72863533976250427</v>
+      </c>
+      <c r="H38" s="53">
+        <f t="shared" si="3"/>
+        <v>3.3626482771709584E-2</v>
+      </c>
+      <c r="I38" s="53">
+        <f t="shared" si="4"/>
+        <v>-3.3618657016131689E-3</v>
+      </c>
+      <c r="J38" s="25" t="str">
+        <f>IF(I38&gt;0, ('BPV Calcs'!$B$8/12)+(I38/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="41">
+        <f t="shared" si="7"/>
         <v>8.1311947956176495E-2</v>
       </c>
-      <c r="G38" s="69">
-        <f>$M$7/((C38*(1-F38))+(D38*F38))</f>
+      <c r="M38" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H38" s="53">
-        <f t="shared" si="1"/>
+      <c r="N38" s="53">
+        <f t="shared" si="5"/>
         <v>6.1083565740040757E-2</v>
       </c>
-      <c r="I38" s="25">
-        <f>IF(H38&gt;$G$55, $G$58-(G38*(1-F38)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.63392833797122883</v>
-      </c>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O38" s="53">
+        <f t="shared" si="6"/>
+        <v>2.4095217266718004E-2</v>
+      </c>
+      <c r="P38" s="25" t="str">
+        <f>IF(I38&gt;0, ('BPV Calcs'!$B$8/12)+(O38/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>63.5</v>
       </c>
@@ -9760,26 +10865,51 @@
       <c r="D39" s="25">
         <v>0.28215091488159999</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="53"/>
       <c r="F39" s="41">
         <f t="shared" si="2"/>
+        <v>4.1202358029293618E-2</v>
+      </c>
+      <c r="G39" s="69">
+        <f>$T$7/((C39*(1-F39))+(D39*F39))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H39" s="53">
+        <f t="shared" si="3"/>
+        <v>3.0021494141690707E-2</v>
+      </c>
+      <c r="I39" s="53">
+        <f t="shared" si="4"/>
+        <v>-6.9668543316320462E-3</v>
+      </c>
+      <c r="J39" s="25" t="str">
+        <f>IF(I39&gt;0, ('BPV Calcs'!$B$8/12)+(I39/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="41">
+        <f t="shared" si="7"/>
         <v>7.6677969006389013E-2</v>
       </c>
-      <c r="G39" s="69">
-        <f>$M$7/((C39*(1-F39))+(D39*F39))</f>
+      <c r="M39" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H39" s="53">
-        <f t="shared" si="1"/>
+      <c r="N39" s="53">
+        <f t="shared" si="5"/>
         <v>5.7602405038173606E-2</v>
       </c>
-      <c r="I39" s="25">
-        <f>IF(H39&gt;$G$55, $G$58-(G39*(1-F39)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.61758891752256018</v>
-      </c>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O39" s="53">
+        <f t="shared" si="6"/>
+        <v>2.0614056564850852E-2</v>
+      </c>
+      <c r="P39" s="25" t="str">
+        <f>IF(I39&gt;0, ('BPV Calcs'!$B$8/12)+(O39/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>64.400000000000006</v>
       </c>
@@ -9792,26 +10922,51 @@
       <c r="D40" s="25">
         <v>0.28680106639039998</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="41">
         <f t="shared" si="2"/>
+        <v>3.6096283439178707E-2</v>
+      </c>
+      <c r="G40" s="69">
+        <f>$T$7/((C40*(1-F40))+(D40*F40))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H40" s="53">
+        <f t="shared" si="3"/>
+        <v>2.6301027747869639E-2</v>
+      </c>
+      <c r="I40" s="53">
+        <f t="shared" si="4"/>
+        <v>-1.0687320725453114E-2</v>
+      </c>
+      <c r="J40" s="25" t="str">
+        <f>IF(I40&gt;0, ('BPV Calcs'!$B$8/12)+(I40/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="41">
+        <f t="shared" si="7"/>
         <v>7.1896792063500151E-2</v>
       </c>
-      <c r="G40" s="69">
-        <f>$M$7/((C40*(1-F40))+(D40*F40))</f>
+      <c r="M40" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H40" s="53">
-        <f t="shared" si="1"/>
+      <c r="N40" s="53">
+        <f t="shared" si="5"/>
         <v>5.4010665528217192E-2</v>
       </c>
-      <c r="I40" s="25">
-        <f>IF(H40&gt;$G$55, $G$58-(G40*(1-F40)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.60073047661123002</v>
-      </c>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O40" s="53">
+        <f t="shared" si="6"/>
+        <v>1.7022317054894438E-2</v>
+      </c>
+      <c r="P40" s="25" t="str">
+        <f>IF(I40&gt;0, ('BPV Calcs'!$B$8/12)+(O40/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>65.3</v>
       </c>
@@ -9824,26 +10979,51 @@
       <c r="D41" s="25">
         <v>0.29156020567359997</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="53"/>
       <c r="F41" s="41">
         <f t="shared" si="2"/>
+        <v>3.0819003777835637E-2</v>
+      </c>
+      <c r="G41" s="69">
+        <f>$T$7/((C41*(1-F41))+(D41*F41))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H41" s="53">
+        <f t="shared" si="3"/>
+        <v>2.2455815288805175E-2</v>
+      </c>
+      <c r="I41" s="53">
+        <f t="shared" si="4"/>
+        <v>-1.4532533184517579E-2</v>
+      </c>
+      <c r="J41" s="25" t="str">
+        <f>IF(I41&gt;0, ('BPV Calcs'!$B$8/12)+(I41/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="41">
+        <f t="shared" si="7"/>
         <v>6.6956521460969767E-2</v>
       </c>
-      <c r="G41" s="69">
-        <f>$M$7/((C41*(1-F41))+(D41*F41))</f>
+      <c r="M41" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H41" s="53">
-        <f t="shared" si="1"/>
+      <c r="N41" s="53">
+        <f t="shared" si="5"/>
         <v>5.0299410888420645E-2</v>
       </c>
-      <c r="I41" s="25">
-        <f>IF(H41&gt;$G$55, $G$58-(G41*(1-F41)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.58331107108962232</v>
-      </c>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O41" s="53">
+        <f t="shared" si="6"/>
+        <v>1.3311062415097892E-2</v>
+      </c>
+      <c r="P41" s="25" t="str">
+        <f>IF(I41&gt;0, ('BPV Calcs'!$B$8/12)+(O41/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>66.2</v>
       </c>
@@ -9856,26 +11036,51 @@
       <c r="D42" s="25">
         <v>0.29643326114399998</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="53"/>
       <c r="F42" s="41">
         <f t="shared" si="2"/>
+        <v>2.5359990565452944E-2</v>
+      </c>
+      <c r="G42" s="69">
+        <f>$T$7/((C42*(1-F42))+(D42*F42))</f>
+        <v>0.72863533976250427</v>
+      </c>
+      <c r="H42" s="53">
+        <f t="shared" si="3"/>
+        <v>1.8478185342032709E-2</v>
+      </c>
+      <c r="I42" s="53">
+        <f t="shared" si="4"/>
+        <v>-1.8510163131290044E-2</v>
+      </c>
+      <c r="J42" s="25" t="str">
+        <f>IF(I42&gt;0, ('BPV Calcs'!$B$8/12)+(I42/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="41">
+        <f t="shared" si="7"/>
         <v>6.1847405437448669E-2</v>
       </c>
-      <c r="G42" s="69">
-        <f>$M$7/((C42*(1-F42))+(D42*F42))</f>
+      <c r="M42" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H42" s="53">
-        <f t="shared" si="1"/>
+      <c r="N42" s="53">
+        <f t="shared" si="5"/>
         <v>4.6461315352147849E-2</v>
       </c>
-      <c r="I42" s="25">
-        <f>IF(H42&gt;$G$55, $G$58-(G42*(1-F42)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.56529631622476284</v>
-      </c>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O42" s="53">
+        <f t="shared" si="6"/>
+        <v>9.4729668788250954E-3</v>
+      </c>
+      <c r="P42" s="25" t="str">
+        <f>IF(I42&gt;0, ('BPV Calcs'!$B$8/12)+(O42/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>67.099999999999994</v>
       </c>
@@ -9888,26 +11093,51 @@
       <c r="D43" s="25">
         <v>0.301425510472</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="53"/>
       <c r="F43" s="41">
         <f t="shared" si="2"/>
+        <v>1.9707963149169245E-2</v>
+      </c>
+      <c r="G43" s="69">
+        <f>$T$7/((C43*(1-F43))+(D43*F43))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H43" s="53">
+        <f t="shared" si="3"/>
+        <v>1.4359918425221848E-2</v>
+      </c>
+      <c r="I43" s="53">
+        <f t="shared" si="4"/>
+        <v>-2.2628430048100903E-2</v>
+      </c>
+      <c r="J43" s="25" t="str">
+        <f>IF(I43&gt;0, ('BPV Calcs'!$B$8/12)+(I43/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K43" s="17"/>
+      <c r="L43" s="41">
+        <f t="shared" si="7"/>
         <v>5.6559004365802502E-2</v>
       </c>
-      <c r="G43" s="69">
-        <f>$M$7/((C43*(1-F43))+(D43*F43))</f>
+      <c r="M43" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H43" s="53">
-        <f t="shared" si="1"/>
+      <c r="N43" s="53">
+        <f t="shared" si="5"/>
         <v>4.2488536410808235E-2</v>
       </c>
-      <c r="I43" s="25">
-        <f>IF(H43&gt;$G$55, $G$58-(G43*(1-F43)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.54664940186733357</v>
-      </c>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O43" s="53">
+        <f t="shared" si="6"/>
+        <v>5.5001879374854817E-3</v>
+      </c>
+      <c r="P43" s="25" t="str">
+        <f>IF(I43&gt;0, ('BPV Calcs'!$B$8/12)+(O43/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>68</v>
       </c>
@@ -9920,26 +11150,51 @@
       <c r="D44" s="25">
         <v>0.30654265819839999</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="41">
         <f t="shared" si="2"/>
+        <v>1.3849237062883164E-2</v>
+      </c>
+      <c r="G44" s="69">
+        <f>$T$7/((C44*(1-F44))+(D44*F44))</f>
+        <v>0.7286353397625045</v>
+      </c>
+      <c r="H44" s="53">
+        <f t="shared" si="3"/>
+        <v>1.0091043552765345E-2</v>
+      </c>
+      <c r="I44" s="53">
+        <f t="shared" si="4"/>
+        <v>-2.6897304920557408E-2</v>
+      </c>
+      <c r="J44" s="25" t="str">
+        <f>IF(I44&gt;0, ('BPV Calcs'!$B$8/12)+(I44/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="41">
+        <f t="shared" si="7"/>
         <v>5.1078607093820678E-2</v>
       </c>
-      <c r="G44" s="69">
-        <f>$M$7/((C44*(1-F44))+(D44*F44))</f>
+      <c r="M44" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H44" s="53">
-        <f t="shared" si="1"/>
+      <c r="N44" s="53">
+        <f t="shared" si="5"/>
         <v>3.8371525129451856E-2</v>
       </c>
-      <c r="I44" s="25">
-        <f>IF(H44&gt;$G$55, $G$58-(G44*(1-F44)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
-        <v>0.52732550846536741</v>
-      </c>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O44" s="53">
+        <f t="shared" si="6"/>
+        <v>1.3831766561291023E-3</v>
+      </c>
+      <c r="P44" s="25" t="str">
+        <f>IF(I44&gt;0, ('BPV Calcs'!$B$8/12)+(O44/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="Q44" s="17"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>68.900000000000006</v>
       </c>
@@ -9952,26 +11207,51 @@
       <c r="D45" s="25">
         <v>0.31179093275039999</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="41">
         <f t="shared" si="2"/>
+        <v>7.7675006515787424E-3</v>
+      </c>
+      <c r="G45" s="69">
+        <f>$T$7/((C45*(1-F45))+(D45*F45))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H45" s="53">
+        <f t="shared" si="3"/>
+        <v>5.6596754763685508E-3</v>
+      </c>
+      <c r="I45" s="53">
+        <f t="shared" si="4"/>
+        <v>-3.1328672996954202E-2</v>
+      </c>
+      <c r="J45" s="25" t="str">
+        <f>IF(I45&gt;0, ('BPV Calcs'!$B$8/12)+(I45/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="41">
+        <f t="shared" si="7"/>
         <v>4.5391024185220959E-2</v>
       </c>
-      <c r="G45" s="69">
-        <f>$M$7/((C45*(1-F45))+(D45*F45))</f>
+      <c r="M45" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H45" s="53">
-        <f t="shared" si="1"/>
+      <c r="N45" s="53">
+        <f t="shared" si="5"/>
         <v>3.4098870824249061E-2</v>
       </c>
-      <c r="I45" s="25" t="str">
-        <f>IF(H45&gt;$G$55, $G$58-(G45*(1-F45)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O45" s="53">
+        <f t="shared" si="6"/>
+        <v>-2.889477649073692E-3</v>
+      </c>
+      <c r="P45" s="25" t="str">
+        <f>IF(I45&gt;0, ('BPV Calcs'!$B$8/12)+(O45/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q45" s="17"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>69.8</v>
       </c>
@@ -9984,26 +11264,51 @@
       <c r="D46" s="25">
         <v>0.31717698942559996</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="41">
         <f t="shared" si="2"/>
+        <v>1.4484372022368131E-3</v>
+      </c>
+      <c r="G46" s="69">
+        <f>$T$7/((C46*(1-F46))+(D46*F46))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H46" s="53">
+        <f>G46*F46</f>
+        <v>1.0553825329764717E-3</v>
+      </c>
+      <c r="I46" s="53">
+        <f t="shared" si="4"/>
+        <v>-3.5932965940346284E-2</v>
+      </c>
+      <c r="J46" s="25" t="str">
+        <f>IF(I46&gt;0, ('BPV Calcs'!$B$8/12)+(I46/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K46" s="17"/>
+      <c r="L46" s="41">
+        <f t="shared" si="7"/>
         <v>3.9483036942300216E-2</v>
       </c>
-      <c r="G46" s="69">
-        <f>$M$7/((C46*(1-F46))+(D46*F46))</f>
+      <c r="M46" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492435</v>
       </c>
-      <c r="H46" s="53">
-        <f t="shared" si="1"/>
+      <c r="N46" s="53">
+        <f t="shared" si="5"/>
         <v>2.9660643279402023E-2</v>
       </c>
-      <c r="I46" s="25" t="str">
-        <f>IF(H46&gt;$G$55, $G$58-(G46*(1-F46)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O46" s="53">
+        <f t="shared" si="6"/>
+        <v>-7.3277051939207305E-3</v>
+      </c>
+      <c r="P46" s="25" t="str">
+        <f>IF(I46&gt;0, ('BPV Calcs'!$B$8/12)+(O46/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q46" s="17"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="70">
         <v>70</v>
       </c>
@@ -10019,28 +11324,53 @@
         <f>D46+(((D48-D46)/($A$48-$A$46))*($A$47-$A$46))</f>
         <v>0.31840613902737774</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="72">
-        <f t="shared" si="2"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="41">
+        <f>($C$47-C47)/(D47-C47)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="69">
+        <f>$T$7/((C47*(1-F47))+(D47*F47))</f>
+        <v>0.72863533976250439</v>
+      </c>
+      <c r="H47" s="53">
+        <f>G47*F47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="53">
+        <f t="shared" si="4"/>
+        <v>-3.6988348473322753E-2</v>
+      </c>
+      <c r="J47" s="25" t="str">
+        <f>IF(I47&gt;0, ('BPV Calcs'!$B$8/12)+(I47/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
+        <v>SEE EQN in Notes</v>
+      </c>
+      <c r="K47" s="17"/>
+      <c r="L47" s="72">
+        <f t="shared" si="7"/>
         <v>3.8129176343576189E-2</v>
       </c>
-      <c r="G47" s="73">
-        <f>$M$7/((C47*(1-F47))+(D47*F47))</f>
+      <c r="M47" s="73">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H47" s="50">
-        <f t="shared" si="1"/>
+      <c r="N47" s="50">
+        <f t="shared" si="5"/>
         <v>2.8643589390475625E-2</v>
       </c>
-      <c r="I47" s="45" t="str">
-        <f>IF(H47&gt;$G$55, $G$58-(G47*(1-F47)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O47" s="53">
+        <f t="shared" si="6"/>
+        <v>-8.3447590828471287E-3</v>
+      </c>
+      <c r="P47" s="25" t="str">
+        <f>IF(I47&gt;0, ('BPV Calcs'!$B$8/12)+(O47/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J47" s="17"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="52"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q47" s="17"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>70.7</v>
       </c>
@@ -10053,26 +11383,36 @@
       <c r="D48" s="25">
         <v>0.32270816263359997</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="41">
-        <f t="shared" si="2"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="41">
+        <f t="shared" si="7"/>
         <v>3.3337176339955747E-2</v>
       </c>
-      <c r="G48" s="69">
-        <f>$M$7/((C48*(1-F48))+(D48*F48))</f>
+      <c r="M48" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H48" s="53">
-        <f t="shared" si="1"/>
+      <c r="N48" s="53">
+        <f t="shared" si="5"/>
         <v>2.50437193270357E-2</v>
       </c>
-      <c r="I48" s="25" t="str">
-        <f>IF(H48&gt;$G$55, $G$58-(G48*(1-F48)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O48" s="53">
+        <f t="shared" si="6"/>
+        <v>-1.1944629146287054E-2</v>
+      </c>
+      <c r="P48" s="25" t="str">
+        <f>IF(I48&gt;0, ('BPV Calcs'!$B$8/12)+(O48/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>71.599999999999994</v>
       </c>
@@ -10085,26 +11425,36 @@
       <c r="D49" s="25">
         <v>0.32839236888000001</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="41">
-        <f t="shared" si="2"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="41">
+        <f t="shared" si="7"/>
         <v>2.693291798927008E-2</v>
       </c>
-      <c r="G49" s="69">
-        <f>$M$7/((C49*(1-F49))+(D49*F49))</f>
+      <c r="M49" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H49" s="53">
-        <f t="shared" si="1"/>
+      <c r="N49" s="53">
+        <f t="shared" si="5"/>
         <v>2.0232680533682115E-2</v>
       </c>
-      <c r="I49" s="25" t="str">
-        <f>IF(H49&gt;$G$55, $G$58-(G49*(1-F49)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O49" s="53">
+        <f t="shared" si="6"/>
+        <v>-1.6755667939640638E-2</v>
+      </c>
+      <c r="P49" s="25" t="str">
+        <f>IF(I49&gt;0, ('BPV Calcs'!$B$8/12)+(O49/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q49" s="17"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>72.5</v>
       </c>
@@ -10117,26 +11467,36 @@
       <c r="D50" s="25">
         <v>0.33423830079839995</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="41">
-        <f t="shared" si="2"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="41">
+        <f t="shared" si="7"/>
         <v>2.0249656851450533E-2</v>
       </c>
-      <c r="G50" s="69">
-        <f>$M$7/((C50*(1-F50))+(D50*F50))</f>
+      <c r="M50" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H50" s="53">
-        <f t="shared" si="1"/>
+      <c r="N50" s="53">
+        <f t="shared" si="5"/>
         <v>1.5212047879673117E-2</v>
       </c>
-      <c r="I50" s="25" t="str">
-        <f>IF(H50&gt;$G$55, $G$58-(G50*(1-F50)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O50" s="53">
+        <f t="shared" si="6"/>
+        <v>-2.1776300593649635E-2</v>
+      </c>
+      <c r="P50" s="25" t="str">
+        <f>IF(I50&gt;0, ('BPV Calcs'!$B$8/12)+(O50/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q50" s="17"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>73.400000000000006</v>
       </c>
@@ -10149,26 +11509,36 @@
       <c r="D51" s="25">
         <v>0.34025552416639998</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="41">
-        <f t="shared" si="2"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="41">
+        <f t="shared" si="7"/>
         <v>1.3264956550221583E-2</v>
       </c>
-      <c r="G51" s="69">
-        <f>$M$7/((C51*(1-F51))+(D51*F51))</f>
+      <c r="M51" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H51" s="53">
-        <f t="shared" si="1"/>
+      <c r="N51" s="53">
+        <f t="shared" si="5"/>
         <v>9.964966598893241E-3</v>
       </c>
-      <c r="I51" s="25" t="str">
-        <f>IF(H51&gt;$G$55, $G$58-(G51*(1-F51)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O51" s="53">
+        <f t="shared" si="6"/>
+        <v>-2.7023381874429514E-2</v>
+      </c>
+      <c r="P51" s="25" t="str">
+        <f>IF(I51&gt;0, ('BPV Calcs'!$B$8/12)+(O51/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q51" s="17"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>74.3</v>
       </c>
@@ -10181,26 +11551,36 @@
       <c r="D52" s="25">
         <v>0.34645449730880001</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="41">
-        <f t="shared" si="2"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="41">
+        <f t="shared" si="7"/>
         <v>5.9508601980526824E-3</v>
       </c>
-      <c r="G52" s="69">
-        <f>$M$7/((C52*(1-F52))+(D52*F52))</f>
+      <c r="M52" s="69">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H52" s="53">
-        <f t="shared" si="1"/>
+      <c r="N52" s="53">
+        <f t="shared" si="5"/>
         <v>4.4704347793199243E-3</v>
       </c>
-      <c r="I52" s="25" t="str">
-        <f>IF(H52&gt;$G$55, $G$58-(G52*(1-F52)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O52" s="53">
+        <f t="shared" si="6"/>
+        <v>-3.251791369400283E-2</v>
+      </c>
+      <c r="P52" s="25" t="str">
+        <f>IF(I52&gt;0, ('BPV Calcs'!$B$8/12)+(O52/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q52" s="17"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="70">
         <v>75</v>
       </c>
@@ -10209,35 +11589,45 @@
         <v>799.74517236666668</v>
       </c>
       <c r="C53" s="44">
-        <f t="shared" ref="C53:D53" si="3">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
+        <f t="shared" ref="C53:D53" si="9">C52+(((C54-C52)/($A$54-$A$52))*($A$53-$A$52))</f>
         <v>1.4612000162666667</v>
       </c>
       <c r="D53" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.35142632153493331</v>
       </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="74">
-        <f t="shared" si="2"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="74">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G53" s="75">
-        <f>$M$7/((C53*(1-F53))+(D53*F53))</f>
+      <c r="M53" s="75">
+        <f t="shared" si="8"/>
         <v>0.75122497093492424</v>
       </c>
-      <c r="H53" s="76">
-        <f t="shared" si="1"/>
+      <c r="N53" s="76">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I53" s="45" t="str">
-        <f>IF(H53&gt;$G$55, $G$58-(G53*(1-F53)-$G$55)/(PI()*('BPV Calcs'!$B$8/12)^2), "SEE EQN in Notes")</f>
+      <c r="O53" s="53">
+        <f t="shared" si="6"/>
+        <v>-3.6988348473322753E-2</v>
+      </c>
+      <c r="P53" s="25" t="str">
+        <f>IF(I53&gt;0, ('BPV Calcs'!$B$8/12)+(O53/(PI()*(('BPV Calcs'!$B$8/12)^2))), "SEE EQN in Notes")</f>
         <v>SEE EQN in Notes</v>
       </c>
-      <c r="J53" s="53"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q53" s="53"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>75.2</v>
       </c>
@@ -10250,14 +11640,21 @@
       <c r="D54" s="25">
         <v>0.35284684274239997</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>76.099999999999994</v>
       </c>
@@ -10270,19 +11667,26 @@
       <c r="D55" s="25">
         <v>0.35944542478879998</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" s="17">
-        <f>(2/3)*PI()*(('BPV Calcs'!B8/12)^3)</f>
-        <v>3.6988348473322753E-2</v>
-      </c>
+      <c r="E55" s="53"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K55" s="17"/>
+      <c r="L55" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" s="17">
+        <f>(2/3)*PI()*(('BPV Calcs'!B8/12)^3)</f>
+        <v>3.6988348473322753E-2</v>
+      </c>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>77</v>
       </c>
@@ -10295,19 +11699,26 @@
       <c r="D56" s="25">
         <v>0.36626458241279997</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="17">
-        <f>G4-(2*G55)</f>
-        <v>0.67724827398827869</v>
-      </c>
+      <c r="E56" s="53"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K56" s="17"/>
+      <c r="L56" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" s="17">
+        <f>M4-(2*M55)</f>
+        <v>0.67724827398827869</v>
+      </c>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>77.900000000000006</v>
       </c>
@@ -10320,19 +11731,26 @@
       <c r="D57" s="25">
         <v>0.37332036206079999</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" s="17">
-        <f>G56/(PI()*(('BPV Calcs'!B8/12)^2))</f>
-        <v>3.1787800807053701</v>
-      </c>
+      <c r="E57" s="53"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K57" s="17"/>
+      <c r="L57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M57" s="17">
+        <f>M56/(PI()*(('BPV Calcs'!B8/12)^2))</f>
+        <v>3.1787800807053701</v>
+      </c>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>78.8</v>
       </c>
@@ -10345,19 +11763,26 @@
       <c r="D58" s="25">
         <v>0.38063080870880001</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="17">
-        <f>G57+(2*'BPV Calcs'!B8/12)</f>
-        <v>3.6996134140387036</v>
-      </c>
+      <c r="E58" s="53"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K58" s="17"/>
+      <c r="L58" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M58" s="17">
+        <f>M57+(2*'BPV Calcs'!B8/12)</f>
+        <v>3.6996134140387036</v>
+      </c>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>79.7</v>
       </c>
@@ -10370,14 +11795,21 @@
       <c r="D59" s="25">
         <v>0.38821637332959996</v>
       </c>
-      <c r="E59" s="17"/>
+      <c r="E59" s="53"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>80.599999999999994</v>
       </c>
@@ -10390,14 +11822,21 @@
       <c r="D60" s="25">
         <v>0.3961002815536</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K60" s="17"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>81.5</v>
       </c>
@@ -10410,14 +11849,21 @@
       <c r="D61" s="25">
         <v>0.40430919337760002</v>
       </c>
-      <c r="E61" s="17"/>
+      <c r="E61" s="53"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>82.4</v>
       </c>
@@ -10430,14 +11876,21 @@
       <c r="D62" s="25">
         <v>0.41287390167999999</v>
       </c>
-      <c r="E62" s="17"/>
+      <c r="E62" s="53"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>83.3</v>
       </c>
@@ -10450,14 +11903,21 @@
       <c r="D63" s="25">
         <v>0.42183024417120002</v>
       </c>
-      <c r="E63" s="17"/>
+      <c r="E63" s="53"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>84.2</v>
       </c>
@@ -10470,14 +11930,21 @@
       <c r="D64" s="25">
         <v>0.43122034519840002</v>
       </c>
-      <c r="E64" s="17"/>
+      <c r="E64" s="53"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>85.1</v>
       </c>
@@ -10490,14 +11957,21 @@
       <c r="D65" s="25">
         <v>0.44109424561439997</v>
       </c>
-      <c r="E65" s="17"/>
+      <c r="E65" s="53"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>86</v>
       </c>
@@ -10510,14 +11984,21 @@
       <c r="D66" s="25">
         <v>0.45151211474239994</v>
       </c>
-      <c r="E66" s="17"/>
+      <c r="E66" s="53"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
         <v>86.9</v>
       </c>
@@ -10530,14 +12011,21 @@
       <c r="D67" s="25">
         <v>0.4625472966784</v>
       </c>
-      <c r="E67" s="17"/>
+      <c r="E67" s="53"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>87.8</v>
       </c>
@@ -10550,14 +12038,21 @@
       <c r="D68" s="25">
         <v>0.47429065660800002</v>
       </c>
-      <c r="E68" s="17"/>
+      <c r="E68" s="53"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
         <v>88.7</v>
       </c>
@@ -10570,14 +12065,21 @@
       <c r="D69" s="25">
         <v>0.48685690624959999</v>
       </c>
-      <c r="E69" s="17"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>89.6</v>
       </c>
@@ -10590,14 +12092,21 @@
       <c r="D70" s="25">
         <v>0.50039415022879996</v>
       </c>
-      <c r="E70" s="17"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>90.5</v>
       </c>
@@ -10610,14 +12119,21 @@
       <c r="D71" s="25">
         <v>0.51509886534880001</v>
       </c>
-      <c r="E71" s="17"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>91.4</v>
       </c>
@@ -10630,14 +12146,21 @@
       <c r="D72" s="25">
         <v>0.53124065907359996</v>
       </c>
-      <c r="E72" s="17"/>
+      <c r="E72" s="53"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>92.3</v>
       </c>
@@ -10650,14 +12173,21 @@
       <c r="D73" s="25">
         <v>0.54920555806720006</v>
       </c>
-      <c r="E73" s="17"/>
+      <c r="E73" s="53"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>93.2</v>
       </c>
@@ -10670,14 +12200,21 @@
       <c r="D74" s="25">
         <v>0.56957841358399997</v>
       </c>
-      <c r="E74" s="17"/>
+      <c r="E74" s="53"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>94.1</v>
       </c>
@@ -10690,14 +12227,21 @@
       <c r="D75" s="25">
         <v>0.59331624965759999</v>
       </c>
-      <c r="E75" s="17"/>
+      <c r="E75" s="53"/>
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>95</v>
       </c>
@@ -10710,14 +12254,21 @@
       <c r="D76" s="25">
         <v>0.6221741633408</v>
       </c>
-      <c r="E76" s="17"/>
+      <c r="E76" s="53"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>95.9</v>
       </c>
@@ -10730,14 +12281,21 @@
       <c r="D77" s="25">
         <v>0.66003374539039994</v>
       </c>
-      <c r="E77" s="17"/>
+      <c r="E77" s="53"/>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>96.8</v>
       </c>
@@ -10750,14 +12308,21 @@
       <c r="D78" s="25">
         <v>0.7195324357888</v>
       </c>
-      <c r="E78" s="17"/>
+      <c r="E78" s="53"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="28">
         <v>97.47</v>
       </c>
@@ -10770,16 +12335,23 @@
       <c r="D79" s="26">
         <v>0.8770468760672</v>
       </c>
-      <c r="E79" s="18"/>
+      <c r="E79" s="105"/>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="22"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J79" s="17"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="22"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -13000,13 +14572,17 @@
       <c r="A819" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F60:G60"/>
+  <mergeCells count="7">
+    <mergeCell ref="L60:M60"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F60:G60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>